--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -705,7 +705,7 @@
         <v>0.0021</v>
       </c>
       <c r="G2">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0.0021</v>
       </c>
       <c r="G3">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0.002</v>
       </c>
       <c r="G4">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0.002</v>
       </c>
       <c r="G5">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>150500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -821,7 +821,7 @@
         <v>0.0029</v>
       </c>
       <c r="G6">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>0.0018</v>
       </c>
       <c r="G7">
-        <v>-0.57</v>
+        <v>-0.58</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -879,7 +879,7 @@
         <v>0.0017</v>
       </c>
       <c r="G8">
-        <v>-0.55</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>0.0017</v>
       </c>
       <c r="G9">
-        <v>-0.53</v>
+        <v>-0.54</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>500</v>
+        <v>49200</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -937,7 +937,7 @@
         <v>0.0048</v>
       </c>
       <c r="G10">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -966,13 +966,13 @@
         <v>0.0031</v>
       </c>
       <c r="G11">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -995,13 +995,13 @@
         <v>0.0022</v>
       </c>
       <c r="G12">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="H12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1018,19 +1018,19 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F13">
-        <v>0.0036</v>
+        <v>0.0029</v>
       </c>
       <c r="G13">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="H13">
         <v>0.01</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1053,10 +1053,10 @@
         <v>0.0034</v>
       </c>
       <c r="G14">
-        <v>-0.43</v>
+        <v>-0.45</v>
       </c>
       <c r="H14">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0.0033</v>
       </c>
       <c r="G15">
-        <v>-0.41</v>
+        <v>-0.43</v>
       </c>
       <c r="H15">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I15">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1105,19 +1105,19 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F16">
-        <v>0.0039</v>
+        <v>0.0033</v>
       </c>
       <c r="G16">
-        <v>-0.4</v>
+        <v>-0.42</v>
       </c>
       <c r="H16">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1134,19 +1134,19 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F17">
-        <v>0.0039</v>
+        <v>0.0032</v>
       </c>
       <c r="G17">
-        <v>-0.39</v>
+        <v>-0.41</v>
       </c>
       <c r="H17">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17">
-        <v>93900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1163,19 +1163,19 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F18">
-        <v>0.0038</v>
+        <v>0.0032</v>
       </c>
       <c r="G18">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="H18">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I18">
-        <v>12600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1192,19 +1192,19 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F19">
-        <v>0.0038</v>
+        <v>0.0044</v>
       </c>
       <c r="G19">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="H19">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="I19">
-        <v>100600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,13 +1227,13 @@
         <v>0.0043</v>
       </c>
       <c r="G20">
-        <v>-0.36</v>
+        <v>-0.38</v>
       </c>
       <c r="H20">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="I20">
-        <v>40100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1256,13 +1256,13 @@
         <v>0.0042</v>
       </c>
       <c r="G21">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="H21">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="I21">
-        <v>30400</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1279,19 +1279,19 @@
         <v>90</v>
       </c>
       <c r="E22">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F22">
-        <v>0.0048</v>
+        <v>0.0042</v>
       </c>
       <c r="G22">
-        <v>-0.34</v>
+        <v>-0.36</v>
       </c>
       <c r="H22">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I22">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1308,19 +1308,19 @@
         <v>90</v>
       </c>
       <c r="E23">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F23">
-        <v>0.0047</v>
+        <v>0.0053</v>
       </c>
       <c r="G23">
-        <v>-0.33</v>
+        <v>-0.35</v>
       </c>
       <c r="H23">
-        <v>0.73</v>
+        <v>0.42</v>
       </c>
       <c r="I23">
-        <v>2200</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1343,13 +1343,13 @@
         <v>0.0058</v>
       </c>
       <c r="G24">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="H24">
-        <v>0.93</v>
+        <v>0.55</v>
       </c>
       <c r="I24">
-        <v>12600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1366,19 +1366,19 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F25">
-        <v>0.0051</v>
+        <v>0.0057</v>
       </c>
       <c r="G25">
-        <v>-0.31</v>
+        <v>-0.33</v>
       </c>
       <c r="H25">
-        <v>1.18</v>
+        <v>0.71</v>
       </c>
       <c r="I25">
-        <v>90000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1401,13 +1401,13 @@
         <v>0.0056</v>
       </c>
       <c r="G26">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
       <c r="H26">
-        <v>1.84</v>
+        <v>1.14</v>
       </c>
       <c r="I26">
-        <v>34300</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1424,19 +1424,19 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F27">
-        <v>0.0066</v>
+        <v>0.006</v>
       </c>
       <c r="G27">
-        <v>-0.28</v>
+        <v>-0.3</v>
       </c>
       <c r="H27">
-        <v>2.26</v>
+        <v>1.43</v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1459,13 +1459,13 @@
         <v>0.007</v>
       </c>
       <c r="G28">
-        <v>-0.27</v>
+        <v>-0.29</v>
       </c>
       <c r="H28">
-        <v>2.76</v>
+        <v>1.77</v>
       </c>
       <c r="I28">
-        <v>86400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1488,13 +1488,13 @@
         <v>0.008</v>
       </c>
       <c r="G29">
-        <v>-0.26</v>
+        <v>-0.28</v>
       </c>
       <c r="H29">
-        <v>3.33</v>
+        <v>2.17</v>
       </c>
       <c r="I29">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1511,19 +1511,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F30">
-        <v>0.007900000000000001</v>
+        <v>0.0063</v>
       </c>
       <c r="G30">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="H30">
-        <v>3.98</v>
+        <v>2.63</v>
       </c>
       <c r="I30">
-        <v>13900</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1540,19 +1540,19 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F31">
-        <v>0.0083</v>
+        <v>0.0073</v>
       </c>
       <c r="G31">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="H31">
-        <v>4.73</v>
+        <v>3.18</v>
       </c>
       <c r="I31">
-        <v>2100</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1569,19 +1569,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F32">
-        <v>0.0092</v>
+        <v>0.0077</v>
       </c>
       <c r="G32">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="H32">
-        <v>5.58</v>
+        <v>3.8</v>
       </c>
       <c r="I32">
-        <v>3400</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1604,10 +1604,10 @@
         <v>0.0106</v>
       </c>
       <c r="G33">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="H33">
-        <v>6.52</v>
+        <v>4.5</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1627,19 +1627,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F34">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="G34">
-        <v>-0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="H34">
-        <v>7.57</v>
+        <v>5.3</v>
       </c>
       <c r="I34">
-        <v>55800</v>
+        <v>102800</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1656,19 +1656,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="F35">
-        <v>0.0114</v>
+        <v>0.0089</v>
       </c>
       <c r="G35">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="H35">
-        <v>8.73</v>
+        <v>6.2</v>
       </c>
       <c r="I35">
-        <v>21500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,19 +1685,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="F36">
-        <v>0.0127</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="G36">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>7.19</v>
       </c>
       <c r="I36">
-        <v>102400</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1714,19 +1714,19 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="F37">
-        <v>0.0125</v>
+        <v>0.0106</v>
       </c>
       <c r="G37">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="H37">
-        <v>11.39</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I37">
-        <v>168600</v>
+        <v>130100</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1743,19 +1743,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="F38">
-        <v>0.0138</v>
+        <v>0.011</v>
       </c>
       <c r="G38">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="H38">
-        <v>12.88</v>
+        <v>9.5</v>
       </c>
       <c r="I38">
-        <v>186800</v>
+        <v>88100</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1772,19 +1772,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="F39">
-        <v>0.0136</v>
+        <v>0.0118</v>
       </c>
       <c r="G39">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="H39">
-        <v>14.49</v>
+        <v>10.82</v>
       </c>
       <c r="I39">
-        <v>38900</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1801,19 +1801,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="F40">
-        <v>0.0153</v>
+        <v>0.0126</v>
       </c>
       <c r="G40">
-        <v>-0.16</v>
+        <v>-0.18</v>
       </c>
       <c r="H40">
-        <v>16.2</v>
+        <v>12.24</v>
       </c>
       <c r="I40">
-        <v>40100</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1830,19 +1830,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F41">
-        <v>0.017</v>
+        <v>0.0138</v>
       </c>
       <c r="G41">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="H41">
-        <v>18.02</v>
+        <v>13.77</v>
       </c>
       <c r="I41">
-        <v>29400</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1859,19 +1859,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="F42">
-        <v>0.0191</v>
+        <v>0.0145</v>
       </c>
       <c r="G42">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="H42">
-        <v>19.94</v>
+        <v>15.41</v>
       </c>
       <c r="I42">
-        <v>327000</v>
+        <v>129400</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1885,22 +1885,22 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="F43">
-        <v>0.0211</v>
+        <v>0.0162</v>
       </c>
       <c r="G43">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="H43">
-        <v>21.96</v>
+        <v>17.15</v>
       </c>
       <c r="I43">
-        <v>84300</v>
+        <v>96100</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1914,22 +1914,22 @@
         <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="F44">
-        <v>0.0218</v>
+        <v>0.0169</v>
       </c>
       <c r="G44">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="H44">
-        <v>24.06</v>
+        <v>18.99</v>
       </c>
       <c r="I44">
-        <v>31800</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1943,22 +1943,22 @@
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E45">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="F45">
-        <v>0.0264</v>
+        <v>0.0189</v>
       </c>
       <c r="G45">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="H45">
-        <v>26.25</v>
+        <v>20.93</v>
       </c>
       <c r="I45">
-        <v>40400</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1972,22 +1972,22 @@
         <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="F46">
-        <v>0.027</v>
+        <v>0.0209</v>
       </c>
       <c r="G46">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="H46">
-        <v>28.5</v>
+        <v>22.95</v>
       </c>
       <c r="I46">
-        <v>665000</v>
+        <v>204900</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,22 +2001,22 @@
         <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="F47">
-        <v>0.0284</v>
+        <v>0.0219</v>
       </c>
       <c r="G47">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="H47">
-        <v>30.82</v>
+        <v>25.05</v>
       </c>
       <c r="I47">
-        <v>157200</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,22 +2030,22 @@
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="F48">
-        <v>0.0315</v>
+        <v>0.0243</v>
       </c>
       <c r="G48">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="H48">
-        <v>33.19</v>
+        <v>27.23</v>
       </c>
       <c r="I48">
-        <v>93900</v>
+        <v>76900</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2062,19 +2062,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F49">
-        <v>0.0337</v>
+        <v>0.0282</v>
       </c>
       <c r="G49">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="H49">
-        <v>35.6</v>
+        <v>29.48</v>
       </c>
       <c r="I49">
-        <v>67400</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2091,19 +2091,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="F50">
-        <v>0.0358</v>
+        <v>0.0292</v>
       </c>
       <c r="G50">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="H50">
-        <v>38.05</v>
+        <v>31.78</v>
       </c>
       <c r="I50">
-        <v>291500</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2120,19 +2120,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>1.02</v>
+        <v>0.77</v>
       </c>
       <c r="F51">
-        <v>0.0421</v>
+        <v>0.0318</v>
       </c>
       <c r="G51">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H51">
-        <v>40.52</v>
+        <v>34.13</v>
       </c>
       <c r="I51">
-        <v>139200</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2149,19 +2149,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="F52">
-        <v>0.0473</v>
+        <v>0.0368</v>
       </c>
       <c r="G52">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="H52">
-        <v>45.48</v>
+        <v>38.93</v>
       </c>
       <c r="I52">
-        <v>187100</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2177,20 +2177,17 @@
       <c r="D53" t="s">
         <v>90</v>
       </c>
-      <c r="E53">
-        <v>1.28</v>
-      </c>
       <c r="F53">
-        <v>0.0512</v>
+        <v>0.04</v>
       </c>
       <c r="G53">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="H53">
-        <v>47.96</v>
+        <v>41.37</v>
       </c>
       <c r="I53">
-        <v>190700</v>
+        <v>77700</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="F54">
-        <v>0.0539</v>
+        <v>0.044</v>
       </c>
       <c r="G54">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="H54">
-        <v>50.42</v>
+        <v>43.81</v>
       </c>
       <c r="I54">
-        <v>128900</v>
+        <v>102900</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2236,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="F55">
-        <v>0.0569</v>
+        <v>0.0463</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="H55">
-        <v>52.86</v>
+        <v>46.25</v>
       </c>
       <c r="I55">
-        <v>60800</v>
+        <v>120700</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,10 +2265,10 @@
         <v>92</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="H56">
-        <v>52.86</v>
+        <v>46.25</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2291,19 +2288,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="F57">
-        <v>0.0606</v>
+        <v>0.0517</v>
       </c>
       <c r="G57">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H57">
-        <v>55.26</v>
+        <v>48.69</v>
       </c>
       <c r="I57">
-        <v>42200</v>
+        <v>22700</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2320,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="F58">
-        <v>0.0665</v>
+        <v>0.0554</v>
       </c>
       <c r="G58">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H58">
-        <v>57.61</v>
+        <v>51.1</v>
       </c>
       <c r="I58">
-        <v>458600</v>
+        <v>356000</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2349,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="F59">
-        <v>0.07049999999999999</v>
+        <v>0.059</v>
       </c>
       <c r="G59">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>59.92</v>
+        <v>53.49</v>
       </c>
       <c r="I59">
-        <v>51400</v>
+        <v>170500</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2378,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="F60">
-        <v>0.0747</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="G60">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H60">
-        <v>62.18</v>
+        <v>55.84</v>
       </c>
       <c r="I60">
-        <v>30600</v>
+        <v>121500</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2407,19 +2404,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="F61">
-        <v>0.0867</v>
+        <v>0.0692</v>
       </c>
       <c r="G61">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H61">
-        <v>64.37</v>
+        <v>58.15</v>
       </c>
       <c r="I61">
-        <v>14000</v>
+        <v>25400</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2436,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="F62">
-        <v>0.08890000000000001</v>
+        <v>0.0722</v>
       </c>
       <c r="G62">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H62">
-        <v>66.48999999999999</v>
+        <v>60.41</v>
       </c>
       <c r="I62">
-        <v>285700</v>
+        <v>432300</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2465,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="F63">
-        <v>0.1</v>
+        <v>0.0873</v>
       </c>
       <c r="G63">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H63">
-        <v>70.53</v>
+        <v>64.77</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2497,10 +2494,10 @@
         <v>92</v>
       </c>
       <c r="G64">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H64">
-        <v>70.53</v>
+        <v>64.77</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2520,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>2.81</v>
+        <v>2.57</v>
       </c>
       <c r="F65">
-        <v>0.1013</v>
+        <v>0.0926</v>
       </c>
       <c r="G65">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="H65">
-        <v>72.44</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="I65">
-        <v>600</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2549,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="F66">
-        <v>0.1107</v>
+        <v>0.0936</v>
       </c>
       <c r="G66">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H66">
-        <v>74.26000000000001</v>
+        <v>68.86</v>
       </c>
       <c r="I66">
-        <v>270300</v>
+        <v>568100</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2578,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="F67">
-        <v>0.1193</v>
+        <v>0.1035</v>
       </c>
       <c r="G67">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="H67">
-        <v>77.67</v>
+        <v>72.67</v>
       </c>
       <c r="I67">
-        <v>100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2610,10 +2607,10 @@
         <v>92</v>
       </c>
       <c r="G68">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="H68">
-        <v>77.67</v>
+        <v>72.67</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2633,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>3.58</v>
+        <v>3.34</v>
       </c>
       <c r="F69">
-        <v>0.1245</v>
+        <v>0.1162</v>
       </c>
       <c r="G69">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H69">
-        <v>79.26000000000001</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="I69">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2668,13 +2665,13 @@
         <v>0.1328</v>
       </c>
       <c r="G70">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="H70">
-        <v>80.76000000000001</v>
+        <v>76.17</v>
       </c>
       <c r="I70">
-        <v>30500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2691,19 +2688,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>4.26</v>
+        <v>4.16</v>
       </c>
       <c r="F71">
-        <v>0.1444</v>
+        <v>0.141</v>
       </c>
       <c r="G71">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="H71">
-        <v>83.52</v>
+        <v>79.36</v>
       </c>
       <c r="I71">
-        <v>22900</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2726,13 +2723,13 @@
         <v>0.1567</v>
       </c>
       <c r="G72">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="H72">
-        <v>85.97</v>
+        <v>82.23</v>
       </c>
       <c r="I72">
-        <v>23900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2755,10 +2752,10 @@
         <v>0.1574</v>
       </c>
       <c r="G73">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="H73">
-        <v>88.13</v>
+        <v>84.8</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2781,10 +2778,10 @@
         <v>92</v>
       </c>
       <c r="G74">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="H74">
-        <v>88.13</v>
+        <v>84.8</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2810,10 +2807,10 @@
         <v>0.1379</v>
       </c>
       <c r="G75">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="H75">
-        <v>89.11</v>
+        <v>85.97</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2839,10 +2836,10 @@
         <v>0.1742</v>
       </c>
       <c r="G76">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="H76">
-        <v>90.02</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2868,10 +2865,10 @@
         <v>0.2686</v>
       </c>
       <c r="G77">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="H77">
-        <v>91.65000000000001</v>
+        <v>89.06</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2897,10 +2894,10 @@
         <v>0.2835</v>
       </c>
       <c r="G78">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="H78">
-        <v>92.37</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2926,10 +2923,10 @@
         <v>0.5562</v>
       </c>
       <c r="G79">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="H79">
-        <v>93.05</v>
+        <v>90.8</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2952,10 +2949,10 @@
         <v>92</v>
       </c>
       <c r="G80">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="H80">
-        <v>94.23999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2981,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="H81">
-        <v>95.25</v>
+        <v>93.59</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -763,7 +763,7 @@
         <v>0.002</v>
       </c>
       <c r="G4">
-        <v>-0.63</v>
+        <v>-0.62</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0.002</v>
       </c>
       <c r="G5">
-        <v>-0.62</v>
+        <v>-0.61</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6500</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -821,7 +821,7 @@
         <v>0.0029</v>
       </c>
       <c r="G6">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>49200</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -989,10 +989,10 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F12">
-        <v>0.0022</v>
+        <v>0.003</v>
       </c>
       <c r="G12">
         <v>-0.48</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31800</v>
+        <v>51800</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1030,7 +1030,7 @@
         <v>0.01</v>
       </c>
       <c r="I13">
-        <v>2500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1053,10 +1053,10 @@
         <v>0.0034</v>
       </c>
       <c r="G14">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="H14">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>90</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F15">
-        <v>0.0033</v>
+        <v>0.004</v>
       </c>
       <c r="G15">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="H15">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I15">
-        <v>1000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1105,19 +1105,19 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F16">
-        <v>0.0033</v>
+        <v>0.0039</v>
       </c>
       <c r="G16">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="H16">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I16">
-        <v>1600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1140,13 +1140,13 @@
         <v>0.0032</v>
       </c>
       <c r="G17">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="H17">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1169,10 +1169,10 @@
         <v>0.0032</v>
       </c>
       <c r="G18">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="H18">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I18">
         <v>1100</v>
@@ -1192,19 +1192,19 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F19">
-        <v>0.0044</v>
+        <v>0.0038</v>
       </c>
       <c r="G19">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="H19">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,10 +1227,10 @@
         <v>0.0043</v>
       </c>
       <c r="G20">
-        <v>-0.38</v>
+        <v>-0.37</v>
       </c>
       <c r="H20">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0.0042</v>
       </c>
       <c r="G21">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="H21">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="I21">
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1285,13 +1285,13 @@
         <v>0.0042</v>
       </c>
       <c r="G22">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="H22">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="I22">
-        <v>50000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1308,19 +1308,19 @@
         <v>90</v>
       </c>
       <c r="E23">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F23">
-        <v>0.0053</v>
+        <v>0.0047</v>
       </c>
       <c r="G23">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="H23">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="I23">
-        <v>50000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1343,10 +1343,10 @@
         <v>0.0058</v>
       </c>
       <c r="G24">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="H24">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0.0057</v>
       </c>
       <c r="G25">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="H25">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="I25">
         <v>1000</v>
@@ -1395,19 +1395,19 @@
         <v>90</v>
       </c>
       <c r="E26">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F26">
-        <v>0.0056</v>
+        <v>0.005</v>
       </c>
       <c r="G26">
         <v>-0.31</v>
       </c>
       <c r="H26">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="I26">
-        <v>36100</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1433,7 +1433,7 @@
         <v>-0.3</v>
       </c>
       <c r="H27">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="I27">
         <v>100500</v>
@@ -1453,19 +1453,19 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F28">
-        <v>0.007</v>
+        <v>0.0059</v>
       </c>
       <c r="G28">
         <v>-0.29</v>
       </c>
       <c r="H28">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1491,7 +1491,7 @@
         <v>-0.28</v>
       </c>
       <c r="H29">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1511,19 +1511,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F30">
-        <v>0.0063</v>
+        <v>0.0074</v>
       </c>
       <c r="G30">
         <v>-0.27</v>
       </c>
       <c r="H30">
-        <v>2.63</v>
+        <v>3.02</v>
       </c>
       <c r="I30">
-        <v>43400</v>
+        <v>183300</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1540,19 +1540,19 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F31">
-        <v>0.0073</v>
+        <v>0.0078</v>
       </c>
       <c r="G31">
         <v>-0.26</v>
       </c>
       <c r="H31">
-        <v>3.18</v>
+        <v>3.63</v>
       </c>
       <c r="I31">
-        <v>21100</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1569,19 +1569,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F32">
-        <v>0.0077</v>
+        <v>0.0072</v>
       </c>
       <c r="G32">
         <v>-0.25</v>
       </c>
       <c r="H32">
-        <v>3.8</v>
+        <v>4.32</v>
       </c>
       <c r="I32">
-        <v>24300</v>
+        <v>60600</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1607,7 +1607,7 @@
         <v>-0.24</v>
       </c>
       <c r="H33">
-        <v>4.5</v>
+        <v>5.11</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1627,19 +1627,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F34">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G34">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="H34">
-        <v>5.3</v>
+        <v>5.99</v>
       </c>
       <c r="I34">
-        <v>102800</v>
+        <v>138800</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1656,19 +1656,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F35">
-        <v>0.0089</v>
+        <v>0.0094</v>
       </c>
       <c r="G35">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="H35">
-        <v>6.2</v>
+        <v>6.97</v>
       </c>
       <c r="I35">
-        <v>2400</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1691,13 +1691,13 @@
         <v>0.009299999999999999</v>
       </c>
       <c r="G36">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="H36">
-        <v>7.19</v>
+        <v>8.06</v>
       </c>
       <c r="I36">
-        <v>20800</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1720,10 +1720,10 @@
         <v>0.0106</v>
       </c>
       <c r="G37">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="H37">
-        <v>8.300000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="I37">
         <v>130100</v>
@@ -1743,19 +1743,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="F38">
-        <v>0.011</v>
+        <v>0.0119</v>
       </c>
       <c r="G38">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="H38">
-        <v>9.5</v>
+        <v>10.56</v>
       </c>
       <c r="I38">
-        <v>88100</v>
+        <v>527600</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1772,19 +1772,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F39">
-        <v>0.0118</v>
+        <v>0.0113</v>
       </c>
       <c r="G39">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="H39">
-        <v>10.82</v>
+        <v>11.98</v>
       </c>
       <c r="I39">
-        <v>33600</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1801,19 +1801,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="F40">
-        <v>0.0126</v>
+        <v>0.014</v>
       </c>
       <c r="G40">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="H40">
-        <v>12.24</v>
+        <v>13.5</v>
       </c>
       <c r="I40">
-        <v>48500</v>
+        <v>88300</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1836,13 +1836,13 @@
         <v>0.0138</v>
       </c>
       <c r="G41">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="H41">
-        <v>13.77</v>
+        <v>15.14</v>
       </c>
       <c r="I41">
-        <v>30100</v>
+        <v>95200</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1859,19 +1859,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="F42">
-        <v>0.0145</v>
+        <v>0.0159</v>
       </c>
       <c r="G42">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="H42">
-        <v>15.41</v>
+        <v>16.88</v>
       </c>
       <c r="I42">
-        <v>129400</v>
+        <v>1073000</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1894,13 +1894,13 @@
         <v>0.0162</v>
       </c>
       <c r="G43">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="H43">
-        <v>17.15</v>
+        <v>18.73</v>
       </c>
       <c r="I43">
-        <v>96100</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1917,19 +1917,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="F44">
-        <v>0.0169</v>
+        <v>0.0191</v>
       </c>
       <c r="G44">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="H44">
-        <v>18.99</v>
+        <v>20.67</v>
       </c>
       <c r="I44">
-        <v>31600</v>
+        <v>138500</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1943,22 +1943,22 @@
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="F45">
-        <v>0.0189</v>
+        <v>0.0202</v>
       </c>
       <c r="G45">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="H45">
-        <v>20.93</v>
+        <v>22.7</v>
       </c>
       <c r="I45">
-        <v>56100</v>
+        <v>117100</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1975,19 +1975,19 @@
         <v>91</v>
       </c>
       <c r="E46">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="F46">
-        <v>0.0209</v>
+        <v>0.0226</v>
       </c>
       <c r="G46">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="H46">
-        <v>22.95</v>
+        <v>24.82</v>
       </c>
       <c r="I46">
-        <v>204900</v>
+        <v>281500</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2004,19 +2004,19 @@
         <v>91</v>
       </c>
       <c r="E47">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="F47">
-        <v>0.0219</v>
+        <v>0.0228</v>
       </c>
       <c r="G47">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="H47">
-        <v>25.05</v>
+        <v>27.01</v>
       </c>
       <c r="I47">
-        <v>14600</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,22 +2030,22 @@
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="F48">
-        <v>0.0243</v>
+        <v>0.0268</v>
       </c>
       <c r="G48">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="H48">
-        <v>27.23</v>
+        <v>29.27</v>
       </c>
       <c r="I48">
-        <v>76900</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2062,19 +2062,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="F49">
-        <v>0.0282</v>
+        <v>0.0274</v>
       </c>
       <c r="G49">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="H49">
-        <v>29.48</v>
+        <v>31.59</v>
       </c>
       <c r="I49">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2091,19 +2091,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="F50">
-        <v>0.0292</v>
+        <v>0.0321</v>
       </c>
       <c r="G50">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H50">
-        <v>31.78</v>
+        <v>33.96</v>
       </c>
       <c r="I50">
-        <v>161000</v>
+        <v>568300</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2120,19 +2120,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="F51">
-        <v>0.0318</v>
+        <v>0.0351</v>
       </c>
       <c r="G51">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H51">
-        <v>34.13</v>
+        <v>36.36</v>
       </c>
       <c r="I51">
-        <v>41400</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2149,19 +2149,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F52">
-        <v>0.0368</v>
+        <v>0.04</v>
       </c>
       <c r="G52">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="H52">
-        <v>38.93</v>
+        <v>41.26</v>
       </c>
       <c r="I52">
-        <v>64000</v>
+        <v>115300</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2177,17 +2177,20 @@
       <c r="D53" t="s">
         <v>90</v>
       </c>
+      <c r="E53">
+        <v>1.08</v>
+      </c>
       <c r="F53">
-        <v>0.04</v>
+        <v>0.0432</v>
       </c>
       <c r="G53">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="H53">
-        <v>41.37</v>
+        <v>43.73</v>
       </c>
       <c r="I53">
-        <v>77700</v>
+        <v>250900</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2207,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="F54">
-        <v>0.044</v>
+        <v>0.0483</v>
       </c>
       <c r="G54">
         <v>-0.03</v>
       </c>
       <c r="H54">
-        <v>43.81</v>
+        <v>46.19</v>
       </c>
       <c r="I54">
-        <v>102900</v>
+        <v>159100</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2236,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="F55">
-        <v>0.0463</v>
+        <v>0.0522</v>
       </c>
       <c r="G55">
         <v>-0.02</v>
       </c>
       <c r="H55">
-        <v>46.25</v>
+        <v>48.65</v>
       </c>
       <c r="I55">
-        <v>120700</v>
+        <v>210900</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,7 +2271,7 @@
         <v>-0.02</v>
       </c>
       <c r="H56">
-        <v>46.25</v>
+        <v>48.65</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2288,19 +2291,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="F57">
-        <v>0.0517</v>
+        <v>0.0563</v>
       </c>
       <c r="G57">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H57">
-        <v>48.69</v>
+        <v>51.09</v>
       </c>
       <c r="I57">
-        <v>22700</v>
+        <v>60200</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2320,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="F58">
-        <v>0.0554</v>
+        <v>0.06</v>
       </c>
       <c r="G58">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>51.1</v>
+        <v>53.5</v>
       </c>
       <c r="I58">
-        <v>356000</v>
+        <v>545400</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2346,19 +2349,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="F59">
-        <v>0.059</v>
+        <v>0.0644</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H59">
-        <v>53.49</v>
+        <v>55.87</v>
       </c>
       <c r="I59">
-        <v>170500</v>
+        <v>229100</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2375,19 +2378,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="F60">
-        <v>0.06419999999999999</v>
+        <v>0.0672</v>
       </c>
       <c r="G60">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H60">
-        <v>55.84</v>
+        <v>58.21</v>
       </c>
       <c r="I60">
-        <v>121500</v>
+        <v>168500</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2404,19 +2407,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="F61">
-        <v>0.0692</v>
+        <v>0.0721</v>
       </c>
       <c r="G61">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H61">
-        <v>58.15</v>
+        <v>60.49</v>
       </c>
       <c r="I61">
-        <v>25400</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2433,19 +2436,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="F62">
-        <v>0.0722</v>
+        <v>0.0796</v>
       </c>
       <c r="G62">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H62">
-        <v>60.41</v>
+        <v>62.71</v>
       </c>
       <c r="I62">
-        <v>432300</v>
+        <v>855500</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2465,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="F63">
-        <v>0.0873</v>
+        <v>0.0898</v>
       </c>
       <c r="G63">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H63">
-        <v>64.77</v>
+        <v>66.98</v>
       </c>
       <c r="I63">
-        <v>14800</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,10 +2497,10 @@
         <v>92</v>
       </c>
       <c r="G64">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H64">
-        <v>64.77</v>
+        <v>66.98</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2517,19 +2520,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="F65">
-        <v>0.0926</v>
+        <v>0.0951</v>
       </c>
       <c r="G65">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H65">
-        <v>66.84999999999999</v>
+        <v>69</v>
       </c>
       <c r="I65">
-        <v>2600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2549,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="F66">
-        <v>0.0936</v>
+        <v>0.1</v>
       </c>
       <c r="G66">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H66">
-        <v>68.86</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="I66">
-        <v>568100</v>
+        <v>1156100</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2578,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="F67">
-        <v>0.1035</v>
+        <v>0.1123</v>
       </c>
       <c r="G67">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H67">
-        <v>72.67</v>
+        <v>74.63</v>
       </c>
       <c r="I67">
-        <v>1100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2607,10 +2610,10 @@
         <v>92</v>
       </c>
       <c r="G68">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H68">
-        <v>72.67</v>
+        <v>74.63</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2630,19 +2633,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>3.34</v>
+        <v>3.02</v>
       </c>
       <c r="F69">
-        <v>0.1162</v>
+        <v>0.105</v>
       </c>
       <c r="G69">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H69">
-        <v>74.45999999999999</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="I69">
-        <v>800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2659,19 +2662,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>3.85</v>
+        <v>3.39</v>
       </c>
       <c r="F70">
-        <v>0.1328</v>
+        <v>0.1169</v>
       </c>
       <c r="G70">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H70">
-        <v>76.17</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2688,19 +2691,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>4.16</v>
+        <v>3.88</v>
       </c>
       <c r="F71">
-        <v>0.141</v>
+        <v>0.1315</v>
       </c>
       <c r="G71">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H71">
-        <v>79.36</v>
+        <v>81.03</v>
       </c>
       <c r="I71">
-        <v>400</v>
+        <v>41300</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2717,19 +2720,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>0.1567</v>
+        <v>0.1333</v>
       </c>
       <c r="G72">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H72">
-        <v>82.23</v>
+        <v>83.75</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>40100</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2746,19 +2749,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>4.8</v>
+        <v>4.32</v>
       </c>
       <c r="F73">
-        <v>0.1574</v>
+        <v>0.1416</v>
       </c>
       <c r="G73">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H73">
-        <v>84.8</v>
+        <v>86.17</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2778,10 +2781,10 @@
         <v>92</v>
       </c>
       <c r="G74">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H74">
-        <v>84.8</v>
+        <v>86.17</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2807,10 +2810,10 @@
         <v>0.1379</v>
       </c>
       <c r="G75">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H75">
-        <v>85.97</v>
+        <v>87.27</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2830,19 +2833,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="F76">
-        <v>0.1742</v>
+        <v>0.171</v>
       </c>
       <c r="G76">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H76">
-        <v>87.06999999999999</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2865,10 +2868,10 @@
         <v>0.2686</v>
       </c>
       <c r="G77">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="H77">
-        <v>89.06</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2894,10 +2897,10 @@
         <v>0.2835</v>
       </c>
       <c r="G78">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="H78">
-        <v>89.95999999999999</v>
+        <v>90.98</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2923,10 +2926,10 @@
         <v>0.5562</v>
       </c>
       <c r="G79">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="H79">
-        <v>90.8</v>
+        <v>91.75</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2949,10 +2952,10 @@
         <v>92</v>
       </c>
       <c r="G80">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H80">
-        <v>92.3</v>
+        <v>93.13</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2978,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="H81">
-        <v>93.59</v>
+        <v>94.31</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>57200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>51800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1018,10 +1018,10 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F13">
-        <v>0.0029</v>
+        <v>0.0036</v>
       </c>
       <c r="G13">
         <v>-0.46</v>
@@ -1030,7 +1030,7 @@
         <v>0.01</v>
       </c>
       <c r="I13">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1085,10 +1085,10 @@
         <v>-0.42</v>
       </c>
       <c r="H15">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I15">
-        <v>10600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1105,19 +1105,19 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F16">
-        <v>0.0039</v>
+        <v>0.0033</v>
       </c>
       <c r="G16">
         <v>-0.41</v>
       </c>
       <c r="H16">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1143,10 +1143,10 @@
         <v>-0.4</v>
       </c>
       <c r="H17">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17">
-        <v>4100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1172,10 +1172,10 @@
         <v>-0.39</v>
       </c>
       <c r="H18">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1201,10 +1201,10 @@
         <v>-0.38</v>
       </c>
       <c r="H19">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I19">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1230,7 +1230,7 @@
         <v>-0.37</v>
       </c>
       <c r="H20">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>-0.36</v>
       </c>
       <c r="H21">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="I21">
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1288,10 +1288,10 @@
         <v>-0.35</v>
       </c>
       <c r="H22">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="I22">
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1317,10 +1317,10 @@
         <v>-0.34</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="I23">
-        <v>77000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1346,7 +1346,7 @@
         <v>-0.33</v>
       </c>
       <c r="H24">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>-0.32</v>
       </c>
       <c r="H25">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="I25">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1404,10 +1404,10 @@
         <v>-0.31</v>
       </c>
       <c r="H26">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="I26">
-        <v>61600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1433,10 +1433,10 @@
         <v>-0.3</v>
       </c>
       <c r="H27">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="I27">
-        <v>100500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1462,10 +1462,10 @@
         <v>-0.29</v>
       </c>
       <c r="H28">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="I28">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1491,7 +1491,7 @@
         <v>-0.28</v>
       </c>
       <c r="H29">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>-0.27</v>
       </c>
       <c r="H30">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="I30">
-        <v>183300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1549,10 +1549,10 @@
         <v>-0.26</v>
       </c>
       <c r="H31">
-        <v>3.63</v>
+        <v>3.45</v>
       </c>
       <c r="I31">
-        <v>42600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1569,19 +1569,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F32">
-        <v>0.0072</v>
+        <v>0.0077</v>
       </c>
       <c r="G32">
         <v>-0.25</v>
       </c>
       <c r="H32">
-        <v>4.32</v>
+        <v>4.12</v>
       </c>
       <c r="I32">
-        <v>60600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1607,7 +1607,7 @@
         <v>-0.24</v>
       </c>
       <c r="H33">
-        <v>5.11</v>
+        <v>4.88</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1636,10 +1636,10 @@
         <v>-0.23</v>
       </c>
       <c r="H34">
-        <v>5.99</v>
+        <v>5.74</v>
       </c>
       <c r="I34">
-        <v>138800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1665,10 +1665,10 @@
         <v>-0.22</v>
       </c>
       <c r="H35">
-        <v>6.97</v>
+        <v>6.71</v>
       </c>
       <c r="I35">
-        <v>13500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,19 +1685,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F36">
-        <v>0.009299999999999999</v>
+        <v>0.0102</v>
       </c>
       <c r="G36">
         <v>-0.21</v>
       </c>
       <c r="H36">
-        <v>8.06</v>
+        <v>7.78</v>
       </c>
       <c r="I36">
-        <v>29500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1723,10 +1723,10 @@
         <v>-0.2</v>
       </c>
       <c r="H37">
-        <v>9.25</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="I37">
-        <v>130100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1752,10 +1752,10 @@
         <v>-0.19</v>
       </c>
       <c r="H38">
-        <v>10.56</v>
+        <v>10.25</v>
       </c>
       <c r="I38">
-        <v>527600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1781,10 +1781,10 @@
         <v>-0.18</v>
       </c>
       <c r="H39">
-        <v>11.98</v>
+        <v>11.65</v>
       </c>
       <c r="I39">
-        <v>46600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1810,10 +1810,10 @@
         <v>-0.17</v>
       </c>
       <c r="H40">
-        <v>13.5</v>
+        <v>13.17</v>
       </c>
       <c r="I40">
-        <v>88300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1839,10 +1839,10 @@
         <v>-0.16</v>
       </c>
       <c r="H41">
-        <v>15.14</v>
+        <v>14.79</v>
       </c>
       <c r="I41">
-        <v>95200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1859,19 +1859,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F42">
-        <v>0.0159</v>
+        <v>0.0168</v>
       </c>
       <c r="G42">
         <v>-0.15</v>
       </c>
       <c r="H42">
-        <v>16.88</v>
+        <v>16.53</v>
       </c>
       <c r="I42">
-        <v>1073000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1888,19 +1888,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="F43">
-        <v>0.0162</v>
+        <v>0.0175</v>
       </c>
       <c r="G43">
         <v>-0.14</v>
       </c>
       <c r="H43">
-        <v>18.73</v>
+        <v>18.37</v>
       </c>
       <c r="I43">
-        <v>164000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1926,10 +1926,10 @@
         <v>-0.13</v>
       </c>
       <c r="H44">
-        <v>20.67</v>
+        <v>20.31</v>
       </c>
       <c r="I44">
-        <v>138500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1946,19 +1946,19 @@
         <v>91</v>
       </c>
       <c r="E45">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="F45">
-        <v>0.0202</v>
+        <v>0.0207</v>
       </c>
       <c r="G45">
         <v>-0.12</v>
       </c>
       <c r="H45">
-        <v>22.7</v>
+        <v>22.34</v>
       </c>
       <c r="I45">
-        <v>117100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1984,10 +1984,10 @@
         <v>-0.11</v>
       </c>
       <c r="H46">
-        <v>24.82</v>
+        <v>24.46</v>
       </c>
       <c r="I46">
-        <v>281500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2004,19 +2004,19 @@
         <v>91</v>
       </c>
       <c r="E47">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F47">
-        <v>0.0228</v>
+        <v>0.0241</v>
       </c>
       <c r="G47">
         <v>-0.1</v>
       </c>
       <c r="H47">
-        <v>27.01</v>
+        <v>26.66</v>
       </c>
       <c r="I47">
-        <v>21000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2033,19 +2033,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F48">
-        <v>0.0268</v>
+        <v>0.0264</v>
       </c>
       <c r="G48">
         <v>-0.09</v>
       </c>
       <c r="H48">
-        <v>29.27</v>
+        <v>28.94</v>
       </c>
       <c r="I48">
-        <v>136000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2062,19 +2062,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F49">
-        <v>0.0274</v>
+        <v>0.0286</v>
       </c>
       <c r="G49">
         <v>-0.08</v>
       </c>
       <c r="H49">
-        <v>31.59</v>
+        <v>31.27</v>
       </c>
       <c r="I49">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2091,19 +2091,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="F50">
-        <v>0.0321</v>
+        <v>0.0317</v>
       </c>
       <c r="G50">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H50">
-        <v>33.96</v>
+        <v>33.65</v>
       </c>
       <c r="I50">
-        <v>568300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2129,10 +2129,10 @@
         <v>-0.06</v>
       </c>
       <c r="H51">
-        <v>36.36</v>
+        <v>36.08</v>
       </c>
       <c r="I51">
-        <v>48500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2149,19 +2149,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F52">
-        <v>0.04</v>
+        <v>0.0396</v>
       </c>
       <c r="G52">
         <v>-0.04</v>
       </c>
       <c r="H52">
-        <v>41.26</v>
+        <v>41.02</v>
       </c>
       <c r="I52">
-        <v>115300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2178,19 +2178,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="F53">
-        <v>0.0432</v>
+        <v>0.0436</v>
       </c>
       <c r="G53">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H53">
-        <v>43.73</v>
+        <v>43.51</v>
       </c>
       <c r="I53">
-        <v>250900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,19 +2207,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="F54">
-        <v>0.0483</v>
+        <v>0.0471</v>
       </c>
       <c r="G54">
         <v>-0.03</v>
       </c>
       <c r="H54">
-        <v>46.19</v>
+        <v>46</v>
       </c>
       <c r="I54">
-        <v>159100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2236,19 +2236,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="F55">
-        <v>0.0522</v>
+        <v>0.0502</v>
       </c>
       <c r="G55">
         <v>-0.02</v>
       </c>
       <c r="H55">
-        <v>48.65</v>
+        <v>48.48</v>
       </c>
       <c r="I55">
-        <v>210900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2271,7 +2271,7 @@
         <v>-0.02</v>
       </c>
       <c r="H56">
-        <v>48.65</v>
+        <v>48.48</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2291,19 +2291,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="F57">
-        <v>0.0563</v>
+        <v>0.0555</v>
       </c>
       <c r="G57">
         <v>-0.01</v>
       </c>
       <c r="H57">
-        <v>51.09</v>
+        <v>50.95</v>
       </c>
       <c r="I57">
-        <v>60200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2320,19 +2320,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="F58">
-        <v>0.06</v>
+        <v>0.0596</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>53.5</v>
+        <v>53.38</v>
       </c>
       <c r="I58">
-        <v>545400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2349,19 +2349,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="F59">
-        <v>0.0644</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="G59">
         <v>0.01</v>
       </c>
       <c r="H59">
-        <v>55.87</v>
+        <v>55.79</v>
       </c>
       <c r="I59">
-        <v>229100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2378,19 +2378,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="F60">
-        <v>0.0672</v>
+        <v>0.0683</v>
       </c>
       <c r="G60">
         <v>0.02</v>
       </c>
       <c r="H60">
-        <v>58.21</v>
+        <v>58.14</v>
       </c>
       <c r="I60">
-        <v>168500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2407,19 +2407,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="F61">
-        <v>0.0721</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="G61">
         <v>0.03</v>
       </c>
       <c r="H61">
-        <v>60.49</v>
+        <v>60.45</v>
       </c>
       <c r="I61">
-        <v>45700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2436,19 +2436,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="F62">
-        <v>0.0796</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="G62">
         <v>0.04</v>
       </c>
       <c r="H62">
-        <v>62.71</v>
+        <v>62.7</v>
       </c>
       <c r="I62">
-        <v>855500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2474,10 +2474,10 @@
         <v>0.06</v>
       </c>
       <c r="H63">
-        <v>66.98</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="I63">
-        <v>49000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2500,7 +2500,7 @@
         <v>0.06</v>
       </c>
       <c r="H64">
-        <v>66.98</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2529,10 +2529,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H65">
-        <v>69</v>
+        <v>69.06</v>
       </c>
       <c r="I65">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2549,19 +2549,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="F66">
-        <v>0.1</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="G66">
         <v>0.08</v>
       </c>
       <c r="H66">
-        <v>70.95999999999999</v>
+        <v>71.03</v>
       </c>
       <c r="I66">
-        <v>1156100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2587,10 +2587,10 @@
         <v>0.1</v>
       </c>
       <c r="H67">
-        <v>74.63</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="I67">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2613,7 +2613,7 @@
         <v>0.1</v>
       </c>
       <c r="H68">
-        <v>74.63</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2642,10 +2642,10 @@
         <v>0.11</v>
       </c>
       <c r="H69">
-        <v>76.34999999999999</v>
+        <v>76.48</v>
       </c>
       <c r="I69">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2671,10 +2671,10 @@
         <v>0.12</v>
       </c>
       <c r="H70">
-        <v>77.98999999999999</v>
+        <v>78.13</v>
       </c>
       <c r="I70">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2691,19 +2691,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="F71">
-        <v>0.1315</v>
+        <v>0.1332</v>
       </c>
       <c r="G71">
         <v>0.14</v>
       </c>
       <c r="H71">
-        <v>81.03</v>
+        <v>81.19</v>
       </c>
       <c r="I71">
-        <v>41300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2720,19 +2720,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="F72">
-        <v>0.1333</v>
+        <v>0.1383</v>
       </c>
       <c r="G72">
         <v>0.16</v>
       </c>
       <c r="H72">
-        <v>83.75</v>
+        <v>83.92</v>
       </c>
       <c r="I72">
-        <v>40100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2758,10 +2758,10 @@
         <v>0.18</v>
       </c>
       <c r="H73">
-        <v>86.17</v>
+        <v>86.34</v>
       </c>
       <c r="I73">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2784,7 +2784,7 @@
         <v>0.18</v>
       </c>
       <c r="H74">
-        <v>86.17</v>
+        <v>86.34</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2813,7 +2813,7 @@
         <v>0.19</v>
       </c>
       <c r="H75">
-        <v>87.27</v>
+        <v>87.44</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0.2</v>
       </c>
       <c r="H76">
-        <v>88.29000000000001</v>
+        <v>88.47</v>
       </c>
       <c r="I76">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2871,7 +2871,7 @@
         <v>0.22</v>
       </c>
       <c r="H77">
-        <v>90.15000000000001</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0.23</v>
       </c>
       <c r="H78">
-        <v>90.98</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0.24</v>
       </c>
       <c r="H79">
-        <v>91.75</v>
+        <v>91.92</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0.25</v>
       </c>
       <c r="H80">
-        <v>93.13</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2984,7 +2984,7 @@
         <v>0.27</v>
       </c>
       <c r="H81">
-        <v>94.31</v>
+        <v>94.45999999999999</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -763,7 +763,7 @@
         <v>0.002</v>
       </c>
       <c r="G4">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0.002</v>
       </c>
       <c r="G5">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0.0029</v>
       </c>
       <c r="G6">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -989,19 +989,19 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0.003</v>
+        <v>0.0022</v>
       </c>
       <c r="G12">
-        <v>-0.48</v>
+        <v>-0.49</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1024,10 +1024,10 @@
         <v>0.0036</v>
       </c>
       <c r="G13">
-        <v>-0.46</v>
+        <v>-0.47</v>
       </c>
       <c r="H13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0034</v>
       </c>
       <c r="G14">
-        <v>-0.44</v>
+        <v>-0.45</v>
       </c>
       <c r="H14">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0.004</v>
       </c>
       <c r="G15">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="H15">
         <v>0.03</v>
@@ -1111,10 +1111,10 @@
         <v>0.0033</v>
       </c>
       <c r="G16">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="H16">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0.0032</v>
       </c>
       <c r="G17">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="H17">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0.0032</v>
       </c>
       <c r="G18">
-        <v>-0.39</v>
+        <v>-0.4</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1198,13 +1198,13 @@
         <v>0.0038</v>
       </c>
       <c r="G19">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="H19">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,10 +1227,10 @@
         <v>0.0043</v>
       </c>
       <c r="G20">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="H20">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0.0042</v>
       </c>
       <c r="G21">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="H21">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>0.0042</v>
       </c>
       <c r="G22">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="H22">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0.0047</v>
       </c>
       <c r="G23">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="H23">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>0.0058</v>
       </c>
       <c r="G24">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="H24">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0.0057</v>
       </c>
       <c r="G25">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H25">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>-0.31</v>
       </c>
       <c r="H26">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>-0.3</v>
       </c>
       <c r="H27">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>-0.29</v>
       </c>
       <c r="H28">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0.008</v>
       </c>
       <c r="G29">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="H29">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1511,19 +1511,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F30">
-        <v>0.0074</v>
+        <v>0.0068</v>
       </c>
       <c r="G30">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="H30">
-        <v>2.86</v>
+        <v>2.39</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1540,19 +1540,19 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F31">
-        <v>0.0078</v>
+        <v>0.0068</v>
       </c>
       <c r="G31">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="H31">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1575,10 +1575,10 @@
         <v>0.0077</v>
       </c>
       <c r="G32">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H32">
-        <v>4.12</v>
+        <v>3.48</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1598,19 +1598,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="F33">
-        <v>0.0106</v>
+        <v>0.0076</v>
       </c>
       <c r="G33">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H33">
-        <v>4.88</v>
+        <v>4.15</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1633,10 +1633,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G34">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="H34">
-        <v>5.74</v>
+        <v>4.9</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F35">
-        <v>0.0094</v>
+        <v>0.0089</v>
       </c>
       <c r="G35">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H35">
-        <v>6.71</v>
+        <v>5.76</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,19 +1685,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F36">
-        <v>0.0102</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="G36">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="H36">
-        <v>7.78</v>
+        <v>6.71</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1720,10 +1720,10 @@
         <v>0.0106</v>
       </c>
       <c r="G37">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="H37">
-        <v>8.960000000000001</v>
+        <v>7.76</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1743,19 +1743,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F38">
-        <v>0.0119</v>
+        <v>0.0105</v>
       </c>
       <c r="G38">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="H38">
-        <v>10.25</v>
+        <v>8.93</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1778,13 +1778,13 @@
         <v>0.0113</v>
       </c>
       <c r="G39">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H39">
-        <v>11.65</v>
+        <v>10.2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1801,19 +1801,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F40">
-        <v>0.014</v>
+        <v>0.0126</v>
       </c>
       <c r="G40">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="H40">
-        <v>13.17</v>
+        <v>11.58</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1836,10 +1836,10 @@
         <v>0.0138</v>
       </c>
       <c r="G41">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="H41">
-        <v>14.79</v>
+        <v>13.07</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1859,19 +1859,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="F42">
-        <v>0.0168</v>
+        <v>0.0145</v>
       </c>
       <c r="G42">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H42">
-        <v>16.53</v>
+        <v>14.67</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1888,19 +1888,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="F43">
-        <v>0.0175</v>
+        <v>0.0153</v>
       </c>
       <c r="G43">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="H43">
-        <v>18.37</v>
+        <v>16.37</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1917,19 +1917,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="F44">
-        <v>0.0191</v>
+        <v>0.0169</v>
       </c>
       <c r="G44">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="H44">
-        <v>20.31</v>
+        <v>18.18</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1952,10 +1952,10 @@
         <v>0.0207</v>
       </c>
       <c r="G45">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="H45">
-        <v>22.34</v>
+        <v>20.09</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1972,22 +1972,22 @@
         <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="F46">
-        <v>0.0226</v>
+        <v>0.02</v>
       </c>
       <c r="G46">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="H46">
-        <v>24.46</v>
+        <v>22.09</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>60300</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2004,19 +2004,19 @@
         <v>91</v>
       </c>
       <c r="E47">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F47">
-        <v>0.0241</v>
+        <v>0.0215</v>
       </c>
       <c r="G47">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="H47">
-        <v>26.66</v>
+        <v>24.17</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,22 +2030,22 @@
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="F48">
-        <v>0.0264</v>
+        <v>0.0243</v>
       </c>
       <c r="G48">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H48">
-        <v>28.94</v>
+        <v>26.34</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2062,19 +2062,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="F49">
-        <v>0.0286</v>
+        <v>0.0257</v>
       </c>
       <c r="G49">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="H49">
-        <v>31.27</v>
+        <v>28.57</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2091,19 +2091,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F50">
-        <v>0.0317</v>
+        <v>0.0288</v>
       </c>
       <c r="G50">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="H50">
-        <v>33.65</v>
+        <v>30.86</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>61300</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2120,19 +2120,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="F51">
-        <v>0.0351</v>
+        <v>0.0305</v>
       </c>
       <c r="G51">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="H51">
-        <v>36.08</v>
+        <v>33.21</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2149,19 +2149,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F52">
-        <v>0.0396</v>
+        <v>0.0364</v>
       </c>
       <c r="G52">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="H52">
-        <v>41.02</v>
+        <v>38.03</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2178,19 +2178,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="F53">
-        <v>0.0436</v>
+        <v>0.0396</v>
       </c>
       <c r="G53">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="H53">
-        <v>43.51</v>
+        <v>40.47</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,19 +2207,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="F54">
-        <v>0.0471</v>
+        <v>0.042</v>
       </c>
       <c r="G54">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H54">
-        <v>46</v>
+        <v>42.93</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2236,19 +2236,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="F55">
-        <v>0.0502</v>
+        <v>0.0467</v>
       </c>
       <c r="G55">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H55">
-        <v>48.48</v>
+        <v>45.39</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,10 +2268,10 @@
         <v>92</v>
       </c>
       <c r="G56">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H56">
-        <v>48.48</v>
+        <v>45.39</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2291,19 +2291,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="F57">
-        <v>0.0555</v>
+        <v>0.0505</v>
       </c>
       <c r="G57">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H57">
-        <v>50.95</v>
+        <v>47.85</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2320,19 +2320,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="F58">
-        <v>0.0596</v>
+        <v>0.0531</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H58">
-        <v>53.38</v>
+        <v>50.29</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2349,19 +2349,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="F59">
-        <v>0.06320000000000001</v>
+        <v>0.0583</v>
       </c>
       <c r="G59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>55.79</v>
+        <v>52.7</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2378,19 +2378,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="F60">
-        <v>0.0683</v>
+        <v>0.0623</v>
       </c>
       <c r="G60">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H60">
-        <v>58.14</v>
+        <v>55.09</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2407,19 +2407,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="F61">
-        <v>0.07290000000000001</v>
+        <v>0.0669</v>
       </c>
       <c r="G61">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H61">
-        <v>60.45</v>
+        <v>57.43</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2436,19 +2436,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="F62">
-        <v>0.07779999999999999</v>
+        <v>0.0707</v>
       </c>
       <c r="G62">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H62">
-        <v>62.7</v>
+        <v>59.72</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2465,19 +2465,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="F63">
-        <v>0.0898</v>
+        <v>0.0818</v>
       </c>
       <c r="G63">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H63">
-        <v>67.01000000000001</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2497,10 +2497,10 @@
         <v>92</v>
       </c>
       <c r="G64">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H64">
-        <v>67.01000000000001</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2526,10 +2526,10 @@
         <v>0.0951</v>
       </c>
       <c r="G65">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H65">
-        <v>69.06</v>
+        <v>66.27</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2549,19 +2549,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>2.79</v>
+        <v>2.53</v>
       </c>
       <c r="F66">
-        <v>0.09959999999999999</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="G66">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H66">
-        <v>71.03</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2584,10 +2584,10 @@
         <v>0.1123</v>
       </c>
       <c r="G67">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H67">
-        <v>74.73999999999999</v>
+        <v>72.19</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>92</v>
       </c>
       <c r="G68">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H68">
-        <v>74.73999999999999</v>
+        <v>72.19</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2639,10 +2639,10 @@
         <v>0.105</v>
       </c>
       <c r="G69">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H69">
-        <v>76.48</v>
+        <v>74.02</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2668,10 +2668,10 @@
         <v>0.1169</v>
       </c>
       <c r="G70">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H70">
-        <v>78.13</v>
+        <v>75.77</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0.1332</v>
       </c>
       <c r="G71">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="H71">
-        <v>81.19</v>
+        <v>79.02</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2726,10 +2726,10 @@
         <v>0.1383</v>
       </c>
       <c r="G72">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="H72">
-        <v>83.92</v>
+        <v>81.95</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0.1416</v>
       </c>
       <c r="G73">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="H73">
-        <v>86.34</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>92</v>
       </c>
       <c r="G74">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="H74">
-        <v>86.34</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2810,10 +2810,10 @@
         <v>0.1379</v>
       </c>
       <c r="G75">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="H75">
-        <v>87.44</v>
+        <v>85.77</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0.171</v>
       </c>
       <c r="G76">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H76">
-        <v>88.47</v>
+        <v>86.89</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         <v>0.2686</v>
       </c>
       <c r="G77">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="H77">
-        <v>90.31999999999999</v>
+        <v>88.92</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>0.2835</v>
       </c>
       <c r="G78">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="H78">
-        <v>91.15000000000001</v>
+        <v>89.84</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0.5562</v>
       </c>
       <c r="G79">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="H79">
-        <v>91.92</v>
+        <v>90.69</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>92</v>
       </c>
       <c r="G80">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H80">
-        <v>93.29000000000001</v>
+        <v>92.22</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2981,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="H81">
-        <v>94.45999999999999</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -705,7 +705,7 @@
         <v>0.0021</v>
       </c>
       <c r="G2">
-        <v>-0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0.0021</v>
       </c>
       <c r="G3">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>90</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G5">
         <v>-0.62</v>
@@ -821,7 +821,7 @@
         <v>0.0029</v>
       </c>
       <c r="G6">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0.0018</v>
       </c>
       <c r="G7">
-        <v>-0.58</v>
+        <v>-0.59</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0.0017</v>
       </c>
       <c r="G8">
-        <v>-0.5600000000000001</v>
+        <v>-0.57</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>0.0017</v>
       </c>
       <c r="G9">
-        <v>-0.54</v>
+        <v>-0.55</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -937,7 +937,7 @@
         <v>0.0048</v>
       </c>
       <c r="G10">
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0.0031</v>
       </c>
       <c r="G11">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1018,10 +1018,10 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>0.0036</v>
+        <v>0.0021</v>
       </c>
       <c r="G13">
         <v>-0.47</v>
@@ -1053,7 +1053,7 @@
         <v>0.0034</v>
       </c>
       <c r="G14">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="H14">
         <v>0.01</v>
@@ -1076,16 +1076,16 @@
         <v>90</v>
       </c>
       <c r="E15">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F15">
-        <v>0.004</v>
+        <v>0.0027</v>
       </c>
       <c r="G15">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="H15">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0.0033</v>
       </c>
       <c r="G16">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="H16">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0.0032</v>
       </c>
       <c r="G17">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="H17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0.0032</v>
       </c>
       <c r="G18">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="H18">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1192,19 +1192,19 @@
         <v>90</v>
       </c>
       <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <v>0.0031</v>
+      </c>
+      <c r="G19">
+        <v>-0.4</v>
+      </c>
+      <c r="H19">
         <v>0.06</v>
       </c>
-      <c r="F19">
-        <v>0.0038</v>
-      </c>
-      <c r="G19">
-        <v>-0.39</v>
-      </c>
-      <c r="H19">
-        <v>0.11</v>
-      </c>
       <c r="I19">
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,10 +1227,10 @@
         <v>0.0043</v>
       </c>
       <c r="G20">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="H20">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>90</v>
       </c>
       <c r="E21">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F21">
-        <v>0.0042</v>
+        <v>0.0036</v>
       </c>
       <c r="G21">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="H21">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>0.0042</v>
       </c>
       <c r="G22">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="H22">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>90</v>
       </c>
       <c r="E23">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F23">
-        <v>0.0047</v>
+        <v>0.0035</v>
       </c>
       <c r="G23">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="H23">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1337,16 +1337,16 @@
         <v>90</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F24">
-        <v>0.0058</v>
+        <v>0.0041</v>
       </c>
       <c r="G24">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="H24">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1366,16 +1366,16 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F25">
-        <v>0.0057</v>
+        <v>0.0046</v>
       </c>
       <c r="G25">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="H25">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1395,16 +1395,16 @@
         <v>90</v>
       </c>
       <c r="E26">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F26">
-        <v>0.005</v>
+        <v>0.0044</v>
       </c>
       <c r="G26">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="H26">
-        <v>1.01</v>
+        <v>0.68</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F27">
-        <v>0.006</v>
+        <v>0.0049</v>
       </c>
       <c r="G27">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="H27">
-        <v>1.27</v>
+        <v>0.87</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1453,16 +1453,16 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F28">
-        <v>0.0059</v>
+        <v>0.0049</v>
       </c>
       <c r="G28">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
       <c r="H28">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0.008</v>
       </c>
       <c r="G29">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="H29">
-        <v>1.96</v>
+        <v>1.37</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1511,19 +1511,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F30">
-        <v>0.0068</v>
+        <v>0.0063</v>
       </c>
       <c r="G30">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="H30">
-        <v>2.39</v>
+        <v>1.7</v>
       </c>
       <c r="I30">
-        <v>4100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1546,13 +1546,13 @@
         <v>0.0068</v>
       </c>
       <c r="G31">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="H31">
-        <v>2.9</v>
+        <v>2.09</v>
       </c>
       <c r="I31">
-        <v>34800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1569,16 +1569,16 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F32">
-        <v>0.0077</v>
+        <v>0.0067</v>
       </c>
       <c r="G32">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="H32">
-        <v>3.48</v>
+        <v>2.54</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1598,19 +1598,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F33">
-        <v>0.0076</v>
+        <v>0.0066</v>
       </c>
       <c r="G33">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H33">
-        <v>4.15</v>
+        <v>3.07</v>
       </c>
       <c r="I33">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1627,16 +1627,16 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F34">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="G34">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H34">
-        <v>4.9</v>
+        <v>3.68</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F35">
-        <v>0.0089</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="G35">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="H35">
-        <v>5.76</v>
+        <v>4.37</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,19 +1685,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F36">
-        <v>0.009299999999999999</v>
+        <v>0.0083</v>
       </c>
       <c r="G36">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H36">
-        <v>6.71</v>
+        <v>5.16</v>
       </c>
       <c r="I36">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1714,16 +1714,16 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="F37">
-        <v>0.0106</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="G37">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="H37">
-        <v>7.76</v>
+        <v>6.04</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1743,19 +1743,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F38">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="G38">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="H38">
-        <v>8.93</v>
+        <v>7.02</v>
       </c>
       <c r="I38">
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1772,19 +1772,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="F39">
-        <v>0.0113</v>
+        <v>0.0094</v>
       </c>
       <c r="G39">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="H39">
-        <v>10.2</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I39">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1801,19 +1801,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F40">
-        <v>0.0126</v>
+        <v>0.0116</v>
       </c>
       <c r="G40">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H40">
-        <v>11.58</v>
+        <v>9.31</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1830,16 +1830,16 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="F41">
-        <v>0.0138</v>
+        <v>0.011</v>
       </c>
       <c r="G41">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="H41">
-        <v>13.07</v>
+        <v>10.61</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1859,19 +1859,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F42">
-        <v>0.0145</v>
+        <v>0.0136</v>
       </c>
       <c r="G42">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="H42">
-        <v>14.67</v>
+        <v>12.02</v>
       </c>
       <c r="I42">
-        <v>68600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1888,19 +1888,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="F43">
-        <v>0.0153</v>
+        <v>0.0135</v>
       </c>
       <c r="G43">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H43">
-        <v>16.37</v>
+        <v>13.55</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1917,19 +1917,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F44">
-        <v>0.0169</v>
+        <v>0.0156</v>
       </c>
       <c r="G44">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="H44">
-        <v>18.18</v>
+        <v>15.18</v>
       </c>
       <c r="I44">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1943,19 +1943,19 @@
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E45">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="F45">
-        <v>0.0207</v>
+        <v>0.0171</v>
       </c>
       <c r="G45">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="H45">
-        <v>20.09</v>
+        <v>16.92</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1981,13 +1981,13 @@
         <v>0.02</v>
       </c>
       <c r="G46">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="H46">
-        <v>22.09</v>
+        <v>18.76</v>
       </c>
       <c r="I46">
-        <v>60300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,22 +2001,22 @@
         <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="F47">
-        <v>0.0215</v>
+        <v>0.0185</v>
       </c>
       <c r="G47">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="H47">
-        <v>24.17</v>
+        <v>20.69</v>
       </c>
       <c r="I47">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2033,19 +2033,19 @@
         <v>91</v>
       </c>
       <c r="E48">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="F48">
-        <v>0.0243</v>
+        <v>0.0217</v>
       </c>
       <c r="G48">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="H48">
-        <v>26.34</v>
+        <v>22.72</v>
       </c>
       <c r="I48">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,22 +2059,22 @@
         <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="F49">
-        <v>0.0257</v>
+        <v>0.0211</v>
       </c>
       <c r="G49">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="H49">
-        <v>28.57</v>
+        <v>24.83</v>
       </c>
       <c r="I49">
-        <v>30100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2091,19 +2091,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F50">
-        <v>0.0288</v>
+        <v>0.0254</v>
       </c>
       <c r="G50">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H50">
-        <v>30.86</v>
+        <v>27.02</v>
       </c>
       <c r="I50">
-        <v>61300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2120,19 +2120,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="F51">
-        <v>0.0305</v>
+        <v>0.0268</v>
       </c>
       <c r="G51">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="H51">
-        <v>33.21</v>
+        <v>29.28</v>
       </c>
       <c r="I51">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2149,19 +2149,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F52">
-        <v>0.0364</v>
+        <v>0.0323</v>
       </c>
       <c r="G52">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H52">
-        <v>38.03</v>
+        <v>33.96</v>
       </c>
       <c r="I52">
-        <v>11600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2178,19 +2178,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="F53">
-        <v>0.0396</v>
+        <v>0.0344</v>
       </c>
       <c r="G53">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="H53">
-        <v>40.47</v>
+        <v>36.37</v>
       </c>
       <c r="I53">
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,19 +2207,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="F54">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
       <c r="G54">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="H54">
-        <v>42.93</v>
+        <v>38.81</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2236,19 +2236,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="F55">
-        <v>0.0467</v>
+        <v>0.0416</v>
       </c>
       <c r="G55">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H55">
-        <v>45.39</v>
+        <v>41.26</v>
       </c>
       <c r="I55">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,10 +2268,10 @@
         <v>92</v>
       </c>
       <c r="G56">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H56">
-        <v>45.39</v>
+        <v>41.26</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2291,19 +2291,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="F57">
-        <v>0.0505</v>
+        <v>0.0447</v>
       </c>
       <c r="G57">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H57">
-        <v>47.85</v>
+        <v>43.73</v>
       </c>
       <c r="I57">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2320,19 +2320,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="F58">
-        <v>0.0531</v>
+        <v>0.0473</v>
       </c>
       <c r="G58">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H58">
-        <v>50.29</v>
+        <v>46.2</v>
       </c>
       <c r="I58">
-        <v>42100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2349,19 +2349,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="F59">
-        <v>0.0583</v>
+        <v>0.0522</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H59">
-        <v>52.7</v>
+        <v>48.66</v>
       </c>
       <c r="I59">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2378,19 +2378,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="F60">
-        <v>0.0623</v>
+        <v>0.0558</v>
       </c>
       <c r="G60">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="H60">
-        <v>55.09</v>
+        <v>51.1</v>
       </c>
       <c r="I60">
-        <v>8700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2407,19 +2407,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="F61">
-        <v>0.0669</v>
+        <v>0.0587</v>
       </c>
       <c r="G61">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>57.43</v>
+        <v>53.51</v>
       </c>
       <c r="I61">
-        <v>13000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2436,19 +2436,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="F62">
-        <v>0.0707</v>
+        <v>0.0648</v>
       </c>
       <c r="G62">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H62">
-        <v>59.72</v>
+        <v>55.89</v>
       </c>
       <c r="I62">
-        <v>6200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2465,19 +2465,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>0.0818</v>
+        <v>0.0727</v>
       </c>
       <c r="G63">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H63">
-        <v>64.15000000000001</v>
+        <v>60.51</v>
       </c>
       <c r="I63">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2497,10 +2497,10 @@
         <v>92</v>
       </c>
       <c r="G64">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H64">
-        <v>64.15000000000001</v>
+        <v>60.51</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2520,16 +2520,16 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>2.64</v>
+        <v>2.17</v>
       </c>
       <c r="F65">
-        <v>0.0951</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="G65">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="H65">
-        <v>66.27</v>
+        <v>62.74</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2549,19 +2549,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>2.53</v>
+        <v>2.34</v>
       </c>
       <c r="F66">
-        <v>0.09039999999999999</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="G66">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H66">
-        <v>68.31999999999999</v>
+        <v>64.91</v>
       </c>
       <c r="I66">
-        <v>64200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2578,16 +2578,16 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="F67">
-        <v>0.1123</v>
+        <v>0.0905</v>
       </c>
       <c r="G67">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H67">
-        <v>72.19</v>
+        <v>69.05</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>92</v>
       </c>
       <c r="G68">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H68">
-        <v>72.19</v>
+        <v>69.05</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2633,16 +2633,16 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="F69">
-        <v>0.105</v>
+        <v>0.0922</v>
       </c>
       <c r="G69">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H69">
-        <v>74.02</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2662,16 +2662,16 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>3.39</v>
+        <v>2.9</v>
       </c>
       <c r="F70">
-        <v>0.1169</v>
+        <v>0.1</v>
       </c>
       <c r="G70">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="H70">
-        <v>75.77</v>
+        <v>72.89</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>3.93</v>
+        <v>3.28</v>
       </c>
       <c r="F71">
-        <v>0.1332</v>
+        <v>0.1112</v>
       </c>
       <c r="G71">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H71">
-        <v>79.02</v>
+        <v>76.42</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2720,16 +2720,16 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>4.15</v>
+        <v>3.86</v>
       </c>
       <c r="F72">
-        <v>0.1383</v>
+        <v>0.1287</v>
       </c>
       <c r="G72">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H72">
-        <v>81.95</v>
+        <v>79.63</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2749,16 +2749,16 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>4.32</v>
+        <v>4.03</v>
       </c>
       <c r="F73">
-        <v>0.1416</v>
+        <v>0.1321</v>
       </c>
       <c r="G73">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="H73">
-        <v>84.56999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>92</v>
       </c>
       <c r="G74">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="H74">
-        <v>84.56999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2810,10 +2810,10 @@
         <v>0.1379</v>
       </c>
       <c r="G75">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="H75">
-        <v>85.77</v>
+        <v>83.83</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0.171</v>
       </c>
       <c r="G76">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="H76">
-        <v>86.89</v>
+        <v>85.08</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         <v>0.2686</v>
       </c>
       <c r="G77">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H77">
-        <v>88.92</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>0.2835</v>
       </c>
       <c r="G78">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="H78">
-        <v>89.84</v>
+        <v>88.38</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2920,16 +2920,16 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>17.8</v>
+        <v>5.45</v>
       </c>
       <c r="F79">
-        <v>0.5562</v>
+        <v>0.1703</v>
       </c>
       <c r="G79">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="H79">
-        <v>90.69</v>
+        <v>89.34</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>92</v>
       </c>
       <c r="G80">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="H80">
-        <v>92.22</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2981,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="H81">
-        <v>93.54000000000001</v>
+        <v>92.56</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -705,7 +705,7 @@
         <v>0.0021</v>
       </c>
       <c r="G2">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0.0021</v>
       </c>
       <c r="G3">
-        <v>-0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0.002</v>
       </c>
       <c r="G4">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0.001</v>
       </c>
       <c r="G5">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -821,7 +821,7 @@
         <v>0.0029</v>
       </c>
       <c r="G6">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>90</v>
       </c>
       <c r="E7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
-        <v>0.0018</v>
+        <v>0.0009</v>
       </c>
       <c r="G7">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -879,13 +879,13 @@
         <v>0.0017</v>
       </c>
       <c r="G8">
-        <v>-0.57</v>
+        <v>-0.58</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -908,13 +908,13 @@
         <v>0.0017</v>
       </c>
       <c r="G9">
-        <v>-0.55</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -931,19 +931,19 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F10">
-        <v>0.0048</v>
+        <v>0.0016</v>
       </c>
       <c r="G10">
-        <v>-0.53</v>
+        <v>-0.54</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -960,19 +960,19 @@
         <v>90</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F11">
-        <v>0.0031</v>
+        <v>0.0015</v>
       </c>
       <c r="G11">
-        <v>-0.51</v>
+        <v>-0.53</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -989,19 +989,19 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F12">
-        <v>0.0022</v>
+        <v>0.003</v>
       </c>
       <c r="G12">
-        <v>-0.49</v>
+        <v>-0.51</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1024,13 +1024,13 @@
         <v>0.0021</v>
       </c>
       <c r="G13">
-        <v>-0.47</v>
+        <v>-0.49</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1047,19 +1047,19 @@
         <v>90</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F14">
-        <v>0.0034</v>
+        <v>0.0028</v>
       </c>
       <c r="G14">
-        <v>-0.46</v>
+        <v>-0.47</v>
       </c>
       <c r="H14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1082,13 +1082,13 @@
         <v>0.0027</v>
       </c>
       <c r="G15">
-        <v>-0.44</v>
+        <v>-0.45</v>
       </c>
       <c r="H15">
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1111,10 +1111,10 @@
         <v>0.0033</v>
       </c>
       <c r="G16">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="H16">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0.0032</v>
       </c>
       <c r="G17">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="H17">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0.0032</v>
       </c>
       <c r="G18">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="H18">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1198,13 +1198,13 @@
         <v>0.0031</v>
       </c>
       <c r="G19">
-        <v>-0.4</v>
+        <v>-0.42</v>
       </c>
       <c r="H19">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,10 +1227,10 @@
         <v>0.0043</v>
       </c>
       <c r="G20">
-        <v>-0.39</v>
+        <v>-0.41</v>
       </c>
       <c r="H20">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0.0036</v>
       </c>
       <c r="G21">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="H21">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>0.0042</v>
       </c>
       <c r="G22">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="H22">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1314,13 +1314,13 @@
         <v>0.0035</v>
       </c>
       <c r="G23">
-        <v>-0.36</v>
+        <v>-0.38</v>
       </c>
       <c r="H23">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1343,10 +1343,10 @@
         <v>0.0041</v>
       </c>
       <c r="G24">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="H24">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1366,19 +1366,19 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F25">
-        <v>0.0046</v>
+        <v>0.004</v>
       </c>
       <c r="G25">
-        <v>-0.34</v>
+        <v>-0.36</v>
       </c>
       <c r="H25">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1401,13 +1401,13 @@
         <v>0.0044</v>
       </c>
       <c r="G26">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="H26">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1430,13 +1430,13 @@
         <v>0.0049</v>
       </c>
       <c r="G27">
-        <v>-0.31</v>
+        <v>-0.33</v>
       </c>
       <c r="H27">
-        <v>0.87</v>
+        <v>0.53</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1459,10 +1459,10 @@
         <v>0.0049</v>
       </c>
       <c r="G28">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="H28">
-        <v>1.09</v>
+        <v>0.68</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F29">
-        <v>0.008</v>
+        <v>0.0053</v>
       </c>
       <c r="G29">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="H29">
-        <v>1.37</v>
+        <v>0.86</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1511,19 +1511,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F30">
-        <v>0.0063</v>
+        <v>0.0053</v>
       </c>
       <c r="G30">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
       <c r="H30">
-        <v>1.7</v>
+        <v>1.08</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1540,19 +1540,19 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F31">
-        <v>0.0068</v>
+        <v>0.0057</v>
       </c>
       <c r="G31">
-        <v>-0.28</v>
+        <v>-0.3</v>
       </c>
       <c r="H31">
-        <v>2.09</v>
+        <v>1.35</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1569,19 +1569,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F32">
-        <v>0.0067</v>
+        <v>0.0062</v>
       </c>
       <c r="G32">
-        <v>-0.27</v>
+        <v>-0.29</v>
       </c>
       <c r="H32">
-        <v>2.54</v>
+        <v>1.66</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>214300</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1598,19 +1598,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F33">
-        <v>0.0066</v>
+        <v>0.0061</v>
       </c>
       <c r="G33">
-        <v>-0.26</v>
+        <v>-0.28</v>
       </c>
       <c r="H33">
-        <v>3.07</v>
+        <v>2.03</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1627,19 +1627,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F34">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="G34">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="H34">
-        <v>3.68</v>
+        <v>2.47</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1656,19 +1656,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F35">
-        <v>0.008399999999999999</v>
+        <v>0.0074</v>
       </c>
       <c r="G35">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="H35">
-        <v>4.37</v>
+        <v>2.97</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,19 +1685,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F36">
-        <v>0.0083</v>
+        <v>0.0078</v>
       </c>
       <c r="G36">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="H36">
-        <v>5.16</v>
+        <v>3.54</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1720,13 +1720,13 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="G37">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="H37">
-        <v>6.04</v>
+        <v>4.2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1743,19 +1743,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="F38">
-        <v>0.01</v>
+        <v>0.0086</v>
       </c>
       <c r="G38">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="H38">
-        <v>7.02</v>
+        <v>4.94</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>54500</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1772,19 +1772,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F39">
-        <v>0.0094</v>
+        <v>0.0089</v>
       </c>
       <c r="G39">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="H39">
-        <v>8.109999999999999</v>
+        <v>5.77</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1801,19 +1801,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="F40">
-        <v>0.0116</v>
+        <v>0.0098</v>
       </c>
       <c r="G40">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="H40">
-        <v>9.31</v>
+        <v>6.69</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>92200</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1830,19 +1830,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F41">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
       <c r="G41">
-        <v>-0.18</v>
+        <v>-0.21</v>
       </c>
       <c r="H41">
-        <v>10.61</v>
+        <v>7.72</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1859,19 +1859,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F42">
-        <v>0.0136</v>
+        <v>0.0114</v>
       </c>
       <c r="G42">
-        <v>-0.17</v>
+        <v>-0.2</v>
       </c>
       <c r="H42">
-        <v>12.02</v>
+        <v>8.84</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>111600</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1888,19 +1888,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="F43">
-        <v>0.0135</v>
+        <v>0.0117</v>
       </c>
       <c r="G43">
-        <v>-0.16</v>
+        <v>-0.19</v>
       </c>
       <c r="H43">
-        <v>13.55</v>
+        <v>10.07</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>420900</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1917,19 +1917,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="F44">
-        <v>0.0156</v>
+        <v>0.0129</v>
       </c>
       <c r="G44">
-        <v>-0.16</v>
+        <v>-0.18</v>
       </c>
       <c r="H44">
-        <v>15.18</v>
+        <v>11.4</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1946,19 +1946,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="F45">
-        <v>0.0171</v>
+        <v>0.0136</v>
       </c>
       <c r="G45">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="H45">
-        <v>16.92</v>
+        <v>12.83</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1975,19 +1975,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="F46">
-        <v>0.02</v>
+        <v>0.0152</v>
       </c>
       <c r="G46">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="H46">
-        <v>18.76</v>
+        <v>14.37</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2004,19 +2004,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="F47">
-        <v>0.0185</v>
+        <v>0.0159</v>
       </c>
       <c r="G47">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="H47">
-        <v>20.69</v>
+        <v>16.01</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>93900</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,22 +2030,22 @@
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="F48">
-        <v>0.0217</v>
+        <v>0.017</v>
       </c>
       <c r="G48">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="H48">
-        <v>22.72</v>
+        <v>17.75</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,22 +2059,22 @@
         <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="F49">
-        <v>0.0211</v>
+        <v>0.0185</v>
       </c>
       <c r="G49">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="H49">
-        <v>24.83</v>
+        <v>19.58</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>96700</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2091,19 +2091,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="F50">
-        <v>0.0254</v>
+        <v>0.02</v>
       </c>
       <c r="G50">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="H50">
-        <v>27.02</v>
+        <v>21.51</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>226100</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2117,22 +2117,22 @@
         <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F51">
-        <v>0.0268</v>
+        <v>0.0231</v>
       </c>
       <c r="G51">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="H51">
-        <v>29.28</v>
+        <v>23.51</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2149,19 +2149,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="F52">
-        <v>0.0323</v>
+        <v>0.0259</v>
       </c>
       <c r="G52">
-        <v>-0.07000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="H52">
-        <v>33.96</v>
+        <v>27.75</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>92600</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2178,19 +2178,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F53">
-        <v>0.0344</v>
+        <v>0.0284</v>
       </c>
       <c r="G53">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="H53">
-        <v>36.37</v>
+        <v>29.96</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>166100</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,19 +2207,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F54">
-        <v>0.038</v>
+        <v>0.0321</v>
       </c>
       <c r="G54">
-        <v>-0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="H54">
-        <v>38.81</v>
+        <v>32.23</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>83300</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2236,19 +2236,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>1.06</v>
+        <v>0.83</v>
       </c>
       <c r="F55">
-        <v>0.0416</v>
+        <v>0.0325</v>
       </c>
       <c r="G55">
-        <v>-0.04</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H55">
-        <v>41.26</v>
+        <v>34.54</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>161300</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,10 +2268,10 @@
         <v>92</v>
       </c>
       <c r="G56">
-        <v>-0.04</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H56">
-        <v>41.26</v>
+        <v>34.54</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2291,19 +2291,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="F57">
-        <v>0.0447</v>
+        <v>0.0357</v>
       </c>
       <c r="G57">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="H57">
-        <v>43.73</v>
+        <v>36.89</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>140800</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2319,20 +2319,17 @@
       <c r="D58" t="s">
         <v>90</v>
       </c>
-      <c r="E58">
-        <v>1.23</v>
-      </c>
       <c r="F58">
-        <v>0.0473</v>
+        <v>0.0385</v>
       </c>
       <c r="G58">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="H58">
-        <v>46.2</v>
+        <v>39.27</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1035100</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2349,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="F59">
-        <v>0.0522</v>
+        <v>0.0411</v>
       </c>
       <c r="G59">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="H59">
-        <v>48.66</v>
+        <v>41.66</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>41600</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2378,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="F60">
-        <v>0.0558</v>
+        <v>0.0453</v>
       </c>
       <c r="G60">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="H60">
-        <v>51.1</v>
+        <v>44.06</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>77100</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2407,19 +2404,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="F61">
-        <v>0.0587</v>
+        <v>0.0493</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="H61">
-        <v>53.51</v>
+        <v>46.47</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>161100</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2436,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="F62">
-        <v>0.0648</v>
+        <v>0.0519</v>
       </c>
       <c r="G62">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="H62">
-        <v>55.89</v>
+        <v>48.86</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>328400</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2465,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="F63">
-        <v>0.0727</v>
+        <v>0.0596</v>
       </c>
       <c r="G63">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>60.51</v>
+        <v>53.58</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>213200</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2497,10 +2494,10 @@
         <v>92</v>
       </c>
       <c r="G64">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>60.51</v>
+        <v>53.58</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2520,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="F65">
-        <v>0.07820000000000001</v>
+        <v>0.0645</v>
       </c>
       <c r="G65">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H65">
-        <v>62.74</v>
+        <v>55.89</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>128900</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2549,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="F66">
-        <v>0.08359999999999999</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="G66">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H66">
-        <v>64.91</v>
+        <v>58.16</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>357600</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2578,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="F67">
-        <v>0.0905</v>
+        <v>0.0775</v>
       </c>
       <c r="G67">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H67">
-        <v>69.05</v>
+        <v>62.56</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>61100</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2610,10 +2607,10 @@
         <v>92</v>
       </c>
       <c r="G68">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H68">
-        <v>69.05</v>
+        <v>62.56</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2633,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="F69">
-        <v>0.0922</v>
+        <v>0.0835</v>
       </c>
       <c r="G69">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H69">
-        <v>71.01000000000001</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>20100</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2662,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="F70">
-        <v>0.1</v>
+        <v>0.0883</v>
       </c>
       <c r="G70">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="H70">
-        <v>72.89</v>
+        <v>66.73</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>319900</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2691,19 +2688,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>3.28</v>
+        <v>3.07</v>
       </c>
       <c r="F71">
-        <v>0.1112</v>
+        <v>0.1041</v>
       </c>
       <c r="G71">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="H71">
-        <v>76.42</v>
+        <v>70.64</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>66100</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2720,19 +2717,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>3.86</v>
+        <v>3.28</v>
       </c>
       <c r="F72">
-        <v>0.1287</v>
+        <v>0.1093</v>
       </c>
       <c r="G72">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H72">
-        <v>79.63</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>60800</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2749,19 +2746,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>4.03</v>
+        <v>3.66</v>
       </c>
       <c r="F73">
-        <v>0.1321</v>
+        <v>0.12</v>
       </c>
       <c r="G73">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="H73">
-        <v>82.51000000000001</v>
+        <v>77.58</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2781,10 +2778,10 @@
         <v>92</v>
       </c>
       <c r="G74">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="H74">
-        <v>82.51000000000001</v>
+        <v>77.58</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2810,10 +2807,10 @@
         <v>0.1379</v>
       </c>
       <c r="G75">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="H75">
-        <v>83.83</v>
+        <v>79.13</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2833,19 +2830,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>5.3</v>
+        <v>4.05</v>
       </c>
       <c r="F76">
-        <v>0.171</v>
+        <v>0.1306</v>
       </c>
       <c r="G76">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="H76">
-        <v>85.08</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2868,10 +2865,10 @@
         <v>0.2686</v>
       </c>
       <c r="G77">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="H77">
-        <v>87.34999999999999</v>
+        <v>83.31</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2891,19 +2888,19 @@
         <v>90</v>
       </c>
       <c r="E78">
-        <v>9</v>
+        <v>4.68</v>
       </c>
       <c r="F78">
-        <v>0.2835</v>
+        <v>0.1474</v>
       </c>
       <c r="G78">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="H78">
-        <v>88.38</v>
+        <v>84.55</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>112300</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2920,19 +2917,19 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>5.45</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>0.1703</v>
+        <v>0.1562</v>
       </c>
       <c r="G79">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="H79">
-        <v>89.34</v>
+        <v>85.72</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2952,10 +2949,10 @@
         <v>92</v>
       </c>
       <c r="G80">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="H80">
-        <v>91.06999999999999</v>
+        <v>87.86</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2975,19 +2972,19 @@
         <v>90</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.1773</v>
       </c>
       <c r="G81">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="H81">
-        <v>92.56</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -699,10 +699,10 @@
         <v>90</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
-        <v>0.0021</v>
+        <v>0.0011</v>
       </c>
       <c r="G2">
         <v>-0.66</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -792,13 +792,13 @@
         <v>0.001</v>
       </c>
       <c r="G5">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -815,10 +815,10 @@
         <v>90</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F6">
-        <v>0.0029</v>
+        <v>0.0019</v>
       </c>
       <c r="G6">
         <v>-0.62</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10200</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -937,13 +937,13 @@
         <v>0.0016</v>
       </c>
       <c r="G10">
-        <v>-0.54</v>
+        <v>-0.55</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2300</v>
+        <v>20100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>176000</v>
+        <v>280100</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -989,10 +989,10 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0.003</v>
+        <v>0.0022</v>
       </c>
       <c r="G12">
         <v>-0.51</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>49000</v>
+        <v>71700</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3800</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1047,10 +1047,10 @@
         <v>90</v>
       </c>
       <c r="E14">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F14">
-        <v>0.0028</v>
+        <v>0.0021</v>
       </c>
       <c r="G14">
         <v>-0.47</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1200</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1082,13 +1082,13 @@
         <v>0.0027</v>
       </c>
       <c r="G15">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="H15">
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>900</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1111,7 +1111,7 @@
         <v>0.0033</v>
       </c>
       <c r="G16">
-        <v>-0.44</v>
+        <v>-0.45</v>
       </c>
       <c r="H16">
         <v>0.01</v>
@@ -1140,10 +1140,10 @@
         <v>0.0032</v>
       </c>
       <c r="G17">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="H17">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1163,19 +1163,19 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F18">
-        <v>0.0032</v>
+        <v>0.0025</v>
       </c>
       <c r="G18">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="H18">
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1192,10 +1192,10 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F19">
-        <v>0.0031</v>
+        <v>0.0025</v>
       </c>
       <c r="G19">
         <v>-0.42</v>
@@ -1204,7 +1204,7 @@
         <v>0.03</v>
       </c>
       <c r="I19">
-        <v>1100</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1221,19 +1221,19 @@
         <v>90</v>
       </c>
       <c r="E20">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F20">
-        <v>0.0043</v>
+        <v>0.0037</v>
       </c>
       <c r="G20">
         <v>-0.41</v>
       </c>
       <c r="H20">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1250,19 +1250,19 @@
         <v>90</v>
       </c>
       <c r="E21">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F21">
-        <v>0.0036</v>
+        <v>0.0024</v>
       </c>
       <c r="G21">
         <v>-0.4</v>
       </c>
       <c r="H21">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1279,19 +1279,19 @@
         <v>90</v>
       </c>
       <c r="E22">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F22">
-        <v>0.0042</v>
+        <v>0.0036</v>
       </c>
       <c r="G22">
         <v>-0.39</v>
       </c>
       <c r="H22">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1308,19 +1308,19 @@
         <v>90</v>
       </c>
       <c r="E23">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F23">
-        <v>0.0035</v>
+        <v>0.0041</v>
       </c>
       <c r="G23">
         <v>-0.38</v>
       </c>
       <c r="H23">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I23">
-        <v>700</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1346,7 +1346,7 @@
         <v>-0.37</v>
       </c>
       <c r="H24">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1366,19 +1366,19 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F25">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
       <c r="G25">
         <v>-0.36</v>
       </c>
       <c r="H25">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I25">
-        <v>122000</v>
+        <v>122100</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1401,13 +1401,13 @@
         <v>0.0044</v>
       </c>
       <c r="G26">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="I26">
-        <v>23300</v>
+        <v>48300</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1424,19 +1424,19 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F27">
-        <v>0.0049</v>
+        <v>0.0044</v>
       </c>
       <c r="G27">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="I27">
-        <v>80000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1453,19 +1453,19 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F28">
-        <v>0.0049</v>
+        <v>0.0054</v>
       </c>
       <c r="G28">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H28">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1491,7 +1491,7 @@
         <v>-0.32</v>
       </c>
       <c r="H29">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="I29">
         <v>2000</v>
@@ -1511,19 +1511,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F30">
-        <v>0.0053</v>
+        <v>0.0058</v>
       </c>
       <c r="G30">
         <v>-0.31</v>
       </c>
       <c r="H30">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="I30">
-        <v>25200</v>
+        <v>54600</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1549,10 +1549,10 @@
         <v>-0.3</v>
       </c>
       <c r="H31">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="I31">
-        <v>29000</v>
+        <v>103600</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1578,10 +1578,10 @@
         <v>-0.29</v>
       </c>
       <c r="H32">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="I32">
-        <v>214300</v>
+        <v>328100</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1598,19 +1598,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F33">
-        <v>0.0061</v>
+        <v>0.0066</v>
       </c>
       <c r="G33">
         <v>-0.28</v>
       </c>
       <c r="H33">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="I33">
-        <v>40400</v>
+        <v>69700</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1627,19 +1627,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F34">
-        <v>0.007</v>
+        <v>0.0065</v>
       </c>
       <c r="G34">
         <v>-0.27</v>
       </c>
       <c r="H34">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="I34">
-        <v>88600</v>
+        <v>249300</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1665,10 +1665,10 @@
         <v>-0.26</v>
       </c>
       <c r="H35">
-        <v>2.97</v>
+        <v>2.74</v>
       </c>
       <c r="I35">
-        <v>18100</v>
+        <v>163500</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,19 +1685,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F36">
-        <v>0.0078</v>
+        <v>0.0073</v>
       </c>
       <c r="G36">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="I36">
-        <v>10300</v>
+        <v>60900</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1720,13 +1720,13 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="G37">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>4.2</v>
+        <v>3.89</v>
       </c>
       <c r="I37">
-        <v>1800</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1743,19 +1743,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="F38">
-        <v>0.0086</v>
+        <v>0.0105</v>
       </c>
       <c r="G38">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="H38">
-        <v>4.94</v>
+        <v>4.59</v>
       </c>
       <c r="I38">
-        <v>54500</v>
+        <v>182300</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1778,13 +1778,13 @@
         <v>0.0089</v>
       </c>
       <c r="G39">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H39">
-        <v>5.77</v>
+        <v>5.37</v>
       </c>
       <c r="I39">
-        <v>9900</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1807,13 +1807,13 @@
         <v>0.0098</v>
       </c>
       <c r="G40">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="H40">
-        <v>6.69</v>
+        <v>6.25</v>
       </c>
       <c r="I40">
-        <v>92200</v>
+        <v>96700</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1830,19 +1830,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F41">
-        <v>0.0106</v>
+        <v>0.0101</v>
       </c>
       <c r="G41">
         <v>-0.21</v>
       </c>
       <c r="H41">
-        <v>7.72</v>
+        <v>7.22</v>
       </c>
       <c r="I41">
-        <v>36900</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1859,19 +1859,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F42">
-        <v>0.0114</v>
+        <v>0.0109</v>
       </c>
       <c r="G42">
         <v>-0.2</v>
       </c>
       <c r="H42">
-        <v>8.84</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I42">
-        <v>111600</v>
+        <v>360100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1897,10 +1897,10 @@
         <v>-0.19</v>
       </c>
       <c r="H43">
-        <v>10.07</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I43">
-        <v>420900</v>
+        <v>625500</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1917,19 +1917,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="F44">
-        <v>0.0129</v>
+        <v>0.0124</v>
       </c>
       <c r="G44">
         <v>-0.18</v>
       </c>
       <c r="H44">
-        <v>11.4</v>
+        <v>10.73</v>
       </c>
       <c r="I44">
-        <v>113000</v>
+        <v>286300</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1946,19 +1946,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F45">
-        <v>0.0136</v>
+        <v>0.0132</v>
       </c>
       <c r="G45">
         <v>-0.17</v>
       </c>
       <c r="H45">
-        <v>12.83</v>
+        <v>12.11</v>
       </c>
       <c r="I45">
-        <v>26800</v>
+        <v>217900</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1975,19 +1975,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="F46">
-        <v>0.0152</v>
+        <v>0.0165</v>
       </c>
       <c r="G46">
         <v>-0.16</v>
       </c>
       <c r="H46">
-        <v>14.37</v>
+        <v>13.59</v>
       </c>
       <c r="I46">
-        <v>107000</v>
+        <v>361500</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2004,19 +2004,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F47">
-        <v>0.0159</v>
+        <v>0.0155</v>
       </c>
       <c r="G47">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>16.01</v>
+        <v>15.17</v>
       </c>
       <c r="I47">
-        <v>93900</v>
+        <v>269100</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2033,19 +2033,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F48">
-        <v>0.017</v>
+        <v>0.0174</v>
       </c>
       <c r="G48">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="H48">
-        <v>17.75</v>
+        <v>16.85</v>
       </c>
       <c r="I48">
-        <v>74000</v>
+        <v>120400</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2062,19 +2062,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="F49">
-        <v>0.0185</v>
+        <v>0.0177</v>
       </c>
       <c r="G49">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="H49">
-        <v>19.58</v>
+        <v>18.62</v>
       </c>
       <c r="I49">
-        <v>96700</v>
+        <v>203300</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,22 +2088,22 @@
         <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="F50">
-        <v>0.02</v>
+        <v>0.0208</v>
       </c>
       <c r="G50">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="H50">
-        <v>21.51</v>
+        <v>20.49</v>
       </c>
       <c r="I50">
-        <v>226100</v>
+        <v>351100</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2120,19 +2120,19 @@
         <v>91</v>
       </c>
       <c r="E51">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F51">
-        <v>0.0231</v>
+        <v>0.0227</v>
       </c>
       <c r="G51">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="H51">
-        <v>23.51</v>
+        <v>22.44</v>
       </c>
       <c r="I51">
-        <v>15600</v>
+        <v>101100</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,22 +2146,22 @@
         <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="F52">
-        <v>0.0259</v>
+        <v>0.0267</v>
       </c>
       <c r="G52">
         <v>-0.1</v>
       </c>
       <c r="H52">
-        <v>27.75</v>
+        <v>26.58</v>
       </c>
       <c r="I52">
-        <v>92600</v>
+        <v>132300</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2178,19 +2178,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="F53">
-        <v>0.0284</v>
+        <v>0.0292</v>
       </c>
       <c r="G53">
         <v>-0.09</v>
       </c>
       <c r="H53">
-        <v>29.96</v>
+        <v>28.75</v>
       </c>
       <c r="I53">
-        <v>166100</v>
+        <v>460400</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,19 +2207,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="F54">
-        <v>0.0321</v>
+        <v>0.0305</v>
       </c>
       <c r="G54">
         <v>-0.08</v>
       </c>
       <c r="H54">
-        <v>32.23</v>
+        <v>30.98</v>
       </c>
       <c r="I54">
-        <v>83300</v>
+        <v>127600</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2245,10 +2245,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H55">
-        <v>34.54</v>
+        <v>33.25</v>
       </c>
       <c r="I55">
-        <v>161300</v>
+        <v>246600</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2271,7 +2271,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H56">
-        <v>34.54</v>
+        <v>33.25</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2291,19 +2291,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F57">
-        <v>0.0357</v>
+        <v>0.035</v>
       </c>
       <c r="G57">
         <v>-0.06</v>
       </c>
       <c r="H57">
-        <v>36.89</v>
+        <v>35.57</v>
       </c>
       <c r="I57">
-        <v>140800</v>
+        <v>360100</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2319,17 +2319,20 @@
       <c r="D58" t="s">
         <v>90</v>
       </c>
+      <c r="E58">
+        <v>1.03</v>
+      </c>
       <c r="F58">
-        <v>0.0385</v>
+        <v>0.0396</v>
       </c>
       <c r="G58">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="H58">
-        <v>39.27</v>
+        <v>37.92</v>
       </c>
       <c r="I58">
-        <v>1035100</v>
+        <v>1527600</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2346,19 +2349,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="F59">
-        <v>0.0411</v>
+        <v>0.0419</v>
       </c>
       <c r="G59">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="H59">
-        <v>41.66</v>
+        <v>40.29</v>
       </c>
       <c r="I59">
-        <v>41600</v>
+        <v>216600</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2381,13 +2384,13 @@
         <v>0.0453</v>
       </c>
       <c r="G60">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H60">
-        <v>44.06</v>
+        <v>42.68</v>
       </c>
       <c r="I60">
-        <v>77100</v>
+        <v>232000</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2404,19 +2407,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="F61">
-        <v>0.0493</v>
+        <v>0.0497</v>
       </c>
       <c r="G61">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H61">
-        <v>46.47</v>
+        <v>45.07</v>
       </c>
       <c r="I61">
-        <v>161100</v>
+        <v>277200</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2433,19 +2436,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="F62">
-        <v>0.0519</v>
+        <v>0.05</v>
       </c>
       <c r="G62">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H62">
-        <v>48.86</v>
+        <v>47.45</v>
       </c>
       <c r="I62">
-        <v>328400</v>
+        <v>730400</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2465,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="F63">
-        <v>0.0596</v>
+        <v>0.0607</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H63">
-        <v>53.58</v>
+        <v>52.17</v>
       </c>
       <c r="I63">
-        <v>213200</v>
+        <v>809800</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,10 +2497,10 @@
         <v>92</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H64">
-        <v>53.58</v>
+        <v>52.17</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2517,19 +2520,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="F65">
-        <v>0.0645</v>
+        <v>0.0649</v>
       </c>
       <c r="G65">
         <v>0.01</v>
       </c>
       <c r="H65">
-        <v>55.89</v>
+        <v>54.5</v>
       </c>
       <c r="I65">
-        <v>128900</v>
+        <v>230100</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2549,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="F66">
-        <v>0.06859999999999999</v>
+        <v>0.0689</v>
       </c>
       <c r="G66">
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>58.16</v>
+        <v>56.78</v>
       </c>
       <c r="I66">
-        <v>357600</v>
+        <v>1150500</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2578,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="F67">
-        <v>0.0775</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="G67">
         <v>0.04</v>
       </c>
       <c r="H67">
-        <v>62.56</v>
+        <v>61.22</v>
       </c>
       <c r="I67">
-        <v>61100</v>
+        <v>148200</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2610,7 +2613,7 @@
         <v>0.04</v>
       </c>
       <c r="H68">
-        <v>62.56</v>
+        <v>61.22</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2630,19 +2633,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="F69">
-        <v>0.0835</v>
+        <v>0.0814</v>
       </c>
       <c r="G69">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H69">
-        <v>64.68000000000001</v>
+        <v>63.36</v>
       </c>
       <c r="I69">
-        <v>20100</v>
+        <v>104700</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2659,19 +2662,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F70">
-        <v>0.0883</v>
+        <v>0.089</v>
       </c>
       <c r="G70">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H70">
-        <v>66.73</v>
+        <v>65.44</v>
       </c>
       <c r="I70">
-        <v>319900</v>
+        <v>1241600</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2688,19 +2691,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="F71">
-        <v>0.1041</v>
+        <v>0.0949</v>
       </c>
       <c r="G71">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H71">
-        <v>70.64</v>
+        <v>69.42</v>
       </c>
       <c r="I71">
-        <v>66100</v>
+        <v>67200</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2717,19 +2720,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="F72">
-        <v>0.1093</v>
+        <v>0.108</v>
       </c>
       <c r="G72">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H72">
-        <v>74.26000000000001</v>
+        <v>73.11</v>
       </c>
       <c r="I72">
-        <v>60800</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2746,19 +2749,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="F73">
-        <v>0.12</v>
+        <v>0.1187</v>
       </c>
       <c r="G73">
         <v>0.11</v>
       </c>
       <c r="H73">
-        <v>77.58</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="I73">
-        <v>20000</v>
+        <v>300500</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2781,7 +2784,7 @@
         <v>0.11</v>
       </c>
       <c r="H74">
-        <v>77.58</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2801,19 +2804,19 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>4.24</v>
+        <v>3.43</v>
       </c>
       <c r="F75">
-        <v>0.1379</v>
+        <v>0.1115</v>
       </c>
       <c r="G75">
         <v>0.12</v>
       </c>
       <c r="H75">
-        <v>79.13</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2830,19 +2833,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>4.05</v>
+        <v>3.91</v>
       </c>
       <c r="F76">
-        <v>0.1306</v>
+        <v>0.1261</v>
       </c>
       <c r="G76">
         <v>0.13</v>
       </c>
       <c r="H76">
-        <v>80.59999999999999</v>
+        <v>79.61</v>
       </c>
       <c r="I76">
-        <v>3300</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2865,10 +2868,10 @@
         <v>0.2686</v>
       </c>
       <c r="G77">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H77">
-        <v>83.31</v>
+        <v>82.41</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2888,19 +2891,19 @@
         <v>90</v>
       </c>
       <c r="E78">
-        <v>4.68</v>
+        <v>4.61</v>
       </c>
       <c r="F78">
-        <v>0.1474</v>
+        <v>0.1452</v>
       </c>
       <c r="G78">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="H78">
-        <v>84.55</v>
+        <v>83.7</v>
       </c>
       <c r="I78">
-        <v>112300</v>
+        <v>146800</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2923,10 +2926,10 @@
         <v>0.1562</v>
       </c>
       <c r="G79">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H79">
-        <v>85.72</v>
+        <v>84.91</v>
       </c>
       <c r="I79">
         <v>200</v>
@@ -2949,10 +2952,10 @@
         <v>92</v>
       </c>
       <c r="G80">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H80">
-        <v>87.86</v>
+        <v>87.14</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2972,19 +2975,19 @@
         <v>90</v>
       </c>
       <c r="E81">
-        <v>5.85</v>
+        <v>5.78</v>
       </c>
       <c r="F81">
-        <v>0.1773</v>
+        <v>0.1752</v>
       </c>
       <c r="G81">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H81">
-        <v>89.73999999999999</v>
+        <v>89.09</v>
       </c>
       <c r="I81">
-        <v>34000</v>
+        <v>71600</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -1085,7 +1085,7 @@
         <v>-0.46</v>
       </c>
       <c r="H15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>7800</v>
@@ -1172,7 +1172,7 @@
         <v>-0.43</v>
       </c>
       <c r="H18">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I18">
         <v>1800</v>
@@ -1201,7 +1201,7 @@
         <v>-0.42</v>
       </c>
       <c r="H19">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I19">
         <v>7900</v>
@@ -1230,7 +1230,7 @@
         <v>-0.41</v>
       </c>
       <c r="H20">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I20">
         <v>10000</v>
@@ -1259,7 +1259,7 @@
         <v>-0.4</v>
       </c>
       <c r="H21">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I21">
         <v>400</v>
@@ -1288,7 +1288,7 @@
         <v>-0.39</v>
       </c>
       <c r="H22">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I22">
         <v>500</v>
@@ -1317,7 +1317,7 @@
         <v>-0.38</v>
       </c>
       <c r="H23">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I23">
         <v>2300</v>
@@ -1346,7 +1346,7 @@
         <v>-0.37</v>
       </c>
       <c r="H24">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>-0.36</v>
       </c>
       <c r="H25">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I25">
         <v>122100</v>
@@ -1404,7 +1404,7 @@
         <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="I26">
         <v>48300</v>
@@ -1433,7 +1433,7 @@
         <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I27">
         <v>84000</v>
@@ -1462,7 +1462,7 @@
         <v>-0.33</v>
       </c>
       <c r="H28">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="I28">
         <v>1600</v>
@@ -1491,7 +1491,7 @@
         <v>-0.32</v>
       </c>
       <c r="H29">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="I29">
         <v>2000</v>
@@ -1520,7 +1520,7 @@
         <v>-0.31</v>
       </c>
       <c r="H30">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="I30">
         <v>54600</v>
@@ -1549,7 +1549,7 @@
         <v>-0.3</v>
       </c>
       <c r="H31">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="I31">
         <v>103600</v>
@@ -1578,7 +1578,7 @@
         <v>-0.29</v>
       </c>
       <c r="H32">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="I32">
         <v>328100</v>
@@ -1607,7 +1607,7 @@
         <v>-0.28</v>
       </c>
       <c r="H33">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="I33">
         <v>69700</v>
@@ -1636,7 +1636,7 @@
         <v>-0.27</v>
       </c>
       <c r="H34">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="I34">
         <v>249300</v>
@@ -1665,7 +1665,7 @@
         <v>-0.26</v>
       </c>
       <c r="H35">
-        <v>2.74</v>
+        <v>2.45</v>
       </c>
       <c r="I35">
         <v>163500</v>
@@ -1694,7 +1694,7 @@
         <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>3.28</v>
+        <v>2.96</v>
       </c>
       <c r="I36">
         <v>60900</v>
@@ -1723,7 +1723,7 @@
         <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>3.89</v>
+        <v>3.54</v>
       </c>
       <c r="I37">
         <v>22200</v>
@@ -1752,7 +1752,7 @@
         <v>-0.24</v>
       </c>
       <c r="H38">
-        <v>4.59</v>
+        <v>4.2</v>
       </c>
       <c r="I38">
         <v>182300</v>
@@ -1781,7 +1781,7 @@
         <v>-0.23</v>
       </c>
       <c r="H39">
-        <v>5.37</v>
+        <v>4.95</v>
       </c>
       <c r="I39">
         <v>12900</v>
@@ -1810,7 +1810,7 @@
         <v>-0.22</v>
       </c>
       <c r="H40">
-        <v>6.25</v>
+        <v>5.79</v>
       </c>
       <c r="I40">
         <v>96700</v>
@@ -1839,7 +1839,7 @@
         <v>-0.21</v>
       </c>
       <c r="H41">
-        <v>7.22</v>
+        <v>6.73</v>
       </c>
       <c r="I41">
         <v>59600</v>
@@ -1868,7 +1868,7 @@
         <v>-0.2</v>
       </c>
       <c r="H42">
-        <v>8.289999999999999</v>
+        <v>7.77</v>
       </c>
       <c r="I42">
         <v>360100</v>
@@ -1897,7 +1897,7 @@
         <v>-0.19</v>
       </c>
       <c r="H43">
-        <v>9.460000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="I43">
         <v>625500</v>
@@ -1926,7 +1926,7 @@
         <v>-0.18</v>
       </c>
       <c r="H44">
-        <v>10.73</v>
+        <v>10.17</v>
       </c>
       <c r="I44">
         <v>286300</v>
@@ -1955,7 +1955,7 @@
         <v>-0.17</v>
       </c>
       <c r="H45">
-        <v>12.11</v>
+        <v>11.52</v>
       </c>
       <c r="I45">
         <v>217900</v>
@@ -1984,7 +1984,7 @@
         <v>-0.16</v>
       </c>
       <c r="H46">
-        <v>13.59</v>
+        <v>12.99</v>
       </c>
       <c r="I46">
         <v>361500</v>
@@ -2013,7 +2013,7 @@
         <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>15.17</v>
+        <v>14.56</v>
       </c>
       <c r="I47">
         <v>269100</v>
@@ -2042,7 +2042,7 @@
         <v>-0.15</v>
       </c>
       <c r="H48">
-        <v>16.85</v>
+        <v>16.23</v>
       </c>
       <c r="I48">
         <v>120400</v>
@@ -2071,7 +2071,7 @@
         <v>-0.14</v>
       </c>
       <c r="H49">
-        <v>18.62</v>
+        <v>18.01</v>
       </c>
       <c r="I49">
         <v>203300</v>
@@ -2100,7 +2100,7 @@
         <v>-0.13</v>
       </c>
       <c r="H50">
-        <v>20.49</v>
+        <v>19.88</v>
       </c>
       <c r="I50">
         <v>351100</v>
@@ -2129,7 +2129,7 @@
         <v>-0.12</v>
       </c>
       <c r="H51">
-        <v>22.44</v>
+        <v>21.84</v>
       </c>
       <c r="I51">
         <v>101100</v>
@@ -2158,7 +2158,7 @@
         <v>-0.1</v>
       </c>
       <c r="H52">
-        <v>26.58</v>
+        <v>26.02</v>
       </c>
       <c r="I52">
         <v>132300</v>
@@ -2187,7 +2187,7 @@
         <v>-0.09</v>
       </c>
       <c r="H53">
-        <v>28.75</v>
+        <v>28.22</v>
       </c>
       <c r="I53">
         <v>460400</v>
@@ -2216,7 +2216,7 @@
         <v>-0.08</v>
       </c>
       <c r="H54">
-        <v>30.98</v>
+        <v>30.48</v>
       </c>
       <c r="I54">
         <v>127600</v>
@@ -2245,7 +2245,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H55">
-        <v>33.25</v>
+        <v>32.79</v>
       </c>
       <c r="I55">
         <v>246600</v>
@@ -2271,7 +2271,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H56">
-        <v>33.25</v>
+        <v>32.79</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2300,7 +2300,7 @@
         <v>-0.06</v>
       </c>
       <c r="H57">
-        <v>35.57</v>
+        <v>35.15</v>
       </c>
       <c r="I57">
         <v>360100</v>
@@ -2329,7 +2329,7 @@
         <v>-0.06</v>
       </c>
       <c r="H58">
-        <v>37.92</v>
+        <v>37.55</v>
       </c>
       <c r="I58">
         <v>1527600</v>
@@ -2358,7 +2358,7 @@
         <v>-0.05</v>
       </c>
       <c r="H59">
-        <v>40.29</v>
+        <v>39.97</v>
       </c>
       <c r="I59">
         <v>216600</v>
@@ -2387,7 +2387,7 @@
         <v>-0.04</v>
       </c>
       <c r="H60">
-        <v>42.68</v>
+        <v>42.4</v>
       </c>
       <c r="I60">
         <v>232000</v>
@@ -2416,7 +2416,7 @@
         <v>-0.03</v>
       </c>
       <c r="H61">
-        <v>45.07</v>
+        <v>44.84</v>
       </c>
       <c r="I61">
         <v>277200</v>
@@ -2445,7 +2445,7 @@
         <v>-0.02</v>
       </c>
       <c r="H62">
-        <v>47.45</v>
+        <v>47.28</v>
       </c>
       <c r="I62">
         <v>730400</v>
@@ -2474,7 +2474,7 @@
         <v>-0</v>
       </c>
       <c r="H63">
-        <v>52.17</v>
+        <v>52.11</v>
       </c>
       <c r="I63">
         <v>809800</v>
@@ -2500,7 +2500,7 @@
         <v>-0</v>
       </c>
       <c r="H64">
-        <v>52.17</v>
+        <v>52.11</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2529,7 +2529,7 @@
         <v>0.01</v>
       </c>
       <c r="H65">
-        <v>54.5</v>
+        <v>54.49</v>
       </c>
       <c r="I65">
         <v>230100</v>
@@ -2558,7 +2558,7 @@
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>56.78</v>
+        <v>56.83</v>
       </c>
       <c r="I66">
         <v>1150500</v>
@@ -2587,7 +2587,7 @@
         <v>0.04</v>
       </c>
       <c r="H67">
-        <v>61.22</v>
+        <v>61.36</v>
       </c>
       <c r="I67">
         <v>148200</v>
@@ -2613,7 +2613,7 @@
         <v>0.04</v>
       </c>
       <c r="H68">
-        <v>61.22</v>
+        <v>61.36</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2642,7 +2642,7 @@
         <v>0.04</v>
       </c>
       <c r="H69">
-        <v>63.36</v>
+        <v>63.55</v>
       </c>
       <c r="I69">
         <v>104700</v>
@@ -2671,7 +2671,7 @@
         <v>0.05</v>
       </c>
       <c r="H70">
-        <v>65.44</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="I70">
         <v>1241600</v>
@@ -2700,7 +2700,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H71">
-        <v>69.42</v>
+        <v>69.73</v>
       </c>
       <c r="I71">
         <v>67200</v>
@@ -2729,7 +2729,7 @@
         <v>0.09</v>
       </c>
       <c r="H72">
-        <v>73.11</v>
+        <v>73.48</v>
       </c>
       <c r="I72">
         <v>95000</v>
@@ -2758,7 +2758,7 @@
         <v>0.11</v>
       </c>
       <c r="H73">
-        <v>76.51000000000001</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="I73">
         <v>300500</v>
@@ -2784,7 +2784,7 @@
         <v>0.11</v>
       </c>
       <c r="H74">
-        <v>76.51000000000001</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2813,7 +2813,7 @@
         <v>0.12</v>
       </c>
       <c r="H75">
-        <v>78.09999999999999</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="I75">
         <v>2000</v>
@@ -2842,7 +2842,7 @@
         <v>0.13</v>
       </c>
       <c r="H76">
-        <v>79.61</v>
+        <v>80.06999999999999</v>
       </c>
       <c r="I76">
         <v>3800</v>
@@ -2871,7 +2871,7 @@
         <v>0.14</v>
       </c>
       <c r="H77">
-        <v>82.41</v>
+        <v>82.89</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0.15</v>
       </c>
       <c r="H78">
-        <v>83.7</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="I78">
         <v>146800</v>
@@ -2929,7 +2929,7 @@
         <v>0.16</v>
       </c>
       <c r="H79">
-        <v>84.91</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="I79">
         <v>200</v>
@@ -2955,7 +2955,7 @@
         <v>0.18</v>
       </c>
       <c r="H80">
-        <v>87.14</v>
+        <v>87.62</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2984,7 +2984,7 @@
         <v>0.2</v>
       </c>
       <c r="H81">
-        <v>89.09</v>
+        <v>89.56</v>
       </c>
       <c r="I81">
         <v>71600</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>280100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>71700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1175,7 +1175,7 @@
         <v>0.01</v>
       </c>
       <c r="I18">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1204,7 +1204,7 @@
         <v>0.02</v>
       </c>
       <c r="I19">
-        <v>7900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1233,7 +1233,7 @@
         <v>0.03</v>
       </c>
       <c r="I20">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1262,7 +1262,7 @@
         <v>0.04</v>
       </c>
       <c r="I21">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1291,7 +1291,7 @@
         <v>0.06</v>
       </c>
       <c r="I22">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1317,10 +1317,10 @@
         <v>-0.38</v>
       </c>
       <c r="H23">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I23">
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1346,7 +1346,7 @@
         <v>-0.37</v>
       </c>
       <c r="H24">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>-0.36</v>
       </c>
       <c r="H25">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I25">
-        <v>122100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1404,10 +1404,10 @@
         <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I26">
-        <v>48300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1433,10 +1433,10 @@
         <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I27">
-        <v>84000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1462,10 +1462,10 @@
         <v>-0.33</v>
       </c>
       <c r="H28">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I28">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1491,10 +1491,10 @@
         <v>-0.32</v>
       </c>
       <c r="H29">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="I29">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1520,10 +1520,10 @@
         <v>-0.31</v>
       </c>
       <c r="H30">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="I30">
-        <v>54600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1549,10 +1549,10 @@
         <v>-0.3</v>
       </c>
       <c r="H31">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="I31">
-        <v>103600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1578,10 +1578,10 @@
         <v>-0.29</v>
       </c>
       <c r="H32">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="I32">
-        <v>328100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1607,10 +1607,10 @@
         <v>-0.28</v>
       </c>
       <c r="H33">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="I33">
-        <v>69700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1636,10 +1636,10 @@
         <v>-0.27</v>
       </c>
       <c r="H34">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="I34">
-        <v>249300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1665,10 +1665,10 @@
         <v>-0.26</v>
       </c>
       <c r="H35">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="I35">
-        <v>163500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1694,10 +1694,10 @@
         <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="I36">
-        <v>60900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1723,10 +1723,10 @@
         <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>3.54</v>
+        <v>3.37</v>
       </c>
       <c r="I37">
-        <v>22200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1752,10 +1752,10 @@
         <v>-0.24</v>
       </c>
       <c r="H38">
-        <v>4.2</v>
+        <v>4.01</v>
       </c>
       <c r="I38">
-        <v>182300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1781,10 +1781,10 @@
         <v>-0.23</v>
       </c>
       <c r="H39">
-        <v>4.95</v>
+        <v>4.74</v>
       </c>
       <c r="I39">
-        <v>12900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1810,10 +1810,10 @@
         <v>-0.22</v>
       </c>
       <c r="H40">
-        <v>5.79</v>
+        <v>5.56</v>
       </c>
       <c r="I40">
-        <v>96700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1839,10 +1839,10 @@
         <v>-0.21</v>
       </c>
       <c r="H41">
-        <v>6.73</v>
+        <v>6.49</v>
       </c>
       <c r="I41">
-        <v>59600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1868,10 +1868,10 @@
         <v>-0.2</v>
       </c>
       <c r="H42">
-        <v>7.77</v>
+        <v>7.51</v>
       </c>
       <c r="I42">
-        <v>360100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1897,10 +1897,10 @@
         <v>-0.19</v>
       </c>
       <c r="H43">
-        <v>8.92</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I43">
-        <v>625500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1926,10 +1926,10 @@
         <v>-0.18</v>
       </c>
       <c r="H44">
-        <v>10.17</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="I44">
-        <v>286300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1955,10 +1955,10 @@
         <v>-0.17</v>
       </c>
       <c r="H45">
-        <v>11.52</v>
+        <v>11.22</v>
       </c>
       <c r="I45">
-        <v>217900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1984,10 +1984,10 @@
         <v>-0.16</v>
       </c>
       <c r="H46">
-        <v>12.99</v>
+        <v>12.68</v>
       </c>
       <c r="I46">
-        <v>361500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2013,10 +2013,10 @@
         <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>14.56</v>
+        <v>14.24</v>
       </c>
       <c r="I47">
-        <v>269100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2042,10 +2042,10 @@
         <v>-0.15</v>
       </c>
       <c r="H48">
-        <v>16.23</v>
+        <v>15.91</v>
       </c>
       <c r="I48">
-        <v>120400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2071,10 +2071,10 @@
         <v>-0.14</v>
       </c>
       <c r="H49">
-        <v>18.01</v>
+        <v>17.69</v>
       </c>
       <c r="I49">
-        <v>203300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2100,10 +2100,10 @@
         <v>-0.13</v>
       </c>
       <c r="H50">
-        <v>19.88</v>
+        <v>19.56</v>
       </c>
       <c r="I50">
-        <v>351100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2129,10 +2129,10 @@
         <v>-0.12</v>
       </c>
       <c r="H51">
-        <v>21.84</v>
+        <v>21.53</v>
       </c>
       <c r="I51">
-        <v>101100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2158,10 +2158,10 @@
         <v>-0.1</v>
       </c>
       <c r="H52">
-        <v>26.02</v>
+        <v>25.73</v>
       </c>
       <c r="I52">
-        <v>132300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2187,10 +2187,10 @@
         <v>-0.09</v>
       </c>
       <c r="H53">
-        <v>28.22</v>
+        <v>27.94</v>
       </c>
       <c r="I53">
-        <v>460400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2216,10 +2216,10 @@
         <v>-0.08</v>
       </c>
       <c r="H54">
-        <v>30.48</v>
+        <v>30.22</v>
       </c>
       <c r="I54">
-        <v>127600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2245,10 +2245,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H55">
-        <v>32.79</v>
+        <v>32.55</v>
       </c>
       <c r="I55">
-        <v>246600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2271,7 +2271,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H56">
-        <v>32.79</v>
+        <v>32.55</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2300,10 +2300,10 @@
         <v>-0.06</v>
       </c>
       <c r="H57">
-        <v>35.15</v>
+        <v>34.93</v>
       </c>
       <c r="I57">
-        <v>360100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2329,10 +2329,10 @@
         <v>-0.06</v>
       </c>
       <c r="H58">
-        <v>37.55</v>
+        <v>37.35</v>
       </c>
       <c r="I58">
-        <v>1527600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2358,10 +2358,10 @@
         <v>-0.05</v>
       </c>
       <c r="H59">
-        <v>39.97</v>
+        <v>39.79</v>
       </c>
       <c r="I59">
-        <v>216600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2387,10 +2387,10 @@
         <v>-0.04</v>
       </c>
       <c r="H60">
-        <v>42.4</v>
+        <v>42.26</v>
       </c>
       <c r="I60">
-        <v>232000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2416,10 +2416,10 @@
         <v>-0.03</v>
       </c>
       <c r="H61">
-        <v>44.84</v>
+        <v>44.73</v>
       </c>
       <c r="I61">
-        <v>277200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2445,10 +2445,10 @@
         <v>-0.02</v>
       </c>
       <c r="H62">
-        <v>47.28</v>
+        <v>47.19</v>
       </c>
       <c r="I62">
-        <v>730400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2474,10 +2474,10 @@
         <v>-0</v>
       </c>
       <c r="H63">
-        <v>52.11</v>
+        <v>52.08</v>
       </c>
       <c r="I63">
-        <v>809800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2500,7 +2500,7 @@
         <v>-0</v>
       </c>
       <c r="H64">
-        <v>52.11</v>
+        <v>52.08</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2529,10 +2529,10 @@
         <v>0.01</v>
       </c>
       <c r="H65">
-        <v>54.49</v>
+        <v>54.48</v>
       </c>
       <c r="I65">
-        <v>230100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2558,10 +2558,10 @@
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>56.83</v>
+        <v>56.85</v>
       </c>
       <c r="I66">
-        <v>1150500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2587,10 +2587,10 @@
         <v>0.04</v>
       </c>
       <c r="H67">
-        <v>61.36</v>
+        <v>61.44</v>
       </c>
       <c r="I67">
-        <v>148200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2613,7 +2613,7 @@
         <v>0.04</v>
       </c>
       <c r="H68">
-        <v>61.36</v>
+        <v>61.44</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2642,10 +2642,10 @@
         <v>0.04</v>
       </c>
       <c r="H69">
-        <v>63.55</v>
+        <v>63.65</v>
       </c>
       <c r="I69">
-        <v>104700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2671,10 +2671,10 @@
         <v>0.05</v>
       </c>
       <c r="H70">
-        <v>65.68000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="I70">
-        <v>1241600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2700,10 +2700,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H71">
-        <v>69.73</v>
+        <v>69.89</v>
       </c>
       <c r="I71">
-        <v>67200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2729,10 +2729,10 @@
         <v>0.09</v>
       </c>
       <c r="H72">
-        <v>73.48</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="I72">
-        <v>95000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2758,10 +2758,10 @@
         <v>0.11</v>
       </c>
       <c r="H73">
-        <v>76.93000000000001</v>
+        <v>77.16</v>
       </c>
       <c r="I73">
-        <v>300500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2784,7 +2784,7 @@
         <v>0.11</v>
       </c>
       <c r="H74">
-        <v>76.93000000000001</v>
+        <v>77.16</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2813,10 +2813,10 @@
         <v>0.12</v>
       </c>
       <c r="H75">
-        <v>78.54000000000001</v>
+        <v>78.77</v>
       </c>
       <c r="I75">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2842,10 +2842,10 @@
         <v>0.13</v>
       </c>
       <c r="H76">
-        <v>80.06999999999999</v>
+        <v>80.31</v>
       </c>
       <c r="I76">
-        <v>3800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2871,7 +2871,7 @@
         <v>0.14</v>
       </c>
       <c r="H77">
-        <v>82.89</v>
+        <v>83.14</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>0.15</v>
       </c>
       <c r="H78">
-        <v>84.18000000000001</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="I78">
-        <v>146800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2929,10 +2929,10 @@
         <v>0.16</v>
       </c>
       <c r="H79">
-        <v>85.40000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="I79">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2955,7 +2955,7 @@
         <v>0.18</v>
       </c>
       <c r="H80">
-        <v>87.62</v>
+        <v>87.87</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2984,10 +2984,10 @@
         <v>0.2</v>
       </c>
       <c r="H81">
-        <v>89.56</v>
+        <v>89.8</v>
       </c>
       <c r="I81">
-        <v>71600</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -705,13 +705,13 @@
         <v>0.0011</v>
       </c>
       <c r="G2">
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>144300</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -728,19 +728,19 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <v>0.0021</v>
+        <v>0.001</v>
       </c>
       <c r="G3">
-        <v>-0.65</v>
+        <v>-0.64</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>505000</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -792,13 +792,13 @@
         <v>0.001</v>
       </c>
       <c r="G5">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>378400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -815,19 +815,19 @@
         <v>90</v>
       </c>
       <c r="E6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="G6">
-        <v>-0.62</v>
+        <v>-0.61</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -850,13 +850,13 @@
         <v>0.0009</v>
       </c>
       <c r="G7">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -879,7 +879,7 @@
         <v>0.0017</v>
       </c>
       <c r="G8">
-        <v>-0.58</v>
+        <v>-0.57</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -937,13 +937,13 @@
         <v>0.0016</v>
       </c>
       <c r="G10">
-        <v>-0.55</v>
+        <v>-0.54</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -966,13 +966,13 @@
         <v>0.0015</v>
       </c>
       <c r="G11">
-        <v>-0.53</v>
+        <v>-0.52</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>427300</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -995,13 +995,13 @@
         <v>0.0022</v>
       </c>
       <c r="G12">
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>54600</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1018,19 +1018,19 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F13">
-        <v>0.0021</v>
+        <v>0.0014</v>
       </c>
       <c r="G13">
-        <v>-0.49</v>
+        <v>-0.48</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1053,13 +1053,13 @@
         <v>0.0021</v>
       </c>
       <c r="G14">
-        <v>-0.47</v>
+        <v>-0.46</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1082,13 +1082,13 @@
         <v>0.0027</v>
       </c>
       <c r="G15">
-        <v>-0.46</v>
+        <v>-0.44</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1111,7 +1111,7 @@
         <v>0.0033</v>
       </c>
       <c r="G16">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="H16">
         <v>0.01</v>
@@ -1134,19 +1134,19 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F17">
-        <v>0.0032</v>
+        <v>0.0026</v>
       </c>
       <c r="G17">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="H17">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1169,10 +1169,10 @@
         <v>0.0025</v>
       </c>
       <c r="G18">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="H18">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1192,19 +1192,19 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F19">
-        <v>0.0025</v>
+        <v>0.0012</v>
       </c>
       <c r="G19">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="H19">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>93400</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,10 +1227,10 @@
         <v>0.0037</v>
       </c>
       <c r="G20">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="H20">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1250,19 +1250,19 @@
         <v>90</v>
       </c>
       <c r="E21">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F21">
-        <v>0.0024</v>
+        <v>0.003</v>
       </c>
       <c r="G21">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="H21">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1279,19 +1279,19 @@
         <v>90</v>
       </c>
       <c r="E22">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F22">
-        <v>0.0036</v>
+        <v>0.0042</v>
       </c>
       <c r="G22">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="H22">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1314,13 +1314,13 @@
         <v>0.0041</v>
       </c>
       <c r="G23">
-        <v>-0.38</v>
+        <v>-0.37</v>
       </c>
       <c r="H23">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1343,13 +1343,13 @@
         <v>0.0041</v>
       </c>
       <c r="G24">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="H24">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1366,19 +1366,19 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F25">
-        <v>0.0034</v>
+        <v>0.004</v>
       </c>
       <c r="G25">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="H25">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1401,13 +1401,13 @@
         <v>0.0044</v>
       </c>
       <c r="G26">
-        <v>-0.35</v>
+        <v>-0.33</v>
       </c>
       <c r="H26">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>31100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1424,19 +1424,19 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F27">
-        <v>0.0044</v>
+        <v>0.0055</v>
       </c>
       <c r="G27">
-        <v>-0.34</v>
+        <v>-0.32</v>
       </c>
       <c r="H27">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1453,19 +1453,19 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F28">
-        <v>0.0054</v>
+        <v>0.0049</v>
       </c>
       <c r="G28">
-        <v>-0.33</v>
+        <v>-0.31</v>
       </c>
       <c r="H28">
-        <v>0.47</v>
+        <v>0.73</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1482,19 +1482,19 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F29">
-        <v>0.0053</v>
+        <v>0.0048</v>
       </c>
       <c r="G29">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="H29">
-        <v>0.61</v>
+        <v>0.93</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1511,19 +1511,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F30">
-        <v>0.0058</v>
+        <v>0.0053</v>
       </c>
       <c r="G30">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="H30">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>201100</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1540,19 +1540,19 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F31">
-        <v>0.0057</v>
+        <v>0.0052</v>
       </c>
       <c r="G31">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="H31">
-        <v>0.99</v>
+        <v>1.46</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1569,19 +1569,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F32">
-        <v>0.0062</v>
+        <v>0.0056</v>
       </c>
       <c r="G32">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="H32">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>95500</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1598,19 +1598,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F33">
-        <v>0.0066</v>
+        <v>0.0056</v>
       </c>
       <c r="G33">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="H33">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>169300</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1627,19 +1627,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F34">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="G34">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="H34">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>210600</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1662,13 +1662,13 @@
         <v>0.0074</v>
       </c>
       <c r="G35">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="H35">
-        <v>2.32</v>
+        <v>3.26</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>128500</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,19 +1685,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F36">
-        <v>0.0073</v>
+        <v>0.0078</v>
       </c>
       <c r="G36">
-        <v>-0.26</v>
+        <v>-0.24</v>
       </c>
       <c r="H36">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1720,13 +1720,13 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="G37">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="H37">
-        <v>3.37</v>
+        <v>4.62</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1743,19 +1743,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="F38">
-        <v>0.0105</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G38">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="H38">
-        <v>4.01</v>
+        <v>5.44</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>663200</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1772,19 +1772,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F39">
-        <v>0.0089</v>
+        <v>0.0094</v>
       </c>
       <c r="G39">
-        <v>-0.23</v>
+        <v>-0.21</v>
       </c>
       <c r="H39">
-        <v>4.74</v>
+        <v>6.36</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1801,19 +1801,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F40">
-        <v>0.0098</v>
+        <v>0.0102</v>
       </c>
       <c r="G40">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="H40">
-        <v>5.56</v>
+        <v>7.39</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>93800</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1830,19 +1830,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F41">
-        <v>0.0101</v>
+        <v>0.0106</v>
       </c>
       <c r="G41">
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
       <c r="H41">
-        <v>6.49</v>
+        <v>8.52</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>118300</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1859,19 +1859,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="F42">
-        <v>0.0109</v>
+        <v>0.0118</v>
       </c>
       <c r="G42">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="H42">
-        <v>7.51</v>
+        <v>9.76</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>355500</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1888,19 +1888,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="F43">
-        <v>0.0117</v>
+        <v>0.0126</v>
       </c>
       <c r="G43">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="H43">
-        <v>8.640000000000001</v>
+        <v>11.11</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>132400</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1917,19 +1917,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="F44">
-        <v>0.0124</v>
+        <v>0.0142</v>
       </c>
       <c r="G44">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="H44">
-        <v>9.880000000000001</v>
+        <v>12.58</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>251900</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1946,19 +1946,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="F45">
-        <v>0.0132</v>
+        <v>0.0149</v>
       </c>
       <c r="G45">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="H45">
-        <v>11.22</v>
+        <v>14.15</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>254300</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1975,19 +1975,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F46">
-        <v>0.0165</v>
+        <v>0.0161</v>
       </c>
       <c r="G46">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="H46">
-        <v>12.68</v>
+        <v>15.84</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>464900</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2004,19 +2004,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="F47">
-        <v>0.0155</v>
+        <v>0.0181</v>
       </c>
       <c r="G47">
-        <v>-0.16</v>
+        <v>-0.14</v>
       </c>
       <c r="H47">
-        <v>14.24</v>
+        <v>17.63</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>281700</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2033,19 +2033,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="F48">
-        <v>0.0174</v>
+        <v>0.02</v>
       </c>
       <c r="G48">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="H48">
-        <v>15.91</v>
+        <v>19.52</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,22 +2059,22 @@
         <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="F49">
-        <v>0.0177</v>
+        <v>0.0215</v>
       </c>
       <c r="G49">
-        <v>-0.14</v>
+        <v>-0.12</v>
       </c>
       <c r="H49">
-        <v>17.69</v>
+        <v>21.51</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>85800</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2091,19 +2091,19 @@
         <v>91</v>
       </c>
       <c r="E50">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F50">
-        <v>0.0208</v>
+        <v>0.0233</v>
       </c>
       <c r="G50">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="H50">
-        <v>19.56</v>
+        <v>23.59</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>314600</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2120,19 +2120,19 @@
         <v>91</v>
       </c>
       <c r="E51">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F51">
-        <v>0.0227</v>
+        <v>0.0252</v>
       </c>
       <c r="G51">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="H51">
-        <v>21.53</v>
+        <v>25.76</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>97300</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,22 +2146,22 @@
         <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E52">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="F52">
-        <v>0.0267</v>
+        <v>0.0291</v>
       </c>
       <c r="G52">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="H52">
-        <v>25.73</v>
+        <v>30.3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>94600</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2178,19 +2178,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="F53">
-        <v>0.0292</v>
+        <v>0.0328</v>
       </c>
       <c r="G53">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H53">
-        <v>27.94</v>
+        <v>32.66</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>727600</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,19 +2207,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="F54">
-        <v>0.0305</v>
+        <v>0.0352</v>
       </c>
       <c r="G54">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="H54">
-        <v>30.22</v>
+        <v>35.07</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>290700</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2236,19 +2236,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F55">
-        <v>0.0325</v>
+        <v>0.0388</v>
       </c>
       <c r="G55">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H55">
-        <v>32.55</v>
+        <v>37.52</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>114500</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,10 +2268,10 @@
         <v>92</v>
       </c>
       <c r="G56">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H56">
-        <v>32.55</v>
+        <v>37.52</v>
       </c>
       <c r="I56" t="s">
         <v>92</v>
@@ -2291,19 +2291,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.9</v>
+        <v>1.06</v>
       </c>
       <c r="F57">
-        <v>0.035</v>
+        <v>0.0412</v>
       </c>
       <c r="G57">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="H57">
-        <v>34.93</v>
+        <v>39.99</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>442100</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2320,19 +2320,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="F58">
-        <v>0.0396</v>
+        <v>0.0435</v>
       </c>
       <c r="G58">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="H58">
-        <v>37.35</v>
+        <v>42.48</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1174300</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2349,19 +2349,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="F59">
-        <v>0.0419</v>
+        <v>0.0491</v>
       </c>
       <c r="G59">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="H59">
-        <v>39.79</v>
+        <v>44.98</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>136800</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2378,19 +2378,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="F60">
-        <v>0.0453</v>
+        <v>0.0517</v>
       </c>
       <c r="G60">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="H60">
-        <v>42.26</v>
+        <v>47.47</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>256100</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2407,19 +2407,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="F61">
-        <v>0.0497</v>
+        <v>0.0553</v>
       </c>
       <c r="G61">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="H61">
-        <v>44.73</v>
+        <v>49.95</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>228500</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2436,19 +2436,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="F62">
-        <v>0.05</v>
+        <v>0.0615</v>
       </c>
       <c r="G62">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>47.19</v>
+        <v>52.4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>445600</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2465,19 +2465,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="F63">
-        <v>0.0607</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="G63">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
       <c r="H63">
-        <v>52.08</v>
+        <v>57.21</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>222500</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2497,10 +2497,10 @@
         <v>92</v>
       </c>
       <c r="G64">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
       <c r="H64">
-        <v>52.08</v>
+        <v>57.21</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
@@ -2520,19 +2520,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="F65">
-        <v>0.0649</v>
+        <v>0.075</v>
       </c>
       <c r="G65">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H65">
-        <v>54.48</v>
+        <v>59.55</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>146200</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2549,19 +2549,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="F66">
-        <v>0.0689</v>
+        <v>0.0764</v>
       </c>
       <c r="G66">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H66">
-        <v>56.85</v>
+        <v>61.83</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1062300</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2578,19 +2578,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>2.23</v>
+        <v>2.48</v>
       </c>
       <c r="F67">
-        <v>0.07820000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G67">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H67">
-        <v>61.44</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>127000</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2610,10 +2610,10 @@
         <v>92</v>
       </c>
       <c r="G68">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H68">
-        <v>61.44</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
@@ -2633,19 +2633,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="F69">
-        <v>0.0814</v>
+        <v>0.0922</v>
       </c>
       <c r="G69">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H69">
-        <v>63.65</v>
+        <v>68.3</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2662,19 +2662,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="F70">
-        <v>0.089</v>
+        <v>0.0993</v>
       </c>
       <c r="G70">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H70">
-        <v>65.8</v>
+        <v>70.31</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>578400</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2691,19 +2691,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="F71">
-        <v>0.0949</v>
+        <v>0.102</v>
       </c>
       <c r="G71">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H71">
-        <v>69.89</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2720,19 +2720,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>3.24</v>
+        <v>3.7</v>
       </c>
       <c r="F72">
-        <v>0.108</v>
+        <v>0.1233</v>
       </c>
       <c r="G72">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="H72">
-        <v>73.68000000000001</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1013800</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2749,19 +2749,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="F73">
-        <v>0.1187</v>
+        <v>0.1272</v>
       </c>
       <c r="G73">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H73">
-        <v>77.16</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>69500</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2781,10 +2781,10 @@
         <v>92</v>
       </c>
       <c r="G74">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H74">
-        <v>77.16</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="I74" t="s">
         <v>92</v>
@@ -2804,19 +2804,19 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>3.43</v>
+        <v>4.22</v>
       </c>
       <c r="F75">
-        <v>0.1115</v>
+        <v>0.1372</v>
       </c>
       <c r="G75">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="H75">
-        <v>78.77</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2833,19 +2833,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>3.91</v>
+        <v>4.5</v>
       </c>
       <c r="F76">
-        <v>0.1261</v>
+        <v>0.1452</v>
       </c>
       <c r="G76">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H76">
-        <v>80.31</v>
+        <v>83.52</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2862,19 +2862,19 @@
         <v>90</v>
       </c>
       <c r="E77">
-        <v>8.460000000000001</v>
+        <v>4.67</v>
       </c>
       <c r="F77">
-        <v>0.2686</v>
+        <v>0.1483</v>
       </c>
       <c r="G77">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="H77">
-        <v>83.14</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2897,10 +2897,10 @@
         <v>0.1452</v>
       </c>
       <c r="G78">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="H78">
-        <v>84.43000000000001</v>
+        <v>87.14</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2920,19 +2920,19 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F79">
-        <v>0.1562</v>
+        <v>0.1719</v>
       </c>
       <c r="G79">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="H79">
-        <v>85.65000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2952,10 +2952,10 @@
         <v>92</v>
       </c>
       <c r="G80">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H80">
-        <v>87.87</v>
+        <v>90.11</v>
       </c>
       <c r="I80" t="s">
         <v>92</v>
@@ -2981,10 +2981,10 @@
         <v>0.1752</v>
       </c>
       <c r="G81">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="H81">
-        <v>89.8</v>
+        <v>91.75</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>STRIKE</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>Aguardar</t>
-  </si>
-  <si>
-    <t>Montar</t>
   </si>
   <si>
     <t>-</t>
@@ -711,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>144300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -740,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>505000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -757,19 +754,19 @@
         <v>90</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G4">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -792,13 +789,13 @@
         <v>0.001</v>
       </c>
       <c r="G5">
-        <v>-0.63</v>
+        <v>-0.62</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>378400</v>
+        <v>104200</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12500</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -908,13 +905,13 @@
         <v>0.0017</v>
       </c>
       <c r="G9">
-        <v>-0.5600000000000001</v>
+        <v>-0.55</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -931,19 +928,19 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <v>0.0016</v>
+        <v>0.0008</v>
       </c>
       <c r="G10">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -966,13 +963,13 @@
         <v>0.0015</v>
       </c>
       <c r="G11">
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>427300</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -989,19 +986,19 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
-        <v>0.0022</v>
+        <v>0.0015</v>
       </c>
       <c r="G12">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>54600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1024,13 +1021,13 @@
         <v>0.0014</v>
       </c>
       <c r="G13">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3100</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1047,19 +1044,19 @@
         <v>90</v>
       </c>
       <c r="E14">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F14">
-        <v>0.0021</v>
+        <v>0.0014</v>
       </c>
       <c r="G14">
-        <v>-0.46</v>
+        <v>-0.45</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5100</v>
+        <v>73200</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1076,10 +1073,10 @@
         <v>90</v>
       </c>
       <c r="E15">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F15">
-        <v>0.0027</v>
+        <v>0.002</v>
       </c>
       <c r="G15">
         <v>-0.44</v>
@@ -1088,7 +1085,7 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>15800</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1111,7 +1108,7 @@
         <v>0.0033</v>
       </c>
       <c r="G16">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="H16">
         <v>0.01</v>
@@ -1134,19 +1131,19 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>0.0026</v>
+        <v>0.0019</v>
       </c>
       <c r="G17">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="H17">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I17">
-        <v>36100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1163,19 +1160,19 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F18">
-        <v>0.0025</v>
+        <v>0.0019</v>
       </c>
       <c r="G18">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="H18">
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1192,19 +1189,19 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F19">
-        <v>0.0012</v>
+        <v>0.0031</v>
       </c>
       <c r="G19">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="H19">
         <v>0.03</v>
       </c>
       <c r="I19">
-        <v>93400</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,13 +1224,13 @@
         <v>0.0037</v>
       </c>
       <c r="G20">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="H20">
         <v>0.05</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1250,19 +1247,19 @@
         <v>90</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F21">
-        <v>0.003</v>
+        <v>0.0036</v>
       </c>
       <c r="G21">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="H21">
         <v>0.07000000000000001</v>
       </c>
       <c r="I21">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1279,19 +1276,19 @@
         <v>90</v>
       </c>
       <c r="E22">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F22">
-        <v>0.0042</v>
+        <v>0.0024</v>
       </c>
       <c r="G22">
-        <v>-0.38</v>
+        <v>-0.37</v>
       </c>
       <c r="H22">
         <v>0.1</v>
       </c>
       <c r="I22">
-        <v>8100</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1308,19 +1305,19 @@
         <v>90</v>
       </c>
       <c r="E23">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F23">
-        <v>0.0041</v>
+        <v>0.0029</v>
       </c>
       <c r="G23">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="H23">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I23">
-        <v>28500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1337,19 +1334,19 @@
         <v>90</v>
       </c>
       <c r="E24">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F24">
-        <v>0.0041</v>
+        <v>0.0035</v>
       </c>
       <c r="G24">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="H24">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I24">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1366,19 +1363,19 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F25">
-        <v>0.004</v>
+        <v>0.0029</v>
       </c>
       <c r="G25">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="H25">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I25">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1395,19 +1392,19 @@
         <v>90</v>
       </c>
       <c r="E26">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F26">
-        <v>0.0044</v>
+        <v>0.0033</v>
       </c>
       <c r="G26">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="H26">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I26">
-        <v>31100</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1424,19 +1421,19 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F27">
-        <v>0.0055</v>
+        <v>0.0033</v>
       </c>
       <c r="G27">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="H27">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="I27">
-        <v>18600</v>
+        <v>61300</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1453,19 +1450,19 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F28">
-        <v>0.0049</v>
+        <v>0.0032</v>
       </c>
       <c r="G28">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="H28">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="I28">
-        <v>11100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1482,19 +1479,19 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F29">
-        <v>0.0048</v>
+        <v>0.0037</v>
       </c>
       <c r="G29">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="H29">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="I29">
-        <v>10300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1511,19 +1508,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F30">
-        <v>0.0053</v>
+        <v>0.0042</v>
       </c>
       <c r="G30">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="H30">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="I30">
-        <v>201100</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1540,19 +1537,19 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F31">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
       <c r="G31">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="H31">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="I31">
-        <v>20000</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1569,19 +1566,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F32">
-        <v>0.0056</v>
+        <v>0.0046</v>
       </c>
       <c r="G32">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="H32">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>95500</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1598,19 +1595,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F33">
-        <v>0.0056</v>
+        <v>0.0046</v>
       </c>
       <c r="G33">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="H33">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="I33">
-        <v>169300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1627,19 +1624,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="F34">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="G34">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="H34">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
       <c r="I34">
-        <v>210600</v>
+        <v>109600</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1656,19 +1653,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="F35">
-        <v>0.0074</v>
+        <v>0.0054</v>
       </c>
       <c r="G35">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="H35">
-        <v>3.26</v>
+        <v>3.62</v>
       </c>
       <c r="I35">
-        <v>128500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1685,19 +1682,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="F36">
-        <v>0.0078</v>
+        <v>0.0059</v>
       </c>
       <c r="G36">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="H36">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I36">
-        <v>13100</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1714,19 +1711,19 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F37">
-        <v>0.008200000000000001</v>
+        <v>0.0063</v>
       </c>
       <c r="G37">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="H37">
-        <v>4.62</v>
+        <v>5.14</v>
       </c>
       <c r="I37">
-        <v>7100</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1743,19 +1740,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="F38">
-        <v>0.008999999999999999</v>
+        <v>0.0067</v>
       </c>
       <c r="G38">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="H38">
-        <v>5.44</v>
+        <v>6.06</v>
       </c>
       <c r="I38">
-        <v>663200</v>
+        <v>383700</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1772,19 +1769,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F39">
-        <v>0.0094</v>
+        <v>0.0075</v>
       </c>
       <c r="G39">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="H39">
-        <v>6.36</v>
+        <v>7.09</v>
       </c>
       <c r="I39">
-        <v>16100</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1801,19 +1798,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="F40">
-        <v>0.0102</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="G40">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="H40">
-        <v>7.39</v>
+        <v>8.23</v>
       </c>
       <c r="I40">
-        <v>93800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1830,19 +1827,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="F41">
-        <v>0.0106</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="G41">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="H41">
-        <v>8.52</v>
+        <v>9.49</v>
       </c>
       <c r="I41">
-        <v>118300</v>
+        <v>31400</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1859,19 +1856,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="F42">
-        <v>0.0118</v>
+        <v>0.0091</v>
       </c>
       <c r="G42">
-        <v>-0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="H42">
-        <v>9.76</v>
+        <v>10.88</v>
       </c>
       <c r="I42">
-        <v>355500</v>
+        <v>231200</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1888,19 +1885,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="F43">
-        <v>0.0126</v>
+        <v>0.0103</v>
       </c>
       <c r="G43">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="H43">
-        <v>11.11</v>
+        <v>12.38</v>
       </c>
       <c r="I43">
-        <v>132400</v>
+        <v>69800</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1917,19 +1914,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="F44">
-        <v>0.0142</v>
+        <v>0.0111</v>
       </c>
       <c r="G44">
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
       <c r="H44">
-        <v>12.58</v>
+        <v>14</v>
       </c>
       <c r="I44">
-        <v>251900</v>
+        <v>114200</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1946,19 +1943,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="F45">
-        <v>0.0149</v>
+        <v>0.0119</v>
       </c>
       <c r="G45">
-        <v>-0.16</v>
+        <v>-0.14</v>
       </c>
       <c r="H45">
-        <v>14.15</v>
+        <v>15.74</v>
       </c>
       <c r="I45">
-        <v>254300</v>
+        <v>76300</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1975,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="F46">
-        <v>0.0161</v>
+        <v>0.0126</v>
       </c>
       <c r="G46">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="H46">
-        <v>15.84</v>
+        <v>17.6</v>
       </c>
       <c r="I46">
-        <v>464900</v>
+        <v>445400</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2004,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="F47">
-        <v>0.0181</v>
+        <v>0.0146</v>
       </c>
       <c r="G47">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="H47">
-        <v>17.63</v>
+        <v>19.57</v>
       </c>
       <c r="I47">
-        <v>281700</v>
+        <v>73700</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2033,19 +2030,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="F48">
-        <v>0.02</v>
+        <v>0.0162</v>
       </c>
       <c r="G48">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="H48">
-        <v>19.52</v>
+        <v>21.64</v>
       </c>
       <c r="I48">
-        <v>236000</v>
+        <v>357400</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,22 +2056,22 @@
         <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="F49">
-        <v>0.0215</v>
+        <v>0.0177</v>
       </c>
       <c r="G49">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="H49">
-        <v>21.51</v>
+        <v>23.81</v>
       </c>
       <c r="I49">
-        <v>85800</v>
+        <v>218500</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,22 +2085,22 @@
         <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E50">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="F50">
-        <v>0.0233</v>
+        <v>0.0196</v>
       </c>
       <c r="G50">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="H50">
-        <v>23.59</v>
+        <v>26.07</v>
       </c>
       <c r="I50">
-        <v>314600</v>
+        <v>464600</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2117,22 +2114,22 @@
         <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E51">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="F51">
-        <v>0.0252</v>
+        <v>0.0214</v>
       </c>
       <c r="G51">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="H51">
-        <v>25.76</v>
+        <v>28.41</v>
       </c>
       <c r="I51">
-        <v>97300</v>
+        <v>188100</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2149,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="F52">
-        <v>0.0291</v>
+        <v>0.0259</v>
       </c>
       <c r="G52">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H52">
-        <v>30.3</v>
+        <v>33.29</v>
       </c>
       <c r="I52">
-        <v>94600</v>
+        <v>193900</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2178,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="F53">
-        <v>0.0328</v>
+        <v>0.0284</v>
       </c>
       <c r="G53">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H53">
-        <v>32.66</v>
+        <v>35.81</v>
       </c>
       <c r="I53">
-        <v>727600</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2207,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="F54">
-        <v>0.0352</v>
+        <v>0.0313</v>
       </c>
       <c r="G54">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="H54">
-        <v>35.07</v>
+        <v>38.37</v>
       </c>
       <c r="I54">
-        <v>290700</v>
+        <v>67300</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2236,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F55">
-        <v>0.0388</v>
+        <v>0.0361</v>
       </c>
       <c r="G55">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="H55">
-        <v>37.52</v>
+        <v>40.95</v>
       </c>
       <c r="I55">
-        <v>114500</v>
+        <v>216700</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2265,16 +2262,16 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="H56">
-        <v>37.52</v>
+        <v>40.95</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2290,20 +2287,17 @@
       <c r="D57" t="s">
         <v>90</v>
       </c>
-      <c r="E57">
-        <v>1.06</v>
-      </c>
       <c r="F57">
-        <v>0.0412</v>
+        <v>0.0388</v>
       </c>
       <c r="G57">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="H57">
-        <v>39.99</v>
+        <v>43.55</v>
       </c>
       <c r="I57">
-        <v>442100</v>
+        <v>92300</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2320,19 +2314,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="F58">
-        <v>0.0435</v>
+        <v>0.0415</v>
       </c>
       <c r="G58">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="H58">
-        <v>42.48</v>
+        <v>46.15</v>
       </c>
       <c r="I58">
-        <v>1174300</v>
+        <v>3052900</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2349,19 +2343,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="F59">
-        <v>0.0491</v>
+        <v>0.0465</v>
       </c>
       <c r="G59">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="H59">
-        <v>44.98</v>
+        <v>48.74</v>
       </c>
       <c r="I59">
-        <v>136800</v>
+        <v>153300</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2378,19 +2372,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="F60">
-        <v>0.0517</v>
+        <v>0.0491</v>
       </c>
       <c r="G60">
-        <v>-0.02</v>
+        <v>-0</v>
       </c>
       <c r="H60">
-        <v>47.47</v>
+        <v>51.31</v>
       </c>
       <c r="I60">
-        <v>256100</v>
+        <v>119300</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2407,19 +2401,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="F61">
-        <v>0.0553</v>
+        <v>0.0516</v>
       </c>
       <c r="G61">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="H61">
-        <v>49.95</v>
+        <v>53.86</v>
       </c>
       <c r="I61">
-        <v>228500</v>
+        <v>129800</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2436,19 +2430,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="F62">
-        <v>0.0615</v>
+        <v>0.0578</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H62">
-        <v>52.4</v>
+        <v>56.36</v>
       </c>
       <c r="I62">
-        <v>445600</v>
+        <v>552700</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2465,19 +2459,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="F63">
-        <v>0.06950000000000001</v>
+        <v>0.0673</v>
       </c>
       <c r="G63">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H63">
-        <v>57.21</v>
+        <v>61.22</v>
       </c>
       <c r="I63">
-        <v>222500</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,16 +2488,16 @@
         <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H64">
-        <v>57.21</v>
+        <v>61.22</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2520,19 +2514,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="F65">
-        <v>0.075</v>
+        <v>0.0735</v>
       </c>
       <c r="G65">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H65">
-        <v>59.55</v>
+        <v>63.55</v>
       </c>
       <c r="I65">
-        <v>146200</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2549,19 +2543,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="F66">
-        <v>0.0764</v>
+        <v>0.0779</v>
       </c>
       <c r="G66">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H66">
-        <v>61.83</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="I66">
-        <v>1062300</v>
+        <v>721600</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2578,19 +2572,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="F67">
-        <v>0.08699999999999999</v>
+        <v>0.0902</v>
       </c>
       <c r="G67">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H67">
-        <v>66.20999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="I67">
-        <v>127000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2607,16 +2601,16 @@
         <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H68">
-        <v>66.20999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2633,19 +2627,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="F69">
-        <v>0.0922</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="G69">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H69">
-        <v>68.3</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="I69">
-        <v>10100</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2662,19 +2656,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="F70">
-        <v>0.0993</v>
+        <v>0.1003</v>
       </c>
       <c r="G70">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H70">
-        <v>70.31</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I70">
-        <v>578400</v>
+        <v>782500</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2691,19 +2685,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="F71">
-        <v>0.102</v>
+        <v>0.1085</v>
       </c>
       <c r="G71">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="H71">
-        <v>74.09999999999999</v>
+        <v>77.70999999999999</v>
       </c>
       <c r="I71">
-        <v>7000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2726,13 +2720,13 @@
         <v>0.1233</v>
       </c>
       <c r="G72">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H72">
-        <v>77.56999999999999</v>
+        <v>80.97</v>
       </c>
       <c r="I72">
-        <v>1013800</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2755,13 +2749,13 @@
         <v>0.1272</v>
       </c>
       <c r="G73">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H73">
-        <v>80.70999999999999</v>
+        <v>83.88</v>
       </c>
       <c r="I73">
-        <v>69500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2778,16 +2772,16 @@
         <v>90</v>
       </c>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G74">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H74">
-        <v>80.70999999999999</v>
+        <v>83.88</v>
       </c>
       <c r="I74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2810,13 +2804,13 @@
         <v>0.1372</v>
       </c>
       <c r="G75">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H75">
-        <v>82.15000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="I75">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2833,19 +2827,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F76">
-        <v>0.1452</v>
+        <v>0.1484</v>
       </c>
       <c r="G76">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="H76">
-        <v>83.52</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="I76">
-        <v>16100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2862,19 +2856,19 @@
         <v>90</v>
       </c>
       <c r="E77">
-        <v>4.67</v>
+        <v>5.04</v>
       </c>
       <c r="F77">
-        <v>0.1483</v>
+        <v>0.16</v>
       </c>
       <c r="G77">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H77">
-        <v>86.01000000000001</v>
+        <v>88.66</v>
       </c>
       <c r="I77">
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2891,19 +2885,19 @@
         <v>90</v>
       </c>
       <c r="E78">
-        <v>4.61</v>
+        <v>4.99</v>
       </c>
       <c r="F78">
-        <v>0.1452</v>
+        <v>0.1572</v>
       </c>
       <c r="G78">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H78">
-        <v>87.14</v>
+        <v>89.66</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2926,13 +2920,13 @@
         <v>0.1719</v>
       </c>
       <c r="G79">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H79">
-        <v>88.2</v>
+        <v>90.59</v>
       </c>
       <c r="I79">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2949,16 +2943,16 @@
         <v>90</v>
       </c>
       <c r="E80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G80">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="H80">
-        <v>90.11</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="I80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2975,19 +2969,19 @@
         <v>90</v>
       </c>
       <c r="E81">
-        <v>5.78</v>
+        <v>6.22</v>
       </c>
       <c r="F81">
-        <v>0.1752</v>
+        <v>0.1885</v>
       </c>
       <c r="G81">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="H81">
-        <v>91.75</v>
+        <v>93.64</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -702,7 +702,7 @@
         <v>0.0011</v>
       </c>
       <c r="G2">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0.001</v>
       </c>
       <c r="G3">
-        <v>-0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>0.001</v>
       </c>
       <c r="G4">
-        <v>-0.63</v>
+        <v>-0.65</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -789,13 +789,13 @@
         <v>0.001</v>
       </c>
       <c r="G5">
-        <v>-0.62</v>
+        <v>-0.64</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>104200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -818,13 +818,13 @@
         <v>0.001</v>
       </c>
       <c r="G6">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -847,13 +847,13 @@
         <v>0.0009</v>
       </c>
       <c r="G7">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12600</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -876,13 +876,13 @@
         <v>0.0017</v>
       </c>
       <c r="G8">
-        <v>-0.57</v>
+        <v>-0.59</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -899,19 +899,19 @@
         <v>90</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
-        <v>0.0017</v>
+        <v>0.0008</v>
       </c>
       <c r="G9">
-        <v>-0.55</v>
+        <v>-0.57</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>112200</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -928,19 +928,19 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F10">
-        <v>0.0008</v>
+        <v>0.0016</v>
       </c>
       <c r="G10">
-        <v>-0.53</v>
+        <v>-0.55</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -963,13 +963,13 @@
         <v>0.0015</v>
       </c>
       <c r="G11">
-        <v>-0.51</v>
+        <v>-0.53</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -992,13 +992,13 @@
         <v>0.0015</v>
       </c>
       <c r="G12">
-        <v>-0.49</v>
+        <v>-0.51</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25000</v>
+        <v>254200</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1021,13 +1021,13 @@
         <v>0.0014</v>
       </c>
       <c r="G13">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30100</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1050,13 +1050,13 @@
         <v>0.0014</v>
       </c>
       <c r="G14">
-        <v>-0.45</v>
+        <v>-0.48</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>73200</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1073,19 +1073,19 @@
         <v>90</v>
       </c>
       <c r="E15">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F15">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="G15">
-        <v>-0.44</v>
+        <v>-0.46</v>
       </c>
       <c r="H15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>24400</v>
+        <v>128500</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1102,19 +1102,19 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
-        <v>0.0033</v>
+        <v>0.002</v>
       </c>
       <c r="G16">
-        <v>-0.43</v>
+        <v>-0.45</v>
       </c>
       <c r="H16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1131,19 +1131,19 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F17">
-        <v>0.0019</v>
+        <v>0.0026</v>
       </c>
       <c r="G17">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
       <c r="H17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1166,13 +1166,13 @@
         <v>0.0019</v>
       </c>
       <c r="G18">
-        <v>-0.41</v>
+        <v>-0.43</v>
       </c>
       <c r="H18">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I18">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1189,19 +1189,19 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F19">
-        <v>0.0031</v>
+        <v>0.0019</v>
       </c>
       <c r="G19">
-        <v>-0.4</v>
+        <v>-0.42</v>
       </c>
       <c r="H19">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I19">
-        <v>4900</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1224,13 +1224,13 @@
         <v>0.0037</v>
       </c>
       <c r="G20">
-        <v>-0.39</v>
+        <v>-0.41</v>
       </c>
       <c r="H20">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I20">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1247,19 +1247,19 @@
         <v>90</v>
       </c>
       <c r="E21">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F21">
-        <v>0.0036</v>
+        <v>0.0042</v>
       </c>
       <c r="G21">
-        <v>-0.38</v>
+        <v>-0.41</v>
       </c>
       <c r="H21">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1282,13 +1282,13 @@
         <v>0.0024</v>
       </c>
       <c r="G22">
-        <v>-0.37</v>
+        <v>-0.4</v>
       </c>
       <c r="H22">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I22">
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1311,13 +1311,13 @@
         <v>0.0029</v>
       </c>
       <c r="G23">
-        <v>-0.36</v>
+        <v>-0.39</v>
       </c>
       <c r="H23">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I23">
-        <v>2500</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1334,19 +1334,19 @@
         <v>90</v>
       </c>
       <c r="E24">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
-        <v>0.0035</v>
+        <v>0.0012</v>
       </c>
       <c r="G24">
-        <v>-0.35</v>
+        <v>-0.38</v>
       </c>
       <c r="H24">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1363,19 +1363,19 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F25">
-        <v>0.0029</v>
+        <v>0.0023</v>
       </c>
       <c r="G25">
-        <v>-0.34</v>
+        <v>-0.37</v>
       </c>
       <c r="H25">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1392,19 +1392,19 @@
         <v>90</v>
       </c>
       <c r="E26">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F26">
-        <v>0.0033</v>
+        <v>0.0028</v>
       </c>
       <c r="G26">
-        <v>-0.32</v>
+        <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
       <c r="I26">
-        <v>2300</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1421,19 +1421,19 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F27">
-        <v>0.0033</v>
+        <v>0.0027</v>
       </c>
       <c r="G27">
-        <v>-0.31</v>
+        <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.61</v>
+        <v>0.23</v>
       </c>
       <c r="I27">
-        <v>61300</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1450,19 +1450,19 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F28">
-        <v>0.0032</v>
+        <v>0.0027</v>
       </c>
       <c r="G28">
-        <v>-0.3</v>
+        <v>-0.33</v>
       </c>
       <c r="H28">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="I28">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1485,13 +1485,13 @@
         <v>0.0037</v>
       </c>
       <c r="G29">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="H29">
-        <v>1.02</v>
+        <v>0.41</v>
       </c>
       <c r="I29">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1508,19 +1508,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F30">
-        <v>0.0042</v>
+        <v>0.0037</v>
       </c>
       <c r="G30">
-        <v>-0.29</v>
+        <v>-0.32</v>
       </c>
       <c r="H30">
-        <v>1.29</v>
+        <v>0.54</v>
       </c>
       <c r="I30">
-        <v>164000</v>
+        <v>92500</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1543,13 +1543,13 @@
         <v>0.0042</v>
       </c>
       <c r="G31">
-        <v>-0.28</v>
+        <v>-0.31</v>
       </c>
       <c r="H31">
-        <v>1.61</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I31">
-        <v>9400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1566,19 +1566,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F32">
-        <v>0.0046</v>
+        <v>0.0041</v>
       </c>
       <c r="G32">
-        <v>-0.27</v>
+        <v>-0.3</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="I32">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1595,19 +1595,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F33">
-        <v>0.0046</v>
+        <v>0.0035</v>
       </c>
       <c r="G33">
-        <v>-0.26</v>
+        <v>-0.29</v>
       </c>
       <c r="H33">
-        <v>2.46</v>
+        <v>1.12</v>
       </c>
       <c r="I33">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1624,19 +1624,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F34">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="G34">
-        <v>-0.25</v>
+        <v>-0.28</v>
       </c>
       <c r="H34">
-        <v>2.99</v>
+        <v>1.4</v>
       </c>
       <c r="I34">
-        <v>109600</v>
+        <v>211500</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1653,19 +1653,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F35">
-        <v>0.0054</v>
+        <v>0.004</v>
       </c>
       <c r="G35">
-        <v>-0.24</v>
+        <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>3.62</v>
+        <v>1.73</v>
       </c>
       <c r="I35">
-        <v>11500</v>
+        <v>36800</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1682,19 +1682,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F36">
-        <v>0.0059</v>
+        <v>0.0044</v>
       </c>
       <c r="G36">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>4.33</v>
+        <v>2.13</v>
       </c>
       <c r="I36">
-        <v>27600</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1711,19 +1711,19 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="F37">
-        <v>0.0063</v>
+        <v>0.0043</v>
       </c>
       <c r="G37">
-        <v>-0.22</v>
+        <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>5.14</v>
+        <v>2.59</v>
       </c>
       <c r="I37">
-        <v>13000</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1740,19 +1740,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F38">
-        <v>0.0067</v>
+        <v>0.0052</v>
       </c>
       <c r="G38">
-        <v>-0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="H38">
-        <v>6.06</v>
+        <v>3.13</v>
       </c>
       <c r="I38">
-        <v>383700</v>
+        <v>871800</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1769,19 +1769,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F39">
-        <v>0.0075</v>
+        <v>0.0052</v>
       </c>
       <c r="G39">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="H39">
-        <v>7.09</v>
+        <v>3.74</v>
       </c>
       <c r="I39">
-        <v>13100</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1798,19 +1798,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F40">
-        <v>0.007900000000000001</v>
+        <v>0.0051</v>
       </c>
       <c r="G40">
-        <v>-0.19</v>
+        <v>-0.23</v>
       </c>
       <c r="H40">
-        <v>8.23</v>
+        <v>4.45</v>
       </c>
       <c r="I40">
-        <v>12400</v>
+        <v>77100</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1827,19 +1827,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="F41">
-        <v>0.008699999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="G41">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="H41">
-        <v>9.49</v>
+        <v>5.25</v>
       </c>
       <c r="I41">
-        <v>31400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1856,19 +1856,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F42">
-        <v>0.0091</v>
+        <v>0.0068</v>
       </c>
       <c r="G42">
-        <v>-0.17</v>
+        <v>-0.21</v>
       </c>
       <c r="H42">
-        <v>10.88</v>
+        <v>6.14</v>
       </c>
       <c r="I42">
-        <v>231200</v>
+        <v>377100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1885,19 +1885,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="F43">
-        <v>0.0103</v>
+        <v>0.0072</v>
       </c>
       <c r="G43">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="H43">
-        <v>12.38</v>
+        <v>7.14</v>
       </c>
       <c r="I43">
-        <v>69800</v>
+        <v>75100</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1914,19 +1914,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="F44">
-        <v>0.0111</v>
+        <v>0.0071</v>
       </c>
       <c r="G44">
-        <v>-0.15</v>
+        <v>-0.19</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>8.25</v>
       </c>
       <c r="I44">
-        <v>114200</v>
+        <v>114700</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1943,19 +1943,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="F45">
-        <v>0.0119</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="G45">
-        <v>-0.14</v>
+        <v>-0.18</v>
       </c>
       <c r="H45">
-        <v>15.74</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I45">
-        <v>76300</v>
+        <v>235300</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1972,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="F46">
-        <v>0.0126</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="G46">
-        <v>-0.14</v>
+        <v>-0.17</v>
       </c>
       <c r="H46">
-        <v>17.6</v>
+        <v>10.8</v>
       </c>
       <c r="I46">
-        <v>445400</v>
+        <v>580100</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="F47">
-        <v>0.0146</v>
+        <v>0.0095</v>
       </c>
       <c r="G47">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>19.57</v>
+        <v>12.24</v>
       </c>
       <c r="I47">
-        <v>73700</v>
+        <v>105400</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,19 +2030,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="F48">
-        <v>0.0162</v>
+        <v>0.0106</v>
       </c>
       <c r="G48">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="H48">
-        <v>21.64</v>
+        <v>13.8</v>
       </c>
       <c r="I48">
-        <v>357400</v>
+        <v>243300</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,19 +2059,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="F49">
-        <v>0.0177</v>
+        <v>0.0114</v>
       </c>
       <c r="G49">
-        <v>-0.11</v>
+        <v>-0.14</v>
       </c>
       <c r="H49">
-        <v>23.81</v>
+        <v>15.46</v>
       </c>
       <c r="I49">
-        <v>218500</v>
+        <v>218200</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="F50">
-        <v>0.0196</v>
+        <v>0.0125</v>
       </c>
       <c r="G50">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
       <c r="H50">
-        <v>26.07</v>
+        <v>17.24</v>
       </c>
       <c r="I50">
-        <v>464600</v>
+        <v>602300</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2117,19 +2117,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="F51">
-        <v>0.0214</v>
+        <v>0.014</v>
       </c>
       <c r="G51">
-        <v>-0.09</v>
+        <v>-0.13</v>
       </c>
       <c r="H51">
-        <v>28.41</v>
+        <v>19.12</v>
       </c>
       <c r="I51">
-        <v>188100</v>
+        <v>197300</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
       <c r="F52">
-        <v>0.0259</v>
+        <v>0.017</v>
       </c>
       <c r="G52">
-        <v>-0.07000000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="H52">
-        <v>33.29</v>
+        <v>23.17</v>
       </c>
       <c r="I52">
-        <v>193900</v>
+        <v>285100</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="F53">
-        <v>0.0284</v>
+        <v>0.0184</v>
       </c>
       <c r="G53">
-        <v>-0.06</v>
+        <v>-0.1</v>
       </c>
       <c r="H53">
-        <v>35.81</v>
+        <v>25.33</v>
       </c>
       <c r="I53">
-        <v>1190000</v>
+        <v>828600</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
       <c r="F54">
-        <v>0.0313</v>
+        <v>0.0214</v>
       </c>
       <c r="G54">
-        <v>-0.05</v>
+        <v>-0.09</v>
       </c>
       <c r="H54">
-        <v>38.37</v>
+        <v>27.57</v>
       </c>
       <c r="I54">
-        <v>67300</v>
+        <v>76400</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="F55">
-        <v>0.0361</v>
+        <v>0.0224</v>
       </c>
       <c r="G55">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="H55">
-        <v>40.95</v>
+        <v>29.87</v>
       </c>
       <c r="I55">
-        <v>216700</v>
+        <v>423200</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2265,10 +2265,10 @@
         <v>91</v>
       </c>
       <c r="G56">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="H56">
-        <v>40.95</v>
+        <v>29.87</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2287,17 +2287,20 @@
       <c r="D57" t="s">
         <v>90</v>
       </c>
+      <c r="E57">
+        <v>0.65</v>
+      </c>
       <c r="F57">
-        <v>0.0388</v>
+        <v>0.0252</v>
       </c>
       <c r="G57">
-        <v>-0.03</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H57">
-        <v>43.55</v>
+        <v>32.24</v>
       </c>
       <c r="I57">
-        <v>92300</v>
+        <v>284400</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2314,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>1.08</v>
+        <v>0.7</v>
       </c>
       <c r="F58">
-        <v>0.0415</v>
+        <v>0.0269</v>
       </c>
       <c r="G58">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="H58">
-        <v>46.15</v>
+        <v>34.66</v>
       </c>
       <c r="I58">
-        <v>3052900</v>
+        <v>3112100</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2343,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>1.22</v>
+        <v>0.8</v>
       </c>
       <c r="F59">
-        <v>0.0465</v>
+        <v>0.0305</v>
       </c>
       <c r="G59">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="H59">
-        <v>48.74</v>
+        <v>37.11</v>
       </c>
       <c r="I59">
-        <v>153300</v>
+        <v>202900</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2372,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>1.3</v>
+        <v>0.87</v>
       </c>
       <c r="F60">
-        <v>0.0491</v>
+        <v>0.0328</v>
       </c>
       <c r="G60">
-        <v>-0</v>
+        <v>-0.05</v>
       </c>
       <c r="H60">
-        <v>51.31</v>
+        <v>39.6</v>
       </c>
       <c r="I60">
-        <v>119300</v>
+        <v>362000</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2401,19 +2404,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.38</v>
+        <v>0.96</v>
       </c>
       <c r="F61">
-        <v>0.0516</v>
+        <v>0.0359</v>
       </c>
       <c r="G61">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="H61">
-        <v>53.86</v>
+        <v>42.11</v>
       </c>
       <c r="I61">
-        <v>129800</v>
+        <v>402700</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2430,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.56</v>
+        <v>1.05</v>
       </c>
       <c r="F62">
-        <v>0.0578</v>
+        <v>0.0389</v>
       </c>
       <c r="G62">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H62">
-        <v>56.36</v>
+        <v>44.62</v>
       </c>
       <c r="I62">
-        <v>552700</v>
+        <v>1026700</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2459,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.85</v>
+        <v>1.28</v>
       </c>
       <c r="F63">
-        <v>0.0673</v>
+        <v>0.0465</v>
       </c>
       <c r="G63">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="H63">
-        <v>61.22</v>
+        <v>49.64</v>
       </c>
       <c r="I63">
-        <v>45900</v>
+        <v>2526000</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2491,10 +2494,10 @@
         <v>91</v>
       </c>
       <c r="G64">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="H64">
-        <v>61.22</v>
+        <v>49.64</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2514,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>2.04</v>
+        <v>1.39</v>
       </c>
       <c r="F65">
-        <v>0.0735</v>
+        <v>0.0501</v>
       </c>
       <c r="G65">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
       <c r="H65">
-        <v>63.55</v>
+        <v>52.12</v>
       </c>
       <c r="I65">
-        <v>65400</v>
+        <v>339400</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2543,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>2.18</v>
+        <v>1.52</v>
       </c>
       <c r="F66">
-        <v>0.0779</v>
+        <v>0.0543</v>
       </c>
       <c r="G66">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H66">
-        <v>65.81999999999999</v>
+        <v>54.57</v>
       </c>
       <c r="I66">
-        <v>721600</v>
+        <v>1084700</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2572,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>2.57</v>
+        <v>1.84</v>
       </c>
       <c r="F67">
-        <v>0.0902</v>
+        <v>0.0646</v>
       </c>
       <c r="G67">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H67">
-        <v>70.12</v>
+        <v>59.34</v>
       </c>
       <c r="I67">
-        <v>2600</v>
+        <v>136400</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2604,10 +2607,10 @@
         <v>91</v>
       </c>
       <c r="G68">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H68">
-        <v>70.12</v>
+        <v>59.34</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2627,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>2.75</v>
+        <v>1.99</v>
       </c>
       <c r="F69">
-        <v>0.09569999999999999</v>
+        <v>0.0692</v>
       </c>
       <c r="G69">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H69">
-        <v>72.15000000000001</v>
+        <v>61.65</v>
       </c>
       <c r="I69">
-        <v>4300</v>
+        <v>65100</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2656,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.91</v>
+        <v>2.15</v>
       </c>
       <c r="F70">
-        <v>0.1003</v>
+        <v>0.0741</v>
       </c>
       <c r="G70">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="H70">
-        <v>74.09999999999999</v>
+        <v>63.91</v>
       </c>
       <c r="I70">
-        <v>782500</v>
+        <v>1428200</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2685,19 +2688,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="F71">
-        <v>0.1085</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="G71">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="H71">
-        <v>77.70999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="I71">
-        <v>4400</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2714,19 +2717,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="F72">
-        <v>0.1233</v>
+        <v>0.093</v>
       </c>
       <c r="G72">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="H72">
-        <v>80.97</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="I72">
-        <v>10900</v>
+        <v>85600</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2743,19 +2746,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>3.88</v>
+        <v>3.17</v>
       </c>
       <c r="F73">
-        <v>0.1272</v>
+        <v>0.1039</v>
       </c>
       <c r="G73">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H73">
-        <v>83.88</v>
+        <v>75.88</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2775,10 +2778,10 @@
         <v>91</v>
       </c>
       <c r="G74">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H74">
-        <v>83.88</v>
+        <v>75.88</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2804,10 +2807,10 @@
         <v>0.1372</v>
       </c>
       <c r="G75">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="H75">
-        <v>85.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2827,19 +2830,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>4.6</v>
+        <v>3.43</v>
       </c>
       <c r="F76">
-        <v>0.1484</v>
+        <v>0.1106</v>
       </c>
       <c r="G76">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="H76">
-        <v>86.43000000000001</v>
+        <v>79.23</v>
       </c>
       <c r="I76">
-        <v>200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2862,10 +2865,10 @@
         <v>0.16</v>
       </c>
       <c r="G77">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="H77">
-        <v>88.66</v>
+        <v>82.23</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2885,19 +2888,19 @@
         <v>90</v>
       </c>
       <c r="E78">
-        <v>4.99</v>
+        <v>4.05</v>
       </c>
       <c r="F78">
-        <v>0.1572</v>
+        <v>0.1276</v>
       </c>
       <c r="G78">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="H78">
-        <v>89.66</v>
+        <v>83.61</v>
       </c>
       <c r="I78">
-        <v>8200</v>
+        <v>267500</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2920,10 +2923,10 @@
         <v>0.1719</v>
       </c>
       <c r="G79">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H79">
-        <v>90.59</v>
+        <v>84.91</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2946,10 +2949,10 @@
         <v>91</v>
       </c>
       <c r="G80">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="H80">
-        <v>92.23999999999999</v>
+        <v>87.27</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2975,13 +2978,13 @@
         <v>0.1885</v>
       </c>
       <c r="G81">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="H81">
-        <v>93.64</v>
+        <v>89.33</v>
       </c>
       <c r="I81">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>112200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>254200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>128500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1201,7 +1201,7 @@
         <v>0.01</v>
       </c>
       <c r="I19">
-        <v>8700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1224,7 +1224,7 @@
         <v>0.0037</v>
       </c>
       <c r="G20">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="H20">
         <v>0.01</v>
@@ -1259,7 +1259,7 @@
         <v>0.02</v>
       </c>
       <c r="I21">
-        <v>27000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1314,10 +1314,10 @@
         <v>-0.39</v>
       </c>
       <c r="H23">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I23">
-        <v>69000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1343,10 +1343,10 @@
         <v>-0.38</v>
       </c>
       <c r="H24">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I24">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1375,7 +1375,7 @@
         <v>0.09</v>
       </c>
       <c r="I25">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1401,10 +1401,10 @@
         <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I26">
-        <v>13900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1430,10 +1430,10 @@
         <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I27">
-        <v>10400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1456,13 +1456,13 @@
         <v>0.0027</v>
       </c>
       <c r="G28">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="H28">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I28">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1485,10 +1485,10 @@
         <v>0.0037</v>
       </c>
       <c r="G29">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H29">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1517,10 +1517,10 @@
         <v>-0.32</v>
       </c>
       <c r="H30">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="I30">
-        <v>92500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1546,7 +1546,7 @@
         <v>-0.31</v>
       </c>
       <c r="H31">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>-0.3</v>
       </c>
       <c r="H32">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>-0.29</v>
       </c>
       <c r="H33">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="I33">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1633,10 +1633,10 @@
         <v>-0.28</v>
       </c>
       <c r="H34">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="I34">
-        <v>211500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1662,10 +1662,10 @@
         <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="I35">
-        <v>36800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1691,10 +1691,10 @@
         <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="I36">
-        <v>14700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1720,10 +1720,10 @@
         <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="I37">
-        <v>34800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1740,19 +1740,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F38">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
       <c r="G38">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H38">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>871800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1775,13 +1775,13 @@
         <v>0.0052</v>
       </c>
       <c r="G39">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="H39">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="I39">
-        <v>15700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1807,10 +1807,10 @@
         <v>-0.23</v>
       </c>
       <c r="H40">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="I40">
-        <v>77100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1836,10 +1836,10 @@
         <v>-0.22</v>
       </c>
       <c r="H41">
-        <v>5.25</v>
+        <v>5.07</v>
       </c>
       <c r="I41">
-        <v>23100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1856,19 +1856,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F42">
-        <v>0.0068</v>
+        <v>0.0064</v>
       </c>
       <c r="G42">
         <v>-0.21</v>
       </c>
       <c r="H42">
-        <v>6.14</v>
+        <v>5.94</v>
       </c>
       <c r="I42">
-        <v>377100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1885,19 +1885,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F43">
-        <v>0.0072</v>
+        <v>0.0067</v>
       </c>
       <c r="G43">
         <v>-0.2</v>
       </c>
       <c r="H43">
-        <v>7.14</v>
+        <v>6.92</v>
       </c>
       <c r="I43">
-        <v>75100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1923,10 +1923,10 @@
         <v>-0.19</v>
       </c>
       <c r="H44">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="I44">
-        <v>114700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1943,19 +1943,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F45">
-        <v>0.007900000000000001</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="G45">
         <v>-0.18</v>
       </c>
       <c r="H45">
-        <v>9.470000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I45">
-        <v>235300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1972,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F46">
-        <v>0.008699999999999999</v>
+        <v>0.0074</v>
       </c>
       <c r="G46">
         <v>-0.17</v>
       </c>
       <c r="H46">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="I46">
-        <v>580100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F47">
-        <v>0.0095</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G47">
         <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>12.24</v>
+        <v>11.92</v>
       </c>
       <c r="I47">
-        <v>105400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2036,13 +2036,13 @@
         <v>0.0106</v>
       </c>
       <c r="G48">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H48">
-        <v>13.8</v>
+        <v>13.46</v>
       </c>
       <c r="I48">
-        <v>243300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2065,13 +2065,13 @@
         <v>0.0114</v>
       </c>
       <c r="G49">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="H49">
-        <v>15.46</v>
+        <v>15.1</v>
       </c>
       <c r="I49">
-        <v>218200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="F50">
-        <v>0.0125</v>
+        <v>0.0129</v>
       </c>
       <c r="G50">
         <v>-0.14</v>
       </c>
       <c r="H50">
-        <v>17.24</v>
+        <v>16.85</v>
       </c>
       <c r="I50">
-        <v>602300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2126,10 +2126,10 @@
         <v>-0.13</v>
       </c>
       <c r="H51">
-        <v>19.12</v>
+        <v>18.71</v>
       </c>
       <c r="I51">
-        <v>197300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="F52">
-        <v>0.017</v>
+        <v>0.0166</v>
       </c>
       <c r="G52">
         <v>-0.11</v>
       </c>
       <c r="H52">
-        <v>23.17</v>
+        <v>22.73</v>
       </c>
       <c r="I52">
-        <v>285100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2184,10 +2184,10 @@
         <v>-0.1</v>
       </c>
       <c r="H53">
-        <v>25.33</v>
+        <v>24.87</v>
       </c>
       <c r="I53">
-        <v>828600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="F54">
-        <v>0.0214</v>
+        <v>0.0206</v>
       </c>
       <c r="G54">
         <v>-0.09</v>
       </c>
       <c r="H54">
-        <v>27.57</v>
+        <v>27.09</v>
       </c>
       <c r="I54">
-        <v>76400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2242,10 +2242,10 @@
         <v>-0.08</v>
       </c>
       <c r="H55">
-        <v>29.87</v>
+        <v>29.39</v>
       </c>
       <c r="I55">
-        <v>423200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,7 +2268,7 @@
         <v>-0.08</v>
       </c>
       <c r="H56">
-        <v>29.87</v>
+        <v>29.39</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2288,19 +2288,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F57">
-        <v>0.0252</v>
+        <v>0.0249</v>
       </c>
       <c r="G57">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H57">
-        <v>32.24</v>
+        <v>31.75</v>
       </c>
       <c r="I57">
-        <v>284400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="F58">
-        <v>0.0269</v>
+        <v>0.0254</v>
       </c>
       <c r="G58">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>34.66</v>
+        <v>34.16</v>
       </c>
       <c r="I58">
-        <v>3112100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2346,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F59">
-        <v>0.0305</v>
+        <v>0.0297</v>
       </c>
       <c r="G59">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="H59">
-        <v>37.11</v>
+        <v>36.61</v>
       </c>
       <c r="I59">
-        <v>202900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2384,10 +2384,10 @@
         <v>-0.05</v>
       </c>
       <c r="H60">
-        <v>39.6</v>
+        <v>39.09</v>
       </c>
       <c r="I60">
-        <v>362000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2413,10 +2413,10 @@
         <v>-0.04</v>
       </c>
       <c r="H61">
-        <v>42.11</v>
+        <v>41.6</v>
       </c>
       <c r="I61">
-        <v>402700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2433,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F62">
-        <v>0.0389</v>
+        <v>0.0393</v>
       </c>
       <c r="G62">
         <v>-0.03</v>
       </c>
       <c r="H62">
-        <v>44.62</v>
+        <v>44.11</v>
       </c>
       <c r="I62">
-        <v>1026700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="F63">
-        <v>0.0465</v>
+        <v>0.0462</v>
       </c>
       <c r="G63">
         <v>-0.01</v>
       </c>
       <c r="H63">
-        <v>49.64</v>
+        <v>49.14</v>
       </c>
       <c r="I63">
-        <v>2526000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2497,7 +2497,7 @@
         <v>-0.01</v>
       </c>
       <c r="H64">
-        <v>49.64</v>
+        <v>49.14</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2526,10 +2526,10 @@
         <v>-0</v>
       </c>
       <c r="H65">
-        <v>52.12</v>
+        <v>51.63</v>
       </c>
       <c r="I65">
-        <v>339400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="F66">
-        <v>0.0543</v>
+        <v>0.0539</v>
       </c>
       <c r="G66">
         <v>0.01</v>
       </c>
       <c r="H66">
-        <v>54.57</v>
+        <v>54.09</v>
       </c>
       <c r="I66">
-        <v>1084700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="F67">
-        <v>0.0646</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="G67">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H67">
-        <v>59.34</v>
+        <v>58.89</v>
       </c>
       <c r="I67">
-        <v>136400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2607,10 +2607,10 @@
         <v>91</v>
       </c>
       <c r="G68">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H68">
-        <v>59.34</v>
+        <v>58.89</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2630,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="F69">
-        <v>0.0692</v>
+        <v>0.0678</v>
       </c>
       <c r="G69">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H69">
-        <v>61.65</v>
+        <v>61.21</v>
       </c>
       <c r="I69">
-        <v>65100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2659,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="F70">
-        <v>0.0741</v>
+        <v>0.0728</v>
       </c>
       <c r="G70">
         <v>0.04</v>
       </c>
       <c r="H70">
-        <v>63.91</v>
+        <v>63.48</v>
       </c>
       <c r="I70">
-        <v>1428200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2697,10 +2697,10 @@
         <v>0.06</v>
       </c>
       <c r="H71">
-        <v>68.2</v>
+        <v>67.81</v>
       </c>
       <c r="I71">
-        <v>23800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2726,10 +2726,10 @@
         <v>0.08</v>
       </c>
       <c r="H72">
-        <v>72.20999999999999</v>
+        <v>71.84</v>
       </c>
       <c r="I72">
-        <v>85600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2755,10 +2755,10 @@
         <v>0.1</v>
       </c>
       <c r="H73">
-        <v>75.88</v>
+        <v>75.56</v>
       </c>
       <c r="I73">
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2781,7 +2781,7 @@
         <v>0.1</v>
       </c>
       <c r="H74">
-        <v>75.88</v>
+        <v>75.56</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2810,7 +2810,7 @@
         <v>0.11</v>
       </c>
       <c r="H75">
-        <v>77.59999999999999</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0.1106</v>
       </c>
       <c r="G76">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H76">
-        <v>79.23</v>
+        <v>78.94</v>
       </c>
       <c r="I76">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2868,7 +2868,7 @@
         <v>0.13</v>
       </c>
       <c r="H77">
-        <v>82.23</v>
+        <v>81.98</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>0.14</v>
       </c>
       <c r="H78">
-        <v>83.61</v>
+        <v>83.37</v>
       </c>
       <c r="I78">
-        <v>267500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2926,7 +2926,7 @@
         <v>0.15</v>
       </c>
       <c r="H79">
-        <v>84.91</v>
+        <v>84.69</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0.17</v>
       </c>
       <c r="H80">
-        <v>87.27</v>
+        <v>87.08</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2981,7 +2981,7 @@
         <v>0.19</v>
       </c>
       <c r="H81">
-        <v>89.33</v>
+        <v>89.16</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -760,13 +760,13 @@
         <v>0.001</v>
       </c>
       <c r="G4">
-        <v>-0.65</v>
+        <v>-0.64</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -876,7 +876,7 @@
         <v>0.0017</v>
       </c>
       <c r="G8">
-        <v>-0.59</v>
+        <v>-0.58</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0.0008</v>
       </c>
       <c r="G9">
-        <v>-0.57</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>128400</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1015,19 +1015,19 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <v>0.0014</v>
+        <v>0.0007</v>
       </c>
       <c r="G13">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1050,13 +1050,13 @@
         <v>0.0014</v>
       </c>
       <c r="G14">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>75600</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1102,10 +1102,10 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F16">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="G16">
         <v>-0.45</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1131,10 +1131,10 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F17">
-        <v>0.0026</v>
+        <v>0.0013</v>
       </c>
       <c r="G17">
         <v>-0.44</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1160,10 +1160,10 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F18">
-        <v>0.0019</v>
+        <v>0.0013</v>
       </c>
       <c r="G18">
         <v>-0.43</v>
@@ -1172,7 +1172,7 @@
         <v>0.01</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1201,7 +1201,7 @@
         <v>0.01</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25800</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1224,10 +1224,10 @@
         <v>0.0037</v>
       </c>
       <c r="G20">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="H20">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>90</v>
       </c>
       <c r="E21">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F21">
-        <v>0.0042</v>
+        <v>0.0018</v>
       </c>
       <c r="G21">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="H21">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1276,19 +1276,19 @@
         <v>90</v>
       </c>
       <c r="E22">
+        <v>0.03</v>
+      </c>
+      <c r="F22">
+        <v>0.0018</v>
+      </c>
+      <c r="G22">
+        <v>-0.39</v>
+      </c>
+      <c r="H22">
         <v>0.04</v>
       </c>
-      <c r="F22">
-        <v>0.0024</v>
-      </c>
-      <c r="G22">
-        <v>-0.4</v>
-      </c>
-      <c r="H22">
-        <v>0.03</v>
-      </c>
       <c r="I22">
-        <v>0</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1305,19 +1305,19 @@
         <v>90</v>
       </c>
       <c r="E23">
+        <v>0.04</v>
+      </c>
+      <c r="F23">
+        <v>0.0024</v>
+      </c>
+      <c r="G23">
+        <v>-0.38</v>
+      </c>
+      <c r="H23">
         <v>0.05</v>
       </c>
-      <c r="F23">
-        <v>0.0029</v>
-      </c>
-      <c r="G23">
-        <v>-0.39</v>
-      </c>
-      <c r="H23">
-        <v>0.04</v>
-      </c>
       <c r="I23">
-        <v>0</v>
+        <v>76700</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1334,19 +1334,19 @@
         <v>90</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F24">
-        <v>0.0012</v>
+        <v>0.0035</v>
       </c>
       <c r="G24">
-        <v>-0.38</v>
+        <v>-0.37</v>
       </c>
       <c r="H24">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1372,10 +1372,10 @@
         <v>-0.37</v>
       </c>
       <c r="H25">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>92400</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1401,10 +1401,10 @@
         <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>117000</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1430,10 +1430,10 @@
         <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>80300</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1456,13 +1456,13 @@
         <v>0.0027</v>
       </c>
       <c r="G28">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="H28">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1485,13 +1485,13 @@
         <v>0.0037</v>
       </c>
       <c r="G29">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="H29">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>80400</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1508,19 +1508,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F30">
-        <v>0.0037</v>
+        <v>0.0026</v>
       </c>
       <c r="G30">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="H30">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>58900</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1537,19 +1537,19 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F31">
-        <v>0.0042</v>
+        <v>0.0031</v>
       </c>
       <c r="G31">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="H31">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1566,19 +1566,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F32">
-        <v>0.0041</v>
+        <v>0.0031</v>
       </c>
       <c r="G32">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="H32">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1595,19 +1595,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F33">
-        <v>0.0035</v>
+        <v>0.0041</v>
       </c>
       <c r="G33">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="H33">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1630,13 +1630,13 @@
         <v>0.004</v>
       </c>
       <c r="G34">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="H34">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>303500</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1653,19 +1653,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F35">
-        <v>0.004</v>
+        <v>0.0044</v>
       </c>
       <c r="G35">
         <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1682,19 +1682,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
-        <v>0.0044</v>
+        <v>0.0049</v>
       </c>
       <c r="G36">
         <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1711,19 +1711,19 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F37">
-        <v>0.0043</v>
+        <v>0.0048</v>
       </c>
       <c r="G37">
         <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>2.48</v>
+        <v>2.87</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1746,13 +1746,13 @@
         <v>0.0048</v>
       </c>
       <c r="G38">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>259900</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1769,19 +1769,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F39">
-        <v>0.0052</v>
+        <v>0.0047</v>
       </c>
       <c r="G39">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="H39">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>67800</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1804,13 +1804,13 @@
         <v>0.0051</v>
       </c>
       <c r="G40">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="H40">
-        <v>4.29</v>
+        <v>4.89</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1827,19 +1827,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F41">
-        <v>0.006</v>
+        <v>0.0064</v>
       </c>
       <c r="G41">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="H41">
-        <v>5.07</v>
+        <v>5.75</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1856,19 +1856,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F42">
-        <v>0.0064</v>
+        <v>0.0068</v>
       </c>
       <c r="G42">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="H42">
-        <v>5.94</v>
+        <v>6.71</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>342400</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1891,13 +1891,13 @@
         <v>0.0067</v>
       </c>
       <c r="G43">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="H43">
-        <v>6.92</v>
+        <v>7.79</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>29200</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1920,13 +1920,13 @@
         <v>0.0071</v>
       </c>
       <c r="G44">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>108300</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1949,13 +1949,13 @@
         <v>0.008399999999999999</v>
       </c>
       <c r="G45">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="H45">
-        <v>9.199999999999999</v>
+        <v>10.27</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>57100</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1972,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F46">
-        <v>0.0074</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="G46">
         <v>-0.17</v>
       </c>
       <c r="H46">
-        <v>10.5</v>
+        <v>11.68</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>356900</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F47">
-        <v>0.008999999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="G47">
         <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>11.92</v>
+        <v>13.21</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>245800</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2036,13 +2036,13 @@
         <v>0.0106</v>
       </c>
       <c r="G48">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="H48">
-        <v>13.46</v>
+        <v>14.85</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,19 +2059,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F49">
-        <v>0.0114</v>
+        <v>0.0118</v>
       </c>
       <c r="G49">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="H49">
-        <v>15.1</v>
+        <v>16.6</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>145900</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="F50">
-        <v>0.0129</v>
+        <v>0.0146</v>
       </c>
       <c r="G50">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="H50">
-        <v>16.85</v>
+        <v>18.47</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>314100</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2123,13 +2123,13 @@
         <v>0.014</v>
       </c>
       <c r="G51">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="H51">
-        <v>18.71</v>
+        <v>20.43</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>382200</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="F52">
-        <v>0.0166</v>
+        <v>0.017</v>
       </c>
       <c r="G52">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="H52">
-        <v>22.73</v>
+        <v>24.65</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>288200</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="F53">
-        <v>0.0184</v>
+        <v>0.0188</v>
       </c>
       <c r="G53">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="H53">
-        <v>24.87</v>
+        <v>26.88</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1541800</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="F54">
-        <v>0.0206</v>
+        <v>0.0194</v>
       </c>
       <c r="G54">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="H54">
-        <v>27.09</v>
+        <v>29.19</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>209500</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="F55">
-        <v>0.0224</v>
+        <v>0.0235</v>
       </c>
       <c r="G55">
         <v>-0.08</v>
       </c>
       <c r="H55">
-        <v>29.39</v>
+        <v>31.57</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>73100</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,7 +2268,7 @@
         <v>-0.08</v>
       </c>
       <c r="H56">
-        <v>29.39</v>
+        <v>31.57</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2288,19 +2288,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F57">
-        <v>0.0249</v>
+        <v>0.0252</v>
       </c>
       <c r="G57">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H57">
-        <v>31.75</v>
+        <v>34</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>88300</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="F58">
-        <v>0.0254</v>
+        <v>0.0288</v>
       </c>
       <c r="G58">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H58">
-        <v>34.16</v>
+        <v>36.47</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>855800</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2352,13 +2352,13 @@
         <v>0.0297</v>
       </c>
       <c r="G59">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="H59">
-        <v>36.61</v>
+        <v>38.97</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>160100</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2375,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F60">
-        <v>0.0328</v>
+        <v>0.0355</v>
       </c>
       <c r="G60">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="H60">
-        <v>39.09</v>
+        <v>41.5</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>70300</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2404,19 +2404,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="F61">
-        <v>0.0359</v>
+        <v>0.0381</v>
       </c>
       <c r="G61">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="H61">
-        <v>41.6</v>
+        <v>44.04</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>254800</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2433,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="F62">
-        <v>0.0393</v>
+        <v>0.0419</v>
       </c>
       <c r="G62">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="H62">
-        <v>44.11</v>
+        <v>46.58</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>883100</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="F63">
-        <v>0.0462</v>
+        <v>0.048</v>
       </c>
       <c r="G63">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="H63">
-        <v>49.14</v>
+        <v>51.62</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>575400</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,10 +2494,10 @@
         <v>91</v>
       </c>
       <c r="G64">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="H64">
-        <v>49.14</v>
+        <v>51.62</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2517,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="F65">
-        <v>0.0501</v>
+        <v>0.053</v>
       </c>
       <c r="G65">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="H65">
-        <v>51.63</v>
+        <v>54.1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>47800</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="F66">
-        <v>0.0539</v>
+        <v>0.0568</v>
       </c>
       <c r="G66">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H66">
-        <v>54.09</v>
+        <v>56.55</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1050500</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="F67">
-        <v>0.06320000000000001</v>
+        <v>0.0649</v>
       </c>
       <c r="G67">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H67">
-        <v>58.89</v>
+        <v>61.29</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>125300</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2607,10 +2607,10 @@
         <v>91</v>
       </c>
       <c r="G68">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H68">
-        <v>58.89</v>
+        <v>61.29</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2630,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="F69">
-        <v>0.0678</v>
+        <v>0.073</v>
       </c>
       <c r="G69">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H69">
-        <v>61.21</v>
+        <v>63.57</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2659,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="F70">
-        <v>0.0728</v>
+        <v>0.0762</v>
       </c>
       <c r="G70">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H70">
-        <v>63.48</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1376400</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2694,13 +2694,13 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="G71">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H71">
-        <v>67.81</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2717,19 +2717,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>2.79</v>
+        <v>2.91</v>
       </c>
       <c r="F72">
-        <v>0.093</v>
+        <v>0.097</v>
       </c>
       <c r="G72">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H72">
-        <v>71.84</v>
+        <v>73.91</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>854600</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2746,19 +2746,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>3.17</v>
+        <v>3.31</v>
       </c>
       <c r="F73">
-        <v>0.1039</v>
+        <v>0.1085</v>
       </c>
       <c r="G73">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H73">
-        <v>75.56</v>
+        <v>77.47</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2778,10 +2778,10 @@
         <v>91</v>
       </c>
       <c r="G74">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H74">
-        <v>75.56</v>
+        <v>77.47</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2801,19 +2801,19 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>4.22</v>
+        <v>3.55</v>
       </c>
       <c r="F75">
-        <v>0.1372</v>
+        <v>0.1154</v>
       </c>
       <c r="G75">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H75">
-        <v>77.29000000000001</v>
+        <v>79.12</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2830,19 +2830,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>3.43</v>
+        <v>3.82</v>
       </c>
       <c r="F76">
-        <v>0.1106</v>
+        <v>0.1232</v>
       </c>
       <c r="G76">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H76">
-        <v>78.94</v>
+        <v>80.69</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2859,19 +2859,19 @@
         <v>90</v>
       </c>
       <c r="E77">
-        <v>5.04</v>
+        <v>4.15</v>
       </c>
       <c r="F77">
-        <v>0.16</v>
+        <v>0.1317</v>
       </c>
       <c r="G77">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H77">
-        <v>81.98</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2888,19 +2888,19 @@
         <v>90</v>
       </c>
       <c r="E78">
-        <v>4.05</v>
+        <v>4.55</v>
       </c>
       <c r="F78">
-        <v>0.1276</v>
+        <v>0.1433</v>
       </c>
       <c r="G78">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="H78">
-        <v>83.37</v>
+        <v>84.88</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2917,19 +2917,19 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>5.5</v>
+        <v>4.86</v>
       </c>
       <c r="F79">
-        <v>0.1719</v>
+        <v>0.1519</v>
       </c>
       <c r="G79">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H79">
-        <v>84.69</v>
+        <v>86.11</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2949,10 +2949,10 @@
         <v>91</v>
       </c>
       <c r="G80">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H80">
-        <v>87.08</v>
+        <v>88.34</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2978,10 +2978,10 @@
         <v>0.1885</v>
       </c>
       <c r="G81">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H81">
-        <v>89.16</v>
+        <v>90.28</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -760,13 +760,13 @@
         <v>0.001</v>
       </c>
       <c r="G4">
-        <v>-0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>576000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>53000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>100300</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -870,19 +870,19 @@
         <v>90</v>
       </c>
       <c r="E8">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
-        <v>0.0017</v>
+        <v>0.0009</v>
       </c>
       <c r="G8">
-        <v>-0.58</v>
+        <v>-0.59</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -905,13 +905,13 @@
         <v>0.0008</v>
       </c>
       <c r="G9">
-        <v>-0.5600000000000001</v>
+        <v>-0.57</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -957,10 +957,10 @@
         <v>90</v>
       </c>
       <c r="E11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <v>0.0015</v>
+        <v>0.0008</v>
       </c>
       <c r="G11">
         <v>-0.53</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>128400</v>
+        <v>33700</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1021,13 +1021,13 @@
         <v>0.0007</v>
       </c>
       <c r="G13">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1050,13 +1050,13 @@
         <v>0.0014</v>
       </c>
       <c r="G14">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>79200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>75600</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1102,10 +1102,10 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
-        <v>0.0013</v>
+        <v>0.002</v>
       </c>
       <c r="G16">
         <v>-0.45</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20800</v>
+        <v>125100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1131,10 +1131,10 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>0.0013</v>
+        <v>0.0019</v>
       </c>
       <c r="G17">
         <v>-0.44</v>
@@ -1169,10 +1169,10 @@
         <v>-0.43</v>
       </c>
       <c r="H18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1198,10 +1198,10 @@
         <v>-0.42</v>
       </c>
       <c r="H19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>25800</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1218,19 +1218,19 @@
         <v>90</v>
       </c>
       <c r="E20">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F20">
-        <v>0.0037</v>
+        <v>0.0018</v>
       </c>
       <c r="G20">
         <v>-0.41</v>
       </c>
       <c r="H20">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1253,13 +1253,13 @@
         <v>0.0018</v>
       </c>
       <c r="G21">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="H21">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I21">
-        <v>140000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1282,13 +1282,13 @@
         <v>0.0018</v>
       </c>
       <c r="G22">
-        <v>-0.39</v>
+        <v>-0.4</v>
       </c>
       <c r="H22">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I22">
-        <v>20400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1305,19 +1305,19 @@
         <v>90</v>
       </c>
       <c r="E23">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F23">
-        <v>0.0024</v>
+        <v>0.0018</v>
       </c>
       <c r="G23">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="H23">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I23">
-        <v>76700</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1334,19 +1334,19 @@
         <v>90</v>
       </c>
       <c r="E24">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F24">
-        <v>0.0035</v>
+        <v>0.0017</v>
       </c>
       <c r="G24">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="H24">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I24">
-        <v>3000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1363,19 +1363,19 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F25">
-        <v>0.0023</v>
+        <v>0.0017</v>
       </c>
       <c r="G25">
         <v>-0.37</v>
       </c>
       <c r="H25">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I25">
-        <v>92400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1392,19 +1392,19 @@
         <v>90</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F26">
-        <v>0.0028</v>
+        <v>0.0022</v>
       </c>
       <c r="G26">
         <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I26">
-        <v>117000</v>
+        <v>20100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1430,10 +1430,10 @@
         <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="I27">
-        <v>80300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1450,19 +1450,19 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F28">
-        <v>0.0027</v>
+        <v>0.0016</v>
       </c>
       <c r="G28">
         <v>-0.33</v>
       </c>
       <c r="H28">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I28">
-        <v>35000</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1479,19 +1479,19 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F29">
-        <v>0.0037</v>
+        <v>0.0027</v>
       </c>
       <c r="G29">
         <v>-0.32</v>
       </c>
       <c r="H29">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="I29">
-        <v>80400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1508,19 +1508,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F30">
-        <v>0.0026</v>
+        <v>0.0032</v>
       </c>
       <c r="G30">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="H30">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="I30">
-        <v>58900</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1543,13 +1543,13 @@
         <v>0.0031</v>
       </c>
       <c r="G31">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="H31">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
       <c r="I31">
-        <v>50100</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1566,19 +1566,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F32">
-        <v>0.0031</v>
+        <v>0.0036</v>
       </c>
       <c r="G32">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="H32">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="I32">
-        <v>4200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1595,19 +1595,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F33">
-        <v>0.0041</v>
+        <v>0.003</v>
       </c>
       <c r="G33">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="H33">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="I33">
-        <v>30000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1624,19 +1624,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F34">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="G34">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="H34">
-        <v>1.56</v>
+        <v>1.08</v>
       </c>
       <c r="I34">
-        <v>303500</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1653,19 +1653,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F35">
-        <v>0.0044</v>
+        <v>0.004</v>
       </c>
       <c r="G35">
         <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="I35">
-        <v>900</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1682,19 +1682,19 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F36">
-        <v>0.0049</v>
+        <v>0.0034</v>
       </c>
       <c r="G36">
         <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>2.36</v>
+        <v>1.7</v>
       </c>
       <c r="I36">
-        <v>3000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1711,19 +1711,19 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F37">
-        <v>0.0048</v>
+        <v>0.0039</v>
       </c>
       <c r="G37">
         <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>2.87</v>
+        <v>2.11</v>
       </c>
       <c r="I37">
-        <v>2600</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1740,19 +1740,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F38">
-        <v>0.0048</v>
+        <v>0.0043</v>
       </c>
       <c r="G38">
         <v>-0.24</v>
       </c>
       <c r="H38">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="I38">
-        <v>259900</v>
+        <v>221000</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1769,19 +1769,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F39">
-        <v>0.0047</v>
+        <v>0.0042</v>
       </c>
       <c r="G39">
         <v>-0.23</v>
       </c>
       <c r="H39">
-        <v>4.12</v>
+        <v>3.14</v>
       </c>
       <c r="I39">
-        <v>67800</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1798,19 +1798,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F40">
-        <v>0.0051</v>
+        <v>0.0047</v>
       </c>
       <c r="G40">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H40">
-        <v>4.89</v>
+        <v>3.78</v>
       </c>
       <c r="I40">
-        <v>13000</v>
+        <v>156300</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1827,19 +1827,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F41">
-        <v>0.0064</v>
+        <v>0.0055</v>
       </c>
       <c r="G41">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="H41">
-        <v>5.75</v>
+        <v>4.51</v>
       </c>
       <c r="I41">
-        <v>16200</v>
+        <v>41600</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1856,19 +1856,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F42">
-        <v>0.0068</v>
+        <v>0.0059</v>
       </c>
       <c r="G42">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="H42">
-        <v>6.71</v>
+        <v>5.35</v>
       </c>
       <c r="I42">
-        <v>342400</v>
+        <v>846600</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1885,19 +1885,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F43">
-        <v>0.0067</v>
+        <v>0.0063</v>
       </c>
       <c r="G43">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="H43">
-        <v>7.79</v>
+        <v>6.29</v>
       </c>
       <c r="I43">
-        <v>29200</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1914,19 +1914,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F44">
-        <v>0.0071</v>
+        <v>0.0062</v>
       </c>
       <c r="G44">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H44">
-        <v>8.970000000000001</v>
+        <v>7.35</v>
       </c>
       <c r="I44">
-        <v>108300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1943,19 +1943,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F45">
-        <v>0.008399999999999999</v>
+        <v>0.0075</v>
       </c>
       <c r="G45">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="H45">
-        <v>10.27</v>
+        <v>8.52</v>
       </c>
       <c r="I45">
-        <v>57100</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1972,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F46">
-        <v>0.008699999999999999</v>
+        <v>0.0078</v>
       </c>
       <c r="G46">
         <v>-0.17</v>
       </c>
       <c r="H46">
-        <v>11.68</v>
+        <v>9.81</v>
       </c>
       <c r="I46">
-        <v>356900</v>
+        <v>947100</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="F47">
-        <v>0.009900000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="G47">
         <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>13.21</v>
+        <v>11.22</v>
       </c>
       <c r="I47">
-        <v>245800</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,19 +2030,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F48">
-        <v>0.0106</v>
+        <v>0.0098</v>
       </c>
       <c r="G48">
         <v>-0.15</v>
       </c>
       <c r="H48">
-        <v>14.85</v>
+        <v>12.75</v>
       </c>
       <c r="I48">
-        <v>113400</v>
+        <v>94400</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,19 +2059,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="F49">
-        <v>0.0118</v>
+        <v>0.0105</v>
       </c>
       <c r="G49">
         <v>-0.14</v>
       </c>
       <c r="H49">
-        <v>16.6</v>
+        <v>14.41</v>
       </c>
       <c r="I49">
-        <v>145900</v>
+        <v>103900</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="F50">
-        <v>0.0146</v>
+        <v>0.0121</v>
       </c>
       <c r="G50">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="H50">
-        <v>18.47</v>
+        <v>16.18</v>
       </c>
       <c r="I50">
-        <v>314100</v>
+        <v>428200</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2117,19 +2117,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="F51">
-        <v>0.014</v>
+        <v>0.0128</v>
       </c>
       <c r="G51">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="H51">
-        <v>20.43</v>
+        <v>18.07</v>
       </c>
       <c r="I51">
-        <v>382200</v>
+        <v>200400</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="F52">
-        <v>0.017</v>
+        <v>0.0154</v>
       </c>
       <c r="G52">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="H52">
-        <v>24.65</v>
+        <v>22.19</v>
       </c>
       <c r="I52">
-        <v>288200</v>
+        <v>173400</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="F53">
-        <v>0.0188</v>
+        <v>0.0176</v>
       </c>
       <c r="G53">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H53">
-        <v>26.88</v>
+        <v>24.39</v>
       </c>
       <c r="I53">
-        <v>1541800</v>
+        <v>435900</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2210,13 +2210,13 @@
         <v>0.0194</v>
       </c>
       <c r="G54">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="H54">
-        <v>29.19</v>
+        <v>26.69</v>
       </c>
       <c r="I54">
-        <v>209500</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="F55">
-        <v>0.0235</v>
+        <v>0.0212</v>
       </c>
       <c r="G55">
         <v>-0.08</v>
       </c>
       <c r="H55">
-        <v>31.57</v>
+        <v>29.06</v>
       </c>
       <c r="I55">
-        <v>73100</v>
+        <v>117200</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,7 +2268,7 @@
         <v>-0.08</v>
       </c>
       <c r="H56">
-        <v>31.57</v>
+        <v>29.06</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2288,19 +2288,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F57">
-        <v>0.0252</v>
+        <v>0.0233</v>
       </c>
       <c r="G57">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>31.51</v>
       </c>
       <c r="I57">
-        <v>88300</v>
+        <v>94800</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F58">
-        <v>0.0288</v>
+        <v>0.0258</v>
       </c>
       <c r="G58">
         <v>-0.06</v>
       </c>
       <c r="H58">
-        <v>36.47</v>
+        <v>34.02</v>
       </c>
       <c r="I58">
-        <v>855800</v>
+        <v>764000</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2346,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="F59">
-        <v>0.0297</v>
+        <v>0.029</v>
       </c>
       <c r="G59">
         <v>-0.05</v>
       </c>
       <c r="H59">
-        <v>38.97</v>
+        <v>36.57</v>
       </c>
       <c r="I59">
-        <v>160100</v>
+        <v>63700</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2375,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F60">
-        <v>0.0355</v>
+        <v>0.0328</v>
       </c>
       <c r="G60">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="H60">
-        <v>41.5</v>
+        <v>39.16</v>
       </c>
       <c r="I60">
-        <v>70300</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2404,19 +2404,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="F61">
-        <v>0.0381</v>
+        <v>0.0348</v>
       </c>
       <c r="G61">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H61">
-        <v>44.04</v>
+        <v>41.77</v>
       </c>
       <c r="I61">
-        <v>254800</v>
+        <v>131000</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2433,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="F62">
-        <v>0.0419</v>
+        <v>0.0374</v>
       </c>
       <c r="G62">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H62">
-        <v>46.58</v>
+        <v>44.4</v>
       </c>
       <c r="I62">
-        <v>883100</v>
+        <v>616800</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="F63">
-        <v>0.048</v>
+        <v>0.0455</v>
       </c>
       <c r="G63">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="H63">
-        <v>51.62</v>
+        <v>49.63</v>
       </c>
       <c r="I63">
-        <v>575400</v>
+        <v>365500</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,10 +2494,10 @@
         <v>91</v>
       </c>
       <c r="G64">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="H64">
-        <v>51.62</v>
+        <v>49.63</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2517,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="F65">
-        <v>0.053</v>
+        <v>0.0486</v>
       </c>
       <c r="G65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>54.1</v>
+        <v>52.23</v>
       </c>
       <c r="I65">
-        <v>47800</v>
+        <v>66200</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="F66">
-        <v>0.0568</v>
+        <v>0.0532</v>
       </c>
       <c r="G66">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H66">
-        <v>56.55</v>
+        <v>54.79</v>
       </c>
       <c r="I66">
-        <v>1050500</v>
+        <v>728600</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="F67">
-        <v>0.0649</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="G67">
         <v>0.03</v>
       </c>
       <c r="H67">
-        <v>61.29</v>
+        <v>59.77</v>
       </c>
       <c r="I67">
-        <v>125300</v>
+        <v>56400</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2610,7 +2610,7 @@
         <v>0.03</v>
       </c>
       <c r="H68">
-        <v>61.29</v>
+        <v>59.77</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2630,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="F69">
-        <v>0.073</v>
+        <v>0.0675</v>
       </c>
       <c r="G69">
         <v>0.04</v>
       </c>
       <c r="H69">
-        <v>63.57</v>
+        <v>62.18</v>
       </c>
       <c r="I69">
-        <v>1000</v>
+        <v>90700</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2659,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="F70">
-        <v>0.0762</v>
+        <v>0.0728</v>
       </c>
       <c r="G70">
         <v>0.05</v>
       </c>
       <c r="H70">
-        <v>65.79000000000001</v>
+        <v>64.52</v>
       </c>
       <c r="I70">
-        <v>1376400</v>
+        <v>695600</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2688,19 +2688,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="F71">
-        <v>0.08309999999999999</v>
+        <v>0.0834</v>
       </c>
       <c r="G71">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H71">
-        <v>70.01000000000001</v>
+        <v>68.97</v>
       </c>
       <c r="I71">
-        <v>12100</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2717,19 +2717,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="F72">
-        <v>0.097</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="G72">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H72">
-        <v>73.91</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I72">
-        <v>854600</v>
+        <v>425000</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2746,19 +2746,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>3.31</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>0.1085</v>
+        <v>0.0984</v>
       </c>
       <c r="G73">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H73">
-        <v>77.47</v>
+        <v>76.87</v>
       </c>
       <c r="I73">
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2778,10 +2778,10 @@
         <v>91</v>
       </c>
       <c r="G74">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H74">
-        <v>77.47</v>
+        <v>76.87</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2801,19 +2801,19 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>3.55</v>
+        <v>3.02</v>
       </c>
       <c r="F75">
-        <v>0.1154</v>
+        <v>0.0982</v>
       </c>
       <c r="G75">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H75">
-        <v>79.12</v>
+        <v>78.62</v>
       </c>
       <c r="I75">
-        <v>2000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2830,19 +2830,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>3.82</v>
+        <v>3.63</v>
       </c>
       <c r="F76">
-        <v>0.1232</v>
+        <v>0.1171</v>
       </c>
       <c r="G76">
         <v>0.12</v>
       </c>
       <c r="H76">
-        <v>80.69</v>
+        <v>80.27</v>
       </c>
       <c r="I76">
-        <v>26000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2859,19 +2859,19 @@
         <v>90</v>
       </c>
       <c r="E77">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="F77">
-        <v>0.1317</v>
+        <v>0.1286</v>
       </c>
       <c r="G77">
         <v>0.14</v>
       </c>
       <c r="H77">
-        <v>83.56999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="I77">
-        <v>17000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2888,19 +2888,19 @@
         <v>90</v>
       </c>
       <c r="E78">
-        <v>4.55</v>
+        <v>3.8</v>
       </c>
       <c r="F78">
-        <v>0.1433</v>
+        <v>0.1197</v>
       </c>
       <c r="G78">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H78">
-        <v>84.88</v>
+        <v>84.69</v>
       </c>
       <c r="I78">
-        <v>24000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2917,19 +2917,19 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>4.86</v>
+        <v>4.46</v>
       </c>
       <c r="F79">
-        <v>0.1519</v>
+        <v>0.1394</v>
       </c>
       <c r="G79">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="H79">
-        <v>86.11</v>
+        <v>85.98</v>
       </c>
       <c r="I79">
-        <v>6500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2949,10 +2949,10 @@
         <v>91</v>
       </c>
       <c r="G80">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H80">
-        <v>88.34</v>
+        <v>88.31</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2978,10 +2978,10 @@
         <v>0.1885</v>
       </c>
       <c r="G81">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H81">
-        <v>90.28</v>
+        <v>90.33</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -731,7 +731,7 @@
         <v>0.001</v>
       </c>
       <c r="G3">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0.0009</v>
       </c>
       <c r="G7">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16800</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -992,7 +992,7 @@
         <v>0.0015</v>
       </c>
       <c r="G12">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F13">
-        <v>0.0007</v>
+        <v>0.0014</v>
       </c>
       <c r="G13">
         <v>-0.5</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38600</v>
+        <v>85800</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1166,7 +1166,7 @@
         <v>0.0013</v>
       </c>
       <c r="G18">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0.0019</v>
       </c>
       <c r="G19">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0.0018</v>
       </c>
       <c r="G20">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="H20">
         <v>0.01</v>
@@ -1314,10 +1314,10 @@
         <v>-0.39</v>
       </c>
       <c r="H23">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I23">
-        <v>20400</v>
+        <v>29200</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1343,7 +1343,7 @@
         <v>-0.38</v>
       </c>
       <c r="H24">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I24">
         <v>2600</v>
@@ -1372,7 +1372,7 @@
         <v>-0.37</v>
       </c>
       <c r="H25">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I25">
         <v>100</v>
@@ -1398,13 +1398,13 @@
         <v>0.0022</v>
       </c>
       <c r="G26">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="H26">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I26">
-        <v>20100</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1427,10 +1427,10 @@
         <v>0.0027</v>
       </c>
       <c r="G27">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="H27">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1456,10 +1456,10 @@
         <v>0.0016</v>
       </c>
       <c r="G28">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="H28">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I28">
         <v>1400</v>
@@ -1485,10 +1485,10 @@
         <v>0.0027</v>
       </c>
       <c r="G29">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H29">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I29">
         <v>5000</v>
@@ -1517,7 +1517,7 @@
         <v>-0.32</v>
       </c>
       <c r="H30">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I30">
         <v>65400</v>
@@ -1546,10 +1546,10 @@
         <v>-0.31</v>
       </c>
       <c r="H31">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="I31">
-        <v>40000</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1575,7 +1575,7 @@
         <v>-0.3</v>
       </c>
       <c r="H32">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="I32">
         <v>2000</v>
@@ -1604,7 +1604,7 @@
         <v>-0.29</v>
       </c>
       <c r="H33">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="I33">
         <v>1500</v>
@@ -1624,19 +1624,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F34">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="G34">
         <v>-0.28</v>
       </c>
       <c r="H34">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="I34">
-        <v>84100</v>
+        <v>101700</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1662,7 +1662,7 @@
         <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="I35">
         <v>6600</v>
@@ -1688,10 +1688,10 @@
         <v>0.0034</v>
       </c>
       <c r="G36">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="H36">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="I36">
         <v>10000</v>
@@ -1717,10 +1717,10 @@
         <v>0.0039</v>
       </c>
       <c r="G37">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H37">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="I37">
         <v>8600</v>
@@ -1746,13 +1746,13 @@
         <v>0.0043</v>
       </c>
       <c r="G38">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H38">
-        <v>2.58</v>
+        <v>2.33</v>
       </c>
       <c r="I38">
-        <v>221000</v>
+        <v>222100</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1775,10 +1775,10 @@
         <v>0.0042</v>
       </c>
       <c r="G39">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="H39">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="I39">
         <v>44600</v>
@@ -1807,10 +1807,10 @@
         <v>-0.23</v>
       </c>
       <c r="H40">
-        <v>3.78</v>
+        <v>3.43</v>
       </c>
       <c r="I40">
-        <v>156300</v>
+        <v>158800</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1836,7 +1836,7 @@
         <v>-0.22</v>
       </c>
       <c r="H41">
-        <v>4.51</v>
+        <v>4.11</v>
       </c>
       <c r="I41">
         <v>41600</v>
@@ -1856,19 +1856,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F42">
-        <v>0.0059</v>
+        <v>0.0055</v>
       </c>
       <c r="G42">
         <v>-0.21</v>
       </c>
       <c r="H42">
-        <v>5.35</v>
+        <v>4.89</v>
       </c>
       <c r="I42">
-        <v>846600</v>
+        <v>858100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1894,10 +1894,10 @@
         <v>-0.2</v>
       </c>
       <c r="H43">
-        <v>6.29</v>
+        <v>5.77</v>
       </c>
       <c r="I43">
-        <v>8200</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1914,19 +1914,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F44">
-        <v>0.0062</v>
+        <v>0.0067</v>
       </c>
       <c r="G44">
         <v>-0.19</v>
       </c>
       <c r="H44">
-        <v>7.35</v>
+        <v>6.75</v>
       </c>
       <c r="I44">
-        <v>400</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1949,10 +1949,10 @@
         <v>0.0075</v>
       </c>
       <c r="G45">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H45">
-        <v>8.52</v>
+        <v>7.85</v>
       </c>
       <c r="I45">
         <v>22000</v>
@@ -1972,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F46">
-        <v>0.0078</v>
+        <v>0.0074</v>
       </c>
       <c r="G46">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="H46">
-        <v>9.81</v>
+        <v>9.07</v>
       </c>
       <c r="I46">
-        <v>947100</v>
+        <v>976700</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F47">
-        <v>0.008200000000000001</v>
+        <v>0.0086</v>
       </c>
       <c r="G47">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="H47">
-        <v>11.22</v>
+        <v>10.4</v>
       </c>
       <c r="I47">
-        <v>51100</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,19 +2030,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F48">
-        <v>0.0098</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="G48">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H48">
-        <v>12.75</v>
+        <v>11.86</v>
       </c>
       <c r="I48">
-        <v>94400</v>
+        <v>99400</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,19 +2059,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F49">
-        <v>0.0105</v>
+        <v>0.0101</v>
       </c>
       <c r="G49">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="H49">
-        <v>14.41</v>
+        <v>13.44</v>
       </c>
       <c r="I49">
-        <v>103900</v>
+        <v>113900</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="F50">
-        <v>0.0121</v>
+        <v>0.0108</v>
       </c>
       <c r="G50">
         <v>-0.14</v>
       </c>
       <c r="H50">
-        <v>16.18</v>
+        <v>15.13</v>
       </c>
       <c r="I50">
-        <v>428200</v>
+        <v>493600</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2117,19 +2117,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F51">
-        <v>0.0128</v>
+        <v>0.0124</v>
       </c>
       <c r="G51">
         <v>-0.13</v>
       </c>
       <c r="H51">
-        <v>18.07</v>
+        <v>16.94</v>
       </c>
       <c r="I51">
-        <v>200400</v>
+        <v>220400</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="F52">
-        <v>0.0154</v>
+        <v>0.0145</v>
       </c>
       <c r="G52">
         <v>-0.11</v>
       </c>
       <c r="H52">
-        <v>22.19</v>
+        <v>20.9</v>
       </c>
       <c r="I52">
-        <v>173400</v>
+        <v>188400</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="F53">
-        <v>0.0176</v>
+        <v>0.016</v>
       </c>
       <c r="G53">
         <v>-0.1</v>
       </c>
       <c r="H53">
-        <v>24.39</v>
+        <v>23.04</v>
       </c>
       <c r="I53">
-        <v>435900</v>
+        <v>479800</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="F54">
-        <v>0.0194</v>
+        <v>0.0178</v>
       </c>
       <c r="G54">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H54">
-        <v>26.69</v>
+        <v>25.27</v>
       </c>
       <c r="I54">
-        <v>84100</v>
+        <v>105600</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="F55">
-        <v>0.0212</v>
+        <v>0.0196</v>
       </c>
       <c r="G55">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="H55">
-        <v>29.06</v>
+        <v>27.58</v>
       </c>
       <c r="I55">
-        <v>117200</v>
+        <v>124300</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2265,10 +2265,10 @@
         <v>91</v>
       </c>
       <c r="G56">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="H56">
-        <v>29.06</v>
+        <v>27.58</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2294,13 +2294,13 @@
         <v>0.0233</v>
       </c>
       <c r="G57">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="H57">
-        <v>31.51</v>
+        <v>29.97</v>
       </c>
       <c r="I57">
-        <v>94800</v>
+        <v>105600</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="F58">
-        <v>0.0258</v>
+        <v>0.0242</v>
       </c>
       <c r="G58">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>34.02</v>
+        <v>32.42</v>
       </c>
       <c r="I58">
-        <v>764000</v>
+        <v>1072400</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2346,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="F59">
-        <v>0.029</v>
+        <v>0.0267</v>
       </c>
       <c r="G59">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="H59">
-        <v>36.57</v>
+        <v>34.93</v>
       </c>
       <c r="I59">
-        <v>63700</v>
+        <v>64900</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2375,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="F60">
-        <v>0.0328</v>
+        <v>0.0294</v>
       </c>
       <c r="G60">
         <v>-0.05</v>
       </c>
       <c r="H60">
-        <v>39.16</v>
+        <v>37.48</v>
       </c>
       <c r="I60">
-        <v>124000</v>
+        <v>127300</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2404,19 +2404,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F61">
-        <v>0.0348</v>
+        <v>0.0333</v>
       </c>
       <c r="G61">
         <v>-0.04</v>
       </c>
       <c r="H61">
-        <v>41.77</v>
+        <v>40.07</v>
       </c>
       <c r="I61">
-        <v>131000</v>
+        <v>153400</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2433,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="F62">
-        <v>0.0374</v>
+        <v>0.0352</v>
       </c>
       <c r="G62">
         <v>-0.03</v>
       </c>
       <c r="H62">
-        <v>44.4</v>
+        <v>42.67</v>
       </c>
       <c r="I62">
-        <v>616800</v>
+        <v>786200</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="F63">
-        <v>0.0455</v>
+        <v>0.0425</v>
       </c>
       <c r="G63">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H63">
-        <v>49.63</v>
+        <v>47.89</v>
       </c>
       <c r="I63">
-        <v>365500</v>
+        <v>383000</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,10 +2494,10 @@
         <v>91</v>
       </c>
       <c r="G64">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H64">
-        <v>49.63</v>
+        <v>47.89</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2517,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="F65">
-        <v>0.0486</v>
+        <v>0.049</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H65">
-        <v>52.23</v>
+        <v>50.48</v>
       </c>
       <c r="I65">
-        <v>66200</v>
+        <v>66600</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="F66">
-        <v>0.0532</v>
+        <v>0.05</v>
       </c>
       <c r="G66">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>54.79</v>
+        <v>53.04</v>
       </c>
       <c r="I66">
-        <v>728600</v>
+        <v>802300</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="F67">
-        <v>0.06279999999999999</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="G67">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H67">
-        <v>59.77</v>
+        <v>58.06</v>
       </c>
       <c r="I67">
-        <v>56400</v>
+        <v>58400</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2607,10 +2607,10 @@
         <v>91</v>
       </c>
       <c r="G68">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H68">
-        <v>59.77</v>
+        <v>58.06</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2636,10 +2636,10 @@
         <v>0.0675</v>
       </c>
       <c r="G69">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H69">
-        <v>62.18</v>
+        <v>60.5</v>
       </c>
       <c r="I69">
         <v>90700</v>
@@ -2659,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="F70">
-        <v>0.0728</v>
+        <v>0.0679</v>
       </c>
       <c r="G70">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H70">
-        <v>64.52</v>
+        <v>62.87</v>
       </c>
       <c r="I70">
-        <v>695600</v>
+        <v>729500</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2697,7 +2697,7 @@
         <v>0.06</v>
       </c>
       <c r="H71">
-        <v>68.97</v>
+        <v>67.41</v>
       </c>
       <c r="I71">
         <v>5900</v>
@@ -2717,19 +2717,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="F72">
-        <v>0.09669999999999999</v>
+        <v>0.0887</v>
       </c>
       <c r="G72">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H72">
-        <v>73.09999999999999</v>
+        <v>71.63</v>
       </c>
       <c r="I72">
-        <v>425000</v>
+        <v>501900</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2752,10 +2752,10 @@
         <v>0.0984</v>
       </c>
       <c r="G73">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H73">
-        <v>76.87</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="I73">
         <v>2400</v>
@@ -2778,10 +2778,10 @@
         <v>91</v>
       </c>
       <c r="G74">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H74">
-        <v>76.87</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2807,10 +2807,10 @@
         <v>0.0982</v>
       </c>
       <c r="G75">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H75">
-        <v>78.62</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="I75">
         <v>2200</v>
@@ -2830,19 +2830,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>3.63</v>
+        <v>3.46</v>
       </c>
       <c r="F76">
-        <v>0.1171</v>
+        <v>0.1116</v>
       </c>
       <c r="G76">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H76">
-        <v>80.27</v>
+        <v>79.03</v>
       </c>
       <c r="I76">
-        <v>11000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2865,10 +2865,10 @@
         <v>0.1286</v>
       </c>
       <c r="G77">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H77">
-        <v>83.3</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="I77">
         <v>4000</v>
@@ -2897,7 +2897,7 @@
         <v>0.14</v>
       </c>
       <c r="H78">
-        <v>84.69</v>
+        <v>83.63</v>
       </c>
       <c r="I78">
         <v>5000</v>
@@ -2926,7 +2926,7 @@
         <v>0.15</v>
       </c>
       <c r="H79">
-        <v>85.98</v>
+        <v>84.98</v>
       </c>
       <c r="I79">
         <v>7000</v>
@@ -2949,10 +2949,10 @@
         <v>91</v>
       </c>
       <c r="G80">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H80">
-        <v>88.31</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2978,10 +2978,10 @@
         <v>0.1885</v>
       </c>
       <c r="G81">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H81">
-        <v>90.33</v>
+        <v>89.55</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -731,7 +731,7 @@
         <v>0.001</v>
       </c>
       <c r="G3">
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0.0009</v>
       </c>
       <c r="G7">
-        <v>-0.61</v>
+        <v>-0.6</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>140000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -992,13 +992,13 @@
         <v>0.0015</v>
       </c>
       <c r="G12">
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33700</v>
+        <v>38700</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>85800</v>
+        <v>143300</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1160,19 +1160,19 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F18">
-        <v>0.0013</v>
+        <v>0.0019</v>
       </c>
       <c r="G18">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1195,7 +1195,7 @@
         <v>0.0019</v>
       </c>
       <c r="G19">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0.38</v>
       </c>
       <c r="H24">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I24">
         <v>2600</v>
@@ -1398,13 +1398,13 @@
         <v>0.0022</v>
       </c>
       <c r="G26">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I26">
-        <v>25100</v>
+        <v>25300</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1421,19 +1421,19 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F27">
-        <v>0.0027</v>
+        <v>0.0022</v>
       </c>
       <c r="G27">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1459,7 +1459,7 @@
         <v>-0.34</v>
       </c>
       <c r="H28">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I28">
         <v>1400</v>
@@ -1488,7 +1488,7 @@
         <v>-0.33</v>
       </c>
       <c r="H29">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I29">
         <v>5000</v>
@@ -1517,10 +1517,10 @@
         <v>-0.32</v>
       </c>
       <c r="H30">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="I30">
-        <v>65400</v>
+        <v>66400</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1546,7 +1546,7 @@
         <v>-0.31</v>
       </c>
       <c r="H31">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I31">
         <v>40300</v>
@@ -1575,7 +1575,7 @@
         <v>-0.3</v>
       </c>
       <c r="H32">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="I32">
         <v>2000</v>
@@ -1595,19 +1595,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F33">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
       <c r="G33">
         <v>-0.29</v>
       </c>
       <c r="H33">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I33">
-        <v>1500</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1624,19 +1624,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F34">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
       <c r="G34">
         <v>-0.28</v>
       </c>
       <c r="H34">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="I34">
-        <v>101700</v>
+        <v>113700</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1662,7 +1662,7 @@
         <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="I35">
         <v>6600</v>
@@ -1688,10 +1688,10 @@
         <v>0.0034</v>
       </c>
       <c r="G36">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="I36">
         <v>10000</v>
@@ -1711,19 +1711,19 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F37">
-        <v>0.0039</v>
+        <v>0.0043</v>
       </c>
       <c r="G37">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="I37">
-        <v>8600</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1749,10 +1749,10 @@
         <v>-0.25</v>
       </c>
       <c r="H38">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="I38">
-        <v>222100</v>
+        <v>242500</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1769,19 +1769,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F39">
-        <v>0.0042</v>
+        <v>0.0047</v>
       </c>
       <c r="G39">
         <v>-0.24</v>
       </c>
       <c r="H39">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="I39">
-        <v>44600</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1807,10 +1807,10 @@
         <v>-0.23</v>
       </c>
       <c r="H40">
-        <v>3.43</v>
+        <v>3.63</v>
       </c>
       <c r="I40">
-        <v>158800</v>
+        <v>159900</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1836,7 +1836,7 @@
         <v>-0.22</v>
       </c>
       <c r="H41">
-        <v>4.11</v>
+        <v>4.34</v>
       </c>
       <c r="I41">
         <v>41600</v>
@@ -1865,7 +1865,7 @@
         <v>-0.21</v>
       </c>
       <c r="H42">
-        <v>4.89</v>
+        <v>5.15</v>
       </c>
       <c r="I42">
         <v>858100</v>
@@ -1894,7 +1894,7 @@
         <v>-0.2</v>
       </c>
       <c r="H43">
-        <v>5.77</v>
+        <v>6.07</v>
       </c>
       <c r="I43">
         <v>8400</v>
@@ -1923,7 +1923,7 @@
         <v>-0.19</v>
       </c>
       <c r="H44">
-        <v>6.75</v>
+        <v>7.1</v>
       </c>
       <c r="I44">
         <v>1400</v>
@@ -1949,13 +1949,13 @@
         <v>0.0075</v>
       </c>
       <c r="G45">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="H45">
-        <v>7.85</v>
+        <v>8.24</v>
       </c>
       <c r="I45">
-        <v>22000</v>
+        <v>24700</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1978,13 +1978,13 @@
         <v>0.0074</v>
       </c>
       <c r="G46">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="H46">
-        <v>9.07</v>
+        <v>9.5</v>
       </c>
       <c r="I46">
-        <v>976700</v>
+        <v>981700</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2007,13 +2007,13 @@
         <v>0.0086</v>
       </c>
       <c r="G47">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>10.4</v>
+        <v>10.88</v>
       </c>
       <c r="I47">
-        <v>91000</v>
+        <v>139600</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,19 +2030,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F48">
-        <v>0.008500000000000001</v>
+        <v>0.0089</v>
       </c>
       <c r="G48">
         <v>-0.16</v>
       </c>
       <c r="H48">
-        <v>11.86</v>
+        <v>12.38</v>
       </c>
       <c r="I48">
-        <v>99400</v>
+        <v>100600</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2068,7 +2068,7 @@
         <v>-0.15</v>
       </c>
       <c r="H49">
-        <v>13.44</v>
+        <v>14</v>
       </c>
       <c r="I49">
         <v>113900</v>
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F50">
-        <v>0.0108</v>
+        <v>0.0113</v>
       </c>
       <c r="G50">
         <v>-0.14</v>
       </c>
       <c r="H50">
-        <v>15.13</v>
+        <v>15.74</v>
       </c>
       <c r="I50">
-        <v>493600</v>
+        <v>551500</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2126,7 +2126,7 @@
         <v>-0.13</v>
       </c>
       <c r="H51">
-        <v>16.94</v>
+        <v>17.6</v>
       </c>
       <c r="I51">
         <v>220400</v>
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="F52">
-        <v>0.0145</v>
+        <v>0.0154</v>
       </c>
       <c r="G52">
         <v>-0.11</v>
       </c>
       <c r="H52">
-        <v>20.9</v>
+        <v>21.65</v>
       </c>
       <c r="I52">
-        <v>188400</v>
+        <v>280400</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F53">
-        <v>0.016</v>
+        <v>0.0168</v>
       </c>
       <c r="G53">
         <v>-0.1</v>
       </c>
       <c r="H53">
-        <v>23.04</v>
+        <v>23.83</v>
       </c>
       <c r="I53">
-        <v>479800</v>
+        <v>504600</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="F54">
-        <v>0.0178</v>
+        <v>0.0186</v>
       </c>
       <c r="G54">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="H54">
-        <v>25.27</v>
+        <v>26.1</v>
       </c>
       <c r="I54">
-        <v>105600</v>
+        <v>106600</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F55">
-        <v>0.0196</v>
+        <v>0.02</v>
       </c>
       <c r="G55">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="H55">
-        <v>27.58</v>
+        <v>28.45</v>
       </c>
       <c r="I55">
-        <v>124300</v>
+        <v>131500</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2265,10 +2265,10 @@
         <v>91</v>
       </c>
       <c r="G56">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="H56">
-        <v>27.58</v>
+        <v>28.45</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2288,19 +2288,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="F57">
-        <v>0.0233</v>
+        <v>0.0225</v>
       </c>
       <c r="G57">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H57">
-        <v>29.97</v>
+        <v>30.87</v>
       </c>
       <c r="I57">
-        <v>105600</v>
+        <v>107100</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="F58">
-        <v>0.0242</v>
+        <v>0.025</v>
       </c>
       <c r="G58">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>32.42</v>
+        <v>33.35</v>
       </c>
       <c r="I58">
-        <v>1072400</v>
+        <v>1131200</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2355,10 +2355,10 @@
         <v>-0.06</v>
       </c>
       <c r="H59">
-        <v>34.93</v>
+        <v>35.89</v>
       </c>
       <c r="I59">
-        <v>64900</v>
+        <v>66100</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2375,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F60">
-        <v>0.0294</v>
+        <v>0.0306</v>
       </c>
       <c r="G60">
         <v>-0.05</v>
       </c>
       <c r="H60">
-        <v>37.48</v>
+        <v>38.46</v>
       </c>
       <c r="I60">
-        <v>127300</v>
+        <v>130900</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2413,10 +2413,10 @@
         <v>-0.04</v>
       </c>
       <c r="H61">
-        <v>40.07</v>
+        <v>41.07</v>
       </c>
       <c r="I61">
-        <v>153400</v>
+        <v>263400</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2432,20 +2432,17 @@
       <c r="D62" t="s">
         <v>90</v>
       </c>
-      <c r="E62">
-        <v>0.95</v>
-      </c>
       <c r="F62">
-        <v>0.0352</v>
+        <v>0.037</v>
       </c>
       <c r="G62">
         <v>-0.03</v>
       </c>
       <c r="H62">
-        <v>42.67</v>
+        <v>43.68</v>
       </c>
       <c r="I62">
-        <v>786200</v>
+        <v>874900</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2459,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="F63">
-        <v>0.0425</v>
+        <v>0.0444</v>
       </c>
       <c r="G63">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H63">
-        <v>47.89</v>
+        <v>48.91</v>
       </c>
       <c r="I63">
-        <v>383000</v>
+        <v>465900</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,10 +2491,10 @@
         <v>91</v>
       </c>
       <c r="G64">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H64">
-        <v>47.89</v>
+        <v>48.91</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2517,19 +2514,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="F65">
-        <v>0.049</v>
+        <v>0.0472</v>
       </c>
       <c r="G65">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="H65">
-        <v>50.48</v>
+        <v>51.51</v>
       </c>
       <c r="I65">
-        <v>66600</v>
+        <v>92200</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2543,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="F66">
-        <v>0.05</v>
+        <v>0.0521</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H66">
-        <v>53.04</v>
+        <v>54.07</v>
       </c>
       <c r="I66">
-        <v>802300</v>
+        <v>915500</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2572,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="F67">
-        <v>0.06320000000000001</v>
+        <v>0.0593</v>
       </c>
       <c r="G67">
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>58.06</v>
+        <v>59.07</v>
       </c>
       <c r="I67">
-        <v>58400</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2610,7 +2607,7 @@
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>58.06</v>
+        <v>59.07</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2630,19 +2627,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="F69">
-        <v>0.0675</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="G69">
         <v>0.03</v>
       </c>
       <c r="H69">
-        <v>60.5</v>
+        <v>61.49</v>
       </c>
       <c r="I69">
-        <v>90700</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2659,19 +2656,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="F70">
-        <v>0.0679</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G70">
         <v>0.04</v>
       </c>
       <c r="H70">
-        <v>62.87</v>
+        <v>63.84</v>
       </c>
       <c r="I70">
-        <v>729500</v>
+        <v>739500</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2688,19 +2685,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="F71">
-        <v>0.0834</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="G71">
         <v>0.06</v>
       </c>
       <c r="H71">
-        <v>67.41</v>
+        <v>68.33</v>
       </c>
       <c r="I71">
-        <v>5900</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2717,19 +2714,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="F72">
-        <v>0.0887</v>
+        <v>0.092</v>
       </c>
       <c r="G72">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H72">
-        <v>71.63</v>
+        <v>72.5</v>
       </c>
       <c r="I72">
-        <v>501900</v>
+        <v>572700</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2752,10 +2749,10 @@
         <v>0.0984</v>
       </c>
       <c r="G73">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H73">
-        <v>75.51000000000001</v>
+        <v>76.31</v>
       </c>
       <c r="I73">
         <v>2400</v>
@@ -2778,10 +2775,10 @@
         <v>91</v>
       </c>
       <c r="G74">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H74">
-        <v>75.51000000000001</v>
+        <v>76.31</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2807,10 +2804,10 @@
         <v>0.0982</v>
       </c>
       <c r="G75">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H75">
-        <v>77.31999999999999</v>
+        <v>78.09</v>
       </c>
       <c r="I75">
         <v>2200</v>
@@ -2830,19 +2827,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="F76">
-        <v>0.1116</v>
+        <v>0.1148</v>
       </c>
       <c r="G76">
         <v>0.11</v>
       </c>
       <c r="H76">
-        <v>79.03</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="I76">
-        <v>13000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2868,7 +2865,7 @@
         <v>0.13</v>
       </c>
       <c r="H77">
-        <v>82.18000000000001</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="I77">
         <v>4000</v>
@@ -2897,7 +2894,7 @@
         <v>0.14</v>
       </c>
       <c r="H78">
-        <v>83.63</v>
+        <v>84.25</v>
       </c>
       <c r="I78">
         <v>5000</v>
@@ -2926,7 +2923,7 @@
         <v>0.15</v>
       </c>
       <c r="H79">
-        <v>84.98</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="I79">
         <v>7000</v>
@@ -2949,10 +2946,10 @@
         <v>91</v>
       </c>
       <c r="G80">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H80">
-        <v>87.43000000000001</v>
+        <v>87.95</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2978,10 +2975,10 @@
         <v>0.1885</v>
       </c>
       <c r="G81">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H81">
-        <v>89.55</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="I81">
         <v>0</v>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -731,13 +731,13 @@
         <v>0.001</v>
       </c>
       <c r="G3">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -847,13 +847,13 @@
         <v>0.0009</v>
       </c>
       <c r="G7">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>280000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>200000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>81200</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -928,10 +928,10 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <v>0.0016</v>
+        <v>0.0008</v>
       </c>
       <c r="G10">
         <v>-0.55</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>600</v>
+        <v>123200</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -992,13 +992,13 @@
         <v>0.0015</v>
       </c>
       <c r="G12">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1015,10 +1015,10 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <v>0.0014</v>
+        <v>0.0007</v>
       </c>
       <c r="G13">
         <v>-0.5</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10500</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>143300</v>
+        <v>330900</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1102,10 +1102,10 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F16">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="G16">
         <v>-0.45</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>125100</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1131,10 +1131,10 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F17">
-        <v>0.0019</v>
+        <v>0.0013</v>
       </c>
       <c r="G17">
         <v>-0.44</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3600</v>
+        <v>111400</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1160,10 +1160,10 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F18">
-        <v>0.0019</v>
+        <v>0.0013</v>
       </c>
       <c r="G18">
         <v>-0.43</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1800</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1189,19 +1189,19 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F19">
-        <v>0.0019</v>
+        <v>0.0012</v>
       </c>
       <c r="G19">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3700</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,10 +1227,10 @@
         <v>-0.42</v>
       </c>
       <c r="H20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1259,7 +1259,7 @@
         <v>0.01</v>
       </c>
       <c r="I21">
-        <v>1000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1285,10 +1285,10 @@
         <v>-0.4</v>
       </c>
       <c r="H22">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I22">
-        <v>3000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1317,7 +1317,7 @@
         <v>0.02</v>
       </c>
       <c r="I23">
-        <v>29200</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1343,10 +1343,10 @@
         <v>-0.38</v>
       </c>
       <c r="H24">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I24">
-        <v>2600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1363,16 +1363,16 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F25">
-        <v>0.0017</v>
+        <v>0.0029</v>
       </c>
       <c r="G25">
         <v>-0.37</v>
       </c>
       <c r="H25">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I25">
         <v>100</v>
@@ -1401,10 +1401,10 @@
         <v>-0.35</v>
       </c>
       <c r="H26">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I26">
-        <v>25300</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1430,10 +1430,10 @@
         <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I27">
-        <v>700</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1450,16 +1450,16 @@
         <v>90</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>0.0016</v>
+        <v>0.0022</v>
       </c>
       <c r="G28">
         <v>-0.34</v>
       </c>
       <c r="H28">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I28">
         <v>1400</v>
@@ -1479,19 +1479,19 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>0.0027</v>
+        <v>0.0016</v>
       </c>
       <c r="G29">
         <v>-0.33</v>
       </c>
       <c r="H29">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I29">
-        <v>5000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1508,19 +1508,19 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F30">
-        <v>0.0032</v>
+        <v>0.0026</v>
       </c>
       <c r="G30">
         <v>-0.32</v>
       </c>
       <c r="H30">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="I30">
-        <v>66400</v>
+        <v>62600</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1546,10 +1546,10 @@
         <v>-0.31</v>
       </c>
       <c r="H31">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="I31">
-        <v>40300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1566,19 +1566,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F32">
-        <v>0.0036</v>
+        <v>0.0031</v>
       </c>
       <c r="G32">
         <v>-0.3</v>
       </c>
       <c r="H32">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="I32">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1604,10 +1604,10 @@
         <v>-0.29</v>
       </c>
       <c r="H33">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I33">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1624,19 +1624,19 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F34">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="G34">
         <v>-0.28</v>
       </c>
       <c r="H34">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="I34">
-        <v>113700</v>
+        <v>443900</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1653,19 +1653,19 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F35">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="G35">
         <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="I35">
-        <v>6600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1691,10 +1691,10 @@
         <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="I36">
-        <v>10000</v>
+        <v>136300</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1711,19 +1711,19 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F37">
-        <v>0.0043</v>
+        <v>0.0039</v>
       </c>
       <c r="G37">
         <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="I37">
-        <v>9600</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1749,10 +1749,10 @@
         <v>-0.25</v>
       </c>
       <c r="H38">
-        <v>2.48</v>
+        <v>2.15</v>
       </c>
       <c r="I38">
-        <v>242500</v>
+        <v>290500</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1769,19 +1769,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F39">
-        <v>0.0047</v>
+        <v>0.0038</v>
       </c>
       <c r="G39">
         <v>-0.24</v>
       </c>
       <c r="H39">
-        <v>3.01</v>
+        <v>2.64</v>
       </c>
       <c r="I39">
-        <v>44800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1798,19 +1798,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F40">
-        <v>0.0047</v>
+        <v>0.0037</v>
       </c>
       <c r="G40">
         <v>-0.23</v>
       </c>
       <c r="H40">
-        <v>3.63</v>
+        <v>3.21</v>
       </c>
       <c r="I40">
-        <v>159900</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1827,19 +1827,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F41">
-        <v>0.0055</v>
+        <v>0.0046</v>
       </c>
       <c r="G41">
         <v>-0.22</v>
       </c>
       <c r="H41">
-        <v>4.34</v>
+        <v>3.88</v>
       </c>
       <c r="I41">
-        <v>41600</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1856,19 +1856,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F42">
-        <v>0.0055</v>
+        <v>0.005</v>
       </c>
       <c r="G42">
         <v>-0.21</v>
       </c>
       <c r="H42">
-        <v>5.15</v>
+        <v>4.64</v>
       </c>
       <c r="I42">
-        <v>858100</v>
+        <v>360900</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1885,19 +1885,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F43">
-        <v>0.0063</v>
+        <v>0.0049</v>
       </c>
       <c r="G43">
         <v>-0.2</v>
       </c>
       <c r="H43">
-        <v>6.07</v>
+        <v>5.5</v>
       </c>
       <c r="I43">
-        <v>8400</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1914,19 +1914,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F44">
-        <v>0.0067</v>
+        <v>0.0058</v>
       </c>
       <c r="G44">
         <v>-0.19</v>
       </c>
       <c r="H44">
-        <v>7.1</v>
+        <v>6.48</v>
       </c>
       <c r="I44">
-        <v>1400</v>
+        <v>209300</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1943,19 +1943,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="F45">
-        <v>0.0075</v>
+        <v>0.0062</v>
       </c>
       <c r="G45">
         <v>-0.18</v>
       </c>
       <c r="H45">
-        <v>8.24</v>
+        <v>7.57</v>
       </c>
       <c r="I45">
-        <v>24700</v>
+        <v>66600</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1972,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F46">
-        <v>0.0074</v>
+        <v>0.007</v>
       </c>
       <c r="G46">
         <v>-0.17</v>
       </c>
       <c r="H46">
-        <v>9.5</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I46">
-        <v>981700</v>
+        <v>554600</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="F47">
-        <v>0.0086</v>
+        <v>0.006</v>
       </c>
       <c r="G47">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="H47">
-        <v>10.88</v>
+        <v>10.13</v>
       </c>
       <c r="I47">
-        <v>139600</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,19 +2030,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F48">
-        <v>0.0089</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="G48">
         <v>-0.16</v>
       </c>
       <c r="H48">
-        <v>12.38</v>
+        <v>11.59</v>
       </c>
       <c r="I48">
-        <v>100600</v>
+        <v>140100</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,19 +2059,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F49">
-        <v>0.0101</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="G49">
         <v>-0.15</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>13.18</v>
       </c>
       <c r="I49">
-        <v>113900</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="F50">
-        <v>0.0113</v>
+        <v>0.01</v>
       </c>
       <c r="G50">
         <v>-0.14</v>
       </c>
       <c r="H50">
-        <v>15.74</v>
+        <v>14.9</v>
       </c>
       <c r="I50">
-        <v>551500</v>
+        <v>785700</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2117,19 +2117,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F51">
-        <v>0.0124</v>
+        <v>0.0111</v>
       </c>
       <c r="G51">
         <v>-0.13</v>
       </c>
       <c r="H51">
-        <v>17.6</v>
+        <v>16.74</v>
       </c>
       <c r="I51">
-        <v>220400</v>
+        <v>129900</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F52">
-        <v>0.0154</v>
+        <v>0.0141</v>
       </c>
       <c r="G52">
         <v>-0.11</v>
       </c>
       <c r="H52">
-        <v>21.65</v>
+        <v>20.77</v>
       </c>
       <c r="I52">
-        <v>280400</v>
+        <v>55300</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="F53">
-        <v>0.0168</v>
+        <v>0.0164</v>
       </c>
       <c r="G53">
         <v>-0.1</v>
       </c>
       <c r="H53">
-        <v>23.83</v>
+        <v>22.96</v>
       </c>
       <c r="I53">
-        <v>504600</v>
+        <v>2387300</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="F54">
-        <v>0.0186</v>
+        <v>0.0174</v>
       </c>
       <c r="G54">
         <v>-0.09</v>
       </c>
       <c r="H54">
-        <v>26.1</v>
+        <v>25.24</v>
       </c>
       <c r="I54">
-        <v>106600</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F55">
-        <v>0.02</v>
+        <v>0.0196</v>
       </c>
       <c r="G55">
         <v>-0.08</v>
       </c>
       <c r="H55">
-        <v>28.45</v>
+        <v>27.61</v>
       </c>
       <c r="I55">
-        <v>131500</v>
+        <v>206800</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,7 +2268,7 @@
         <v>-0.08</v>
       </c>
       <c r="H56">
-        <v>28.45</v>
+        <v>27.61</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2288,19 +2288,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F57">
-        <v>0.0225</v>
+        <v>0.0217</v>
       </c>
       <c r="G57">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="H57">
-        <v>30.87</v>
+        <v>30.06</v>
       </c>
       <c r="I57">
-        <v>107100</v>
+        <v>186100</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="F58">
-        <v>0.025</v>
+        <v>0.0238</v>
       </c>
       <c r="G58">
         <v>-0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>33.35</v>
+        <v>32.58</v>
       </c>
       <c r="I58">
-        <v>1131200</v>
+        <v>2005900</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2346,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F59">
-        <v>0.0267</v>
+        <v>0.0274</v>
       </c>
       <c r="G59">
         <v>-0.06</v>
       </c>
       <c r="H59">
-        <v>35.89</v>
+        <v>35.15</v>
       </c>
       <c r="I59">
-        <v>66100</v>
+        <v>348500</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2375,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F60">
-        <v>0.0306</v>
+        <v>0.0302</v>
       </c>
       <c r="G60">
         <v>-0.05</v>
       </c>
       <c r="H60">
-        <v>38.46</v>
+        <v>37.77</v>
       </c>
       <c r="I60">
-        <v>130900</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2413,10 +2413,10 @@
         <v>-0.04</v>
       </c>
       <c r="H61">
-        <v>41.07</v>
+        <v>40.43</v>
       </c>
       <c r="I61">
-        <v>263400</v>
+        <v>300200</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2432,17 +2432,20 @@
       <c r="D62" t="s">
         <v>90</v>
       </c>
+      <c r="E62">
+        <v>0.95</v>
+      </c>
       <c r="F62">
-        <v>0.037</v>
+        <v>0.0352</v>
       </c>
       <c r="G62">
         <v>-0.03</v>
       </c>
       <c r="H62">
-        <v>43.68</v>
+        <v>43.1</v>
       </c>
       <c r="I62">
-        <v>874900</v>
+        <v>828300</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2459,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="F63">
-        <v>0.0444</v>
+        <v>0.0436</v>
       </c>
       <c r="G63">
         <v>-0.01</v>
       </c>
       <c r="H63">
-        <v>48.91</v>
+        <v>48.45</v>
       </c>
       <c r="I63">
-        <v>465900</v>
+        <v>338200</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,7 +2497,7 @@
         <v>-0.01</v>
       </c>
       <c r="H64">
-        <v>48.91</v>
+        <v>48.45</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2514,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="F65">
-        <v>0.0472</v>
+        <v>0.0479</v>
       </c>
       <c r="G65">
         <v>-0</v>
       </c>
       <c r="H65">
-        <v>51.51</v>
+        <v>51.11</v>
       </c>
       <c r="I65">
-        <v>92200</v>
+        <v>122300</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2543,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="F66">
-        <v>0.0521</v>
+        <v>0.0525</v>
       </c>
       <c r="G66">
         <v>0.01</v>
       </c>
       <c r="H66">
-        <v>54.07</v>
+        <v>53.74</v>
       </c>
       <c r="I66">
-        <v>915500</v>
+        <v>1215600</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2572,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="F67">
-        <v>0.0593</v>
+        <v>0.0611</v>
       </c>
       <c r="G67">
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>59.07</v>
+        <v>58.86</v>
       </c>
       <c r="I67">
-        <v>59600</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2607,7 +2610,7 @@
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>59.07</v>
+        <v>58.86</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2627,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="F69">
-        <v>0.06469999999999999</v>
+        <v>0.0664</v>
       </c>
       <c r="G69">
         <v>0.03</v>
       </c>
       <c r="H69">
-        <v>61.49</v>
+        <v>61.34</v>
       </c>
       <c r="I69">
-        <v>91000</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2656,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="F70">
-        <v>0.06900000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G70">
         <v>0.04</v>
       </c>
       <c r="H70">
-        <v>63.84</v>
+        <v>63.76</v>
       </c>
       <c r="I70">
-        <v>739500</v>
+        <v>582100</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2685,19 +2688,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="F71">
-        <v>0.07969999999999999</v>
+        <v>0.0814</v>
       </c>
       <c r="G71">
         <v>0.06</v>
       </c>
       <c r="H71">
-        <v>68.33</v>
+        <v>68.36</v>
       </c>
       <c r="I71">
-        <v>7900</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2714,19 +2717,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="F72">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
       <c r="G72">
         <v>0.08</v>
       </c>
       <c r="H72">
-        <v>72.5</v>
+        <v>72.63</v>
       </c>
       <c r="I72">
-        <v>572700</v>
+        <v>990500</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2743,19 +2746,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="F73">
-        <v>0.0984</v>
+        <v>0.1052</v>
       </c>
       <c r="G73">
         <v>0.1</v>
       </c>
       <c r="H73">
-        <v>76.31</v>
+        <v>76.52</v>
       </c>
       <c r="I73">
-        <v>2400</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2778,7 +2781,7 @@
         <v>0.1</v>
       </c>
       <c r="H74">
-        <v>76.31</v>
+        <v>76.52</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2798,16 +2801,16 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>3.02</v>
+        <v>3.36</v>
       </c>
       <c r="F75">
-        <v>0.0982</v>
+        <v>0.1093</v>
       </c>
       <c r="G75">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H75">
-        <v>78.09</v>
+        <v>78.33</v>
       </c>
       <c r="I75">
         <v>2200</v>
@@ -2827,19 +2830,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>3.56</v>
+        <v>3.62</v>
       </c>
       <c r="F76">
-        <v>0.1148</v>
+        <v>0.1168</v>
       </c>
       <c r="G76">
         <v>0.11</v>
       </c>
       <c r="H76">
-        <v>79.76000000000001</v>
+        <v>80.03</v>
       </c>
       <c r="I76">
-        <v>13500</v>
+        <v>32200</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2856,19 +2859,19 @@
         <v>90</v>
       </c>
       <c r="E77">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F77">
-        <v>0.1286</v>
+        <v>0.1292</v>
       </c>
       <c r="G77">
         <v>0.13</v>
       </c>
       <c r="H77">
-        <v>82.84999999999999</v>
+        <v>83.16</v>
       </c>
       <c r="I77">
-        <v>4000</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2885,19 +2888,19 @@
         <v>90</v>
       </c>
       <c r="E78">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="F78">
-        <v>0.1197</v>
+        <v>0.1307</v>
       </c>
       <c r="G78">
         <v>0.14</v>
       </c>
       <c r="H78">
-        <v>84.25</v>
+        <v>84.58</v>
       </c>
       <c r="I78">
-        <v>5000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2914,19 +2917,19 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>4.46</v>
+        <v>4.55</v>
       </c>
       <c r="F79">
-        <v>0.1394</v>
+        <v>0.1422</v>
       </c>
       <c r="G79">
         <v>0.15</v>
       </c>
       <c r="H79">
-        <v>85.56999999999999</v>
+        <v>85.91</v>
       </c>
       <c r="I79">
-        <v>7000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2949,7 +2952,7 @@
         <v>0.17</v>
       </c>
       <c r="H80">
-        <v>87.95</v>
+        <v>88.31</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2969,19 +2972,19 @@
         <v>90</v>
       </c>
       <c r="E81">
-        <v>6.22</v>
+        <v>5.36</v>
       </c>
       <c r="F81">
-        <v>0.1885</v>
+        <v>0.1624</v>
       </c>
       <c r="G81">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H81">
-        <v>90.01000000000001</v>
+        <v>90.37</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -731,13 +731,13 @@
         <v>0.001</v>
       </c>
       <c r="G3">
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -847,13 +847,13 @@
         <v>0.0009</v>
       </c>
       <c r="G7">
-        <v>-0.61</v>
+        <v>-0.6</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -876,13 +876,13 @@
         <v>0.0009</v>
       </c>
       <c r="G8">
-        <v>-0.59</v>
+        <v>-0.58</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>81200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>65000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>123200</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -992,13 +992,13 @@
         <v>0.0015</v>
       </c>
       <c r="G12">
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>200100</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1015,19 +1015,19 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F13">
-        <v>0.0007</v>
+        <v>0.0014</v>
       </c>
       <c r="G13">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2600</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11100</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>330900</v>
+        <v>63500</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26400</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>111400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34800</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1189,19 +1189,19 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F19">
-        <v>0.0012</v>
+        <v>0.0019</v>
       </c>
       <c r="G19">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21400</v>
+        <v>48400</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1224,13 +1224,13 @@
         <v>0.0018</v>
       </c>
       <c r="G20">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1253,13 +1253,13 @@
         <v>0.0018</v>
       </c>
       <c r="G21">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="H21">
         <v>0.01</v>
       </c>
       <c r="I21">
-        <v>1700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1282,13 +1282,13 @@
         <v>0.0018</v>
       </c>
       <c r="G22">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="H22">
         <v>0.01</v>
       </c>
       <c r="I22">
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1311,13 +1311,13 @@
         <v>0.0018</v>
       </c>
       <c r="G23">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="H23">
         <v>0.02</v>
       </c>
       <c r="I23">
-        <v>14900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1346,7 +1346,7 @@
         <v>0.03</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1375,7 +1375,7 @@
         <v>0.04</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1404,7 +1404,7 @@
         <v>0.08</v>
       </c>
       <c r="I26">
-        <v>73400</v>
+        <v>61400</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1430,10 +1430,10 @@
         <v>-0.34</v>
       </c>
       <c r="H27">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I27">
-        <v>25600</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1456,13 +1456,13 @@
         <v>0.0022</v>
       </c>
       <c r="G28">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="H28">
         <v>0.16</v>
       </c>
       <c r="I28">
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1479,19 +1479,19 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F29">
-        <v>0.0016</v>
+        <v>0.0032</v>
       </c>
       <c r="G29">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="H29">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1514,13 +1514,13 @@
         <v>0.0026</v>
       </c>
       <c r="G30">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="H30">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I30">
-        <v>62600</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1543,10 +1543,10 @@
         <v>0.0031</v>
       </c>
       <c r="G31">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="H31">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
         <v>500</v>
@@ -1572,13 +1572,13 @@
         <v>0.0031</v>
       </c>
       <c r="G32">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="H32">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="I32">
-        <v>7000</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1595,19 +1595,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F33">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="G33">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="H33">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1633,10 +1633,10 @@
         <v>-0.28</v>
       </c>
       <c r="H34">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="I34">
-        <v>443900</v>
+        <v>77700</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1662,10 +1662,10 @@
         <v>-0.27</v>
       </c>
       <c r="H35">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="I35">
-        <v>1000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1691,10 +1691,10 @@
         <v>-0.26</v>
       </c>
       <c r="H36">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="I36">
-        <v>136300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1720,10 +1720,10 @@
         <v>-0.25</v>
       </c>
       <c r="H37">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="I37">
-        <v>10200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1740,19 +1740,19 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F38">
-        <v>0.0043</v>
+        <v>0.0033</v>
       </c>
       <c r="G38">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="H38">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="I38">
-        <v>290500</v>
+        <v>106700</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1769,19 +1769,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F39">
-        <v>0.0038</v>
+        <v>0.0042</v>
       </c>
       <c r="G39">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="H39">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="I39">
-        <v>15000</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1798,19 +1798,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F40">
-        <v>0.0037</v>
+        <v>0.0042</v>
       </c>
       <c r="G40">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="H40">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="I40">
-        <v>47000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1833,13 +1833,13 @@
         <v>0.0046</v>
       </c>
       <c r="G41">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="H41">
-        <v>3.88</v>
+        <v>4.14</v>
       </c>
       <c r="I41">
-        <v>35000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1862,13 +1862,13 @@
         <v>0.005</v>
       </c>
       <c r="G42">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="H42">
-        <v>4.64</v>
+        <v>4.96</v>
       </c>
       <c r="I42">
-        <v>360900</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1885,19 +1885,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F43">
-        <v>0.0049</v>
+        <v>0.0054</v>
       </c>
       <c r="G43">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="H43">
-        <v>5.5</v>
+        <v>5.89</v>
       </c>
       <c r="I43">
-        <v>8700</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1923,10 +1923,10 @@
         <v>-0.19</v>
       </c>
       <c r="H44">
-        <v>6.48</v>
+        <v>6.93</v>
       </c>
       <c r="I44">
-        <v>209300</v>
+        <v>129000</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1952,10 +1952,10 @@
         <v>-0.18</v>
       </c>
       <c r="H45">
-        <v>7.57</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I45">
-        <v>66600</v>
+        <v>74600</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1972,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F46">
-        <v>0.007</v>
+        <v>0.0074</v>
       </c>
       <c r="G46">
         <v>-0.17</v>
       </c>
       <c r="H46">
-        <v>8.789999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I46">
-        <v>554600</v>
+        <v>130600</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="F47">
-        <v>0.006</v>
+        <v>0.0077</v>
       </c>
       <c r="G47">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="H47">
-        <v>10.13</v>
+        <v>10.83</v>
       </c>
       <c r="I47">
-        <v>57200</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,19 +2030,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F48">
-        <v>0.008500000000000001</v>
+        <v>0.0081</v>
       </c>
       <c r="G48">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="H48">
-        <v>11.59</v>
+        <v>12.4</v>
       </c>
       <c r="I48">
-        <v>140100</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,19 +2059,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F49">
-        <v>0.009299999999999999</v>
+        <v>0.0097</v>
       </c>
       <c r="G49">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="H49">
-        <v>13.18</v>
+        <v>14.09</v>
       </c>
       <c r="I49">
-        <v>50200</v>
+        <v>87800</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F50">
-        <v>0.01</v>
+        <v>0.0104</v>
       </c>
       <c r="G50">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="H50">
-        <v>14.9</v>
+        <v>15.92</v>
       </c>
       <c r="I50">
-        <v>785700</v>
+        <v>576800</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2117,19 +2117,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F51">
-        <v>0.0111</v>
+        <v>0.012</v>
       </c>
       <c r="G51">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="H51">
-        <v>16.74</v>
+        <v>17.87</v>
       </c>
       <c r="I51">
-        <v>129900</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="F52">
-        <v>0.0141</v>
+        <v>0.0145</v>
       </c>
       <c r="G52">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="H52">
-        <v>20.77</v>
+        <v>22.14</v>
       </c>
       <c r="I52">
-        <v>55300</v>
+        <v>174900</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2181,13 +2181,13 @@
         <v>0.0164</v>
       </c>
       <c r="G53">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="H53">
-        <v>22.96</v>
+        <v>24.43</v>
       </c>
       <c r="I53">
-        <v>2387300</v>
+        <v>1159700</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="F54">
-        <v>0.0174</v>
+        <v>0.0182</v>
       </c>
       <c r="G54">
         <v>-0.09</v>
       </c>
       <c r="H54">
-        <v>25.24</v>
+        <v>26.83</v>
       </c>
       <c r="I54">
-        <v>112500</v>
+        <v>315300</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F55">
-        <v>0.0196</v>
+        <v>0.0204</v>
       </c>
       <c r="G55">
         <v>-0.08</v>
       </c>
       <c r="H55">
-        <v>27.61</v>
+        <v>29.31</v>
       </c>
       <c r="I55">
-        <v>206800</v>
+        <v>257400</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2268,7 +2268,7 @@
         <v>-0.08</v>
       </c>
       <c r="H56">
-        <v>27.61</v>
+        <v>29.31</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2288,19 +2288,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="F57">
-        <v>0.0217</v>
+        <v>0.0225</v>
       </c>
       <c r="G57">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H57">
-        <v>30.06</v>
+        <v>31.87</v>
       </c>
       <c r="I57">
-        <v>186100</v>
+        <v>216700</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="F58">
-        <v>0.0238</v>
+        <v>0.0254</v>
       </c>
       <c r="G58">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="H58">
-        <v>32.58</v>
+        <v>34.5</v>
       </c>
       <c r="I58">
-        <v>2005900</v>
+        <v>860900</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2346,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="F59">
-        <v>0.0274</v>
+        <v>0.0278</v>
       </c>
       <c r="G59">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="H59">
-        <v>35.15</v>
+        <v>37.17</v>
       </c>
       <c r="I59">
-        <v>348500</v>
+        <v>225900</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2375,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F60">
-        <v>0.0302</v>
+        <v>0.0306</v>
       </c>
       <c r="G60">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="H60">
-        <v>37.77</v>
+        <v>39.88</v>
       </c>
       <c r="I60">
-        <v>46500</v>
+        <v>193800</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2404,19 +2404,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F61">
-        <v>0.0333</v>
+        <v>0.0355</v>
       </c>
       <c r="G61">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="H61">
-        <v>40.43</v>
+        <v>42.62</v>
       </c>
       <c r="I61">
-        <v>300200</v>
+        <v>191200</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2433,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="F62">
-        <v>0.0352</v>
+        <v>0.0374</v>
       </c>
       <c r="G62">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="H62">
-        <v>43.1</v>
+        <v>45.36</v>
       </c>
       <c r="I62">
-        <v>828300</v>
+        <v>1033400</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F63">
-        <v>0.0436</v>
+        <v>0.0455</v>
       </c>
       <c r="G63">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="H63">
-        <v>48.45</v>
+        <v>50.83</v>
       </c>
       <c r="I63">
-        <v>338200</v>
+        <v>345400</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,10 +2494,10 @@
         <v>91</v>
       </c>
       <c r="G64">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="H64">
-        <v>48.45</v>
+        <v>50.83</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2517,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="F65">
-        <v>0.0479</v>
+        <v>0.0494</v>
       </c>
       <c r="G65">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>51.11</v>
+        <v>53.52</v>
       </c>
       <c r="I65">
-        <v>122300</v>
+        <v>166100</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="F66">
-        <v>0.0525</v>
+        <v>0.0536</v>
       </c>
       <c r="G66">
         <v>0.01</v>
       </c>
       <c r="H66">
-        <v>53.74</v>
+        <v>56.18</v>
       </c>
       <c r="I66">
-        <v>1215600</v>
+        <v>1394000</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="F67">
-        <v>0.0611</v>
+        <v>0.0621</v>
       </c>
       <c r="G67">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H67">
-        <v>58.86</v>
+        <v>61.33</v>
       </c>
       <c r="I67">
-        <v>84100</v>
+        <v>56200</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2607,10 +2607,10 @@
         <v>91</v>
       </c>
       <c r="G68">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H68">
-        <v>58.86</v>
+        <v>61.33</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2630,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="F69">
-        <v>0.0664</v>
+        <v>0.0678</v>
       </c>
       <c r="G69">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H69">
-        <v>61.34</v>
+        <v>63.81</v>
       </c>
       <c r="I69">
-        <v>39500</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2659,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="F70">
-        <v>0.07099999999999999</v>
+        <v>0.0759</v>
       </c>
       <c r="G70">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H70">
-        <v>63.76</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="I70">
-        <v>582100</v>
+        <v>434800</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2688,19 +2688,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="F71">
-        <v>0.0814</v>
+        <v>0.0898</v>
       </c>
       <c r="G71">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H71">
-        <v>68.36</v>
+        <v>70.75</v>
       </c>
       <c r="I71">
-        <v>10700</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2717,19 +2717,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="F72">
-        <v>0.094</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="G72">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H72">
-        <v>72.63</v>
+        <v>74.91</v>
       </c>
       <c r="I72">
-        <v>990500</v>
+        <v>657200</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2746,19 +2746,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>3.21</v>
+        <v>3.26</v>
       </c>
       <c r="F73">
-        <v>0.1052</v>
+        <v>0.1069</v>
       </c>
       <c r="G73">
         <v>0.1</v>
       </c>
       <c r="H73">
-        <v>76.52</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="I73">
-        <v>8000</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2781,7 +2781,7 @@
         <v>0.1</v>
       </c>
       <c r="H74">
-        <v>76.52</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2801,19 +2801,19 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="F75">
-        <v>0.1093</v>
+        <v>0.1106</v>
       </c>
       <c r="G75">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H75">
-        <v>78.33</v>
+        <v>80.41</v>
       </c>
       <c r="I75">
-        <v>2200</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2830,19 +2830,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="F76">
-        <v>0.1168</v>
+        <v>0.1187</v>
       </c>
       <c r="G76">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H76">
-        <v>80.03</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="I76">
-        <v>32200</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2859,19 +2859,19 @@
         <v>90</v>
       </c>
       <c r="E77">
-        <v>4.07</v>
+        <v>4.15</v>
       </c>
       <c r="F77">
-        <v>0.1292</v>
+        <v>0.1317</v>
       </c>
       <c r="G77">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H77">
-        <v>83.16</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="I77">
-        <v>11300</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2894,13 +2894,13 @@
         <v>0.1307</v>
       </c>
       <c r="G78">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="H78">
-        <v>84.58</v>
+        <v>86.34</v>
       </c>
       <c r="I78">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2923,13 +2923,13 @@
         <v>0.1422</v>
       </c>
       <c r="G79">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H79">
-        <v>85.91</v>
+        <v>87.59</v>
       </c>
       <c r="I79">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2949,10 +2949,10 @@
         <v>91</v>
       </c>
       <c r="G80">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H80">
-        <v>88.31</v>
+        <v>89.81</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2978,13 +2978,13 @@
         <v>0.1624</v>
       </c>
       <c r="G81">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H81">
-        <v>90.37</v>
+        <v>91.7</v>
       </c>
       <c r="I81">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Robo_PUT_PETR4.xlsx
+++ b/Robo_PUT_PETR4.xlsx
@@ -702,7 +702,7 @@
         <v>0.0011</v>
       </c>
       <c r="G2">
-        <v>-0.66</v>
+        <v>-0.67</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0.001</v>
       </c>
       <c r="G3">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0.001</v>
       </c>
       <c r="G6">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -847,7 +847,7 @@
         <v>0.0009</v>
       </c>
       <c r="G7">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0.0009</v>
       </c>
       <c r="G8">
-        <v>-0.58</v>
+        <v>-0.59</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0.0008</v>
       </c>
       <c r="G10">
-        <v>-0.55</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0.0008</v>
       </c>
       <c r="G11">
-        <v>-0.53</v>
+        <v>-0.54</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>150000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -986,19 +986,19 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <v>0.0015</v>
+        <v>0.0007</v>
       </c>
       <c r="G12">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>200100</v>
+        <v>206000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1015,19 +1015,19 @@
         <v>90</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <v>0.0014</v>
+        <v>0.0007</v>
       </c>
       <c r="G13">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>144000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>108000</v>
+        <v>128000</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1079,13 +1079,13 @@
         <v>0.0013</v>
       </c>
       <c r="G15">
-        <v>-0.46</v>
+        <v>-0.47</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>63500</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1108,13 +1108,13 @@
         <v>0.0013</v>
       </c>
       <c r="G16">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14300</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1137,13 +1137,13 @@
         <v>0.0013</v>
       </c>
       <c r="G17">
-        <v>-0.44</v>
+        <v>-0.45</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1160,19 +1160,19 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F18">
-        <v>0.0013</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G18">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10700</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1195,7 +1195,7 @@
         <v>0.0019</v>
       </c>
       <c r="G19">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0.0018</v>
       </c>
       <c r="G20">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0.0018</v>
       </c>
       <c r="G21">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="H21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1282,13 +1282,13 @@
         <v>0.0018</v>
       </c>
       <c r="G22">
-        <v>-0.39</v>
+        <v>-0.4</v>
       </c>
       <c r="H22">
         <v>0.01</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1305,19 +1305,19 @@
         <v>90</v>
       </c>
       <c r="E23">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F23">
-        <v>0.0018</v>
+        <v>0.0012</v>
       </c>
       <c r="G23">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="H23">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1340,13 +1340,13 @@
         <v>0.0017</v>
       </c>
       <c r="G24">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="H24">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1369,10 +1369,10 @@
         <v>0.0029</v>
       </c>
       <c r="G25">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="H25">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1398,13 +1398,13 @@
         <v>0.0022</v>
       </c>
       <c r="G26">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="H26">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I26">
-        <v>61400</v>
+        <v>79500</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1427,13 +1427,13 @@
         <v>0.0022</v>
       </c>
       <c r="G27">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="H27">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27">
-        <v>15400</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1456,10 +1456,10 @@
         <v>0.0022</v>
       </c>
       <c r="G28">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="H28">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0.0032</v>
       </c>
       <c r="G29">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H29">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I29">
         <v>200</v>
@@ -1514,13 +1514,13 @@
         <v>0.0026</v>
       </c>
       <c r="G30">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="H30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I30">
-        <v>9700</v>
+        <v>183000</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1537,19 +1537,19 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F31">
-        <v>0.0031</v>
+        <v>0.0026</v>
       </c>
       <c r="G31">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="H31">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="I31">
-        <v>500</v>
+        <v>22700</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1566,19 +1566,19 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F32">
-        <v>0.0031</v>
+        <v>0.0026</v>
       </c>
       <c r="G32">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
       <c r="H32">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
       <c r="I32">
-        <v>8200</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1595,19 +1595,19 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F33">
-        <v>0.003</v>
+        <v>0.0025</v>
       </c>
       <c r="G33">
-        <v>-0.28</v>
+        <v>-0.3</v>
       </c>
       <c r="H33">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
       <c r="I33">
-        <v>12000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1630,13 +1630,13 @@
         <v>0.003</v>
       </c>
       <c r="G34">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="H34">
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="I34">
-        <v>77700</v>
+        <v>439800</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1659,10 +1659,10 @@
         <v>0.003</v>
       </c>
       <c r="G35">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="H35">
-        <v>1.16</v>
+        <v>0.82</v>
       </c>
       <c r="I35">
         <v>20000</v>
@@ -1688,13 +1688,13 @@
         <v>0.0034</v>
       </c>
       <c r="G36">
-        <v>-0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="H36">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1711,19 +1711,19 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F37">
-        <v>0.0039</v>
+        <v>0.0034</v>
       </c>
       <c r="G37">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H37">
-        <v>1.85</v>
+        <v>1.34</v>
       </c>
       <c r="I37">
-        <v>6000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1746,13 +1746,13 @@
         <v>0.0033</v>
       </c>
       <c r="G38">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H38">
-        <v>2.29</v>
+        <v>1.68</v>
       </c>
       <c r="I38">
-        <v>106700</v>
+        <v>109800</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1769,19 +1769,19 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F39">
-        <v>0.0042</v>
+        <v>0.0038</v>
       </c>
       <c r="G39">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="H39">
-        <v>2.82</v>
+        <v>2.08</v>
       </c>
       <c r="I39">
-        <v>11600</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1798,19 +1798,19 @@
         <v>90</v>
       </c>
       <c r="E40">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F40">
-        <v>0.0042</v>
+        <v>0.0037</v>
       </c>
       <c r="G40">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="H40">
-        <v>3.43</v>
+        <v>2.56</v>
       </c>
       <c r="I40">
-        <v>5100</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1827,19 +1827,19 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F41">
-        <v>0.0046</v>
+        <v>0.0041</v>
       </c>
       <c r="G41">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="H41">
-        <v>4.14</v>
+        <v>3.12</v>
       </c>
       <c r="I41">
-        <v>12000</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1856,19 +1856,19 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F42">
-        <v>0.005</v>
+        <v>0.0045</v>
       </c>
       <c r="G42">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="H42">
-        <v>4.96</v>
+        <v>3.77</v>
       </c>
       <c r="I42">
-        <v>57000</v>
+        <v>300500</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1885,19 +1885,19 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F43">
-        <v>0.0054</v>
+        <v>0.0049</v>
       </c>
       <c r="G43">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="H43">
-        <v>5.89</v>
+        <v>4.52</v>
       </c>
       <c r="I43">
-        <v>5200</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1914,19 +1914,19 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F44">
-        <v>0.0058</v>
+        <v>0.0049</v>
       </c>
       <c r="G44">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="H44">
-        <v>6.93</v>
+        <v>5.37</v>
       </c>
       <c r="I44">
-        <v>129000</v>
+        <v>145700</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1943,19 +1943,19 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F45">
-        <v>0.0062</v>
+        <v>0.0057</v>
       </c>
       <c r="G45">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H45">
-        <v>8.109999999999999</v>
+        <v>6.34</v>
       </c>
       <c r="I45">
-        <v>74600</v>
+        <v>148400</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1972,19 +1972,19 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F46">
-        <v>0.0074</v>
+        <v>0.0065</v>
       </c>
       <c r="G46">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="H46">
-        <v>9.4</v>
+        <v>7.42</v>
       </c>
       <c r="I46">
-        <v>130600</v>
+        <v>153700</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2001,19 +2001,19 @@
         <v>90</v>
       </c>
       <c r="E47">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F47">
-        <v>0.0077</v>
+        <v>0.0069</v>
       </c>
       <c r="G47">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="H47">
-        <v>10.83</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I47">
-        <v>25500</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2030,19 +2030,19 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F48">
-        <v>0.0081</v>
+        <v>0.0072</v>
       </c>
       <c r="G48">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="H48">
-        <v>12.4</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I48">
-        <v>33400</v>
+        <v>197100</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2059,19 +2059,19 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="F49">
-        <v>0.0097</v>
+        <v>0.008</v>
       </c>
       <c r="G49">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="H49">
-        <v>14.09</v>
+        <v>11.41</v>
       </c>
       <c r="I49">
-        <v>87800</v>
+        <v>111600</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2088,19 +2088,19 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F50">
-        <v>0.0104</v>
+        <v>0.0092</v>
       </c>
       <c r="G50">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="H50">
-        <v>15.92</v>
+        <v>12.99</v>
       </c>
       <c r="I50">
-        <v>576800</v>
+        <v>801100</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2117,19 +2117,19 @@
         <v>90</v>
       </c>
       <c r="E51">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="F51">
-        <v>0.012</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="G51">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="H51">
-        <v>17.87</v>
+        <v>14.7</v>
       </c>
       <c r="I51">
-        <v>40000</v>
+        <v>134700</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2146,19 +2146,19 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="F52">
-        <v>0.0145</v>
+        <v>0.0121</v>
       </c>
       <c r="G52">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="H52">
-        <v>22.14</v>
+        <v>18.5</v>
       </c>
       <c r="I52">
-        <v>174900</v>
+        <v>218700</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="F53">
-        <v>0.0164</v>
+        <v>0.014</v>
       </c>
       <c r="G53">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="H53">
-        <v>24.43</v>
+        <v>20.57</v>
       </c>
       <c r="I53">
-        <v>1159700</v>
+        <v>1745800</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2204,19 +2204,19 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="F54">
-        <v>0.0182</v>
+        <v>0.0154</v>
       </c>
       <c r="G54">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H54">
-        <v>26.83</v>
+        <v>22.76</v>
       </c>
       <c r="I54">
-        <v>315300</v>
+        <v>381800</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2233,19 +2233,19 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="F55">
-        <v>0.0204</v>
+        <v>0.0173</v>
       </c>
       <c r="G55">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="H55">
-        <v>29.31</v>
+        <v>25.04</v>
       </c>
       <c r="I55">
-        <v>257400</v>
+        <v>313300</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2265,10 +2265,10 @@
         <v>91</v>
       </c>
       <c r="G56">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="H56">
-        <v>29.31</v>
+        <v>25.04</v>
       </c>
       <c r="I56" t="s">
         <v>91</v>
@@ -2288,19 +2288,19 @@
         <v>90</v>
       </c>
       <c r="E57">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="F57">
-        <v>0.0225</v>
+        <v>0.019</v>
       </c>
       <c r="G57">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="H57">
-        <v>31.87</v>
+        <v>27.42</v>
       </c>
       <c r="I57">
-        <v>216700</v>
+        <v>304600</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2317,19 +2317,19 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.66</v>
+        <v>0.55</v>
       </c>
       <c r="F58">
-        <v>0.0254</v>
+        <v>0.0212</v>
       </c>
       <c r="G58">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H58">
-        <v>34.5</v>
+        <v>29.88</v>
       </c>
       <c r="I58">
-        <v>860900</v>
+        <v>1892400</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2346,19 +2346,19 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="F59">
-        <v>0.0278</v>
+        <v>0.0236</v>
       </c>
       <c r="G59">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H59">
-        <v>37.17</v>
+        <v>32.41</v>
       </c>
       <c r="I59">
-        <v>225900</v>
+        <v>398800</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2375,19 +2375,19 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F60">
-        <v>0.0306</v>
+        <v>0.026</v>
       </c>
       <c r="G60">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="H60">
-        <v>39.88</v>
+        <v>35</v>
       </c>
       <c r="I60">
-        <v>193800</v>
+        <v>241900</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2404,19 +2404,19 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="F61">
-        <v>0.0355</v>
+        <v>0.0292</v>
       </c>
       <c r="G61">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="H61">
-        <v>42.62</v>
+        <v>37.64</v>
       </c>
       <c r="I61">
-        <v>191200</v>
+        <v>273900</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2433,19 +2433,19 @@
         <v>90</v>
       </c>
       <c r="E62">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="F62">
-        <v>0.0374</v>
+        <v>0.0319</v>
       </c>
       <c r="G62">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="H62">
-        <v>45.36</v>
+        <v>40.3</v>
       </c>
       <c r="I62">
-        <v>1033400</v>
+        <v>1455900</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2462,19 +2462,19 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="F63">
-        <v>0.0455</v>
+        <v>0.0382</v>
       </c>
       <c r="G63">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="H63">
-        <v>50.83</v>
+        <v>45.69</v>
       </c>
       <c r="I63">
-        <v>345400</v>
+        <v>654200</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2494,10 +2494,10 @@
         <v>91</v>
       </c>
       <c r="G64">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="H64">
-        <v>50.83</v>
+        <v>45.69</v>
       </c>
       <c r="I64" t="s">
         <v>91</v>
@@ -2517,19 +2517,19 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="F65">
-        <v>0.0494</v>
+        <v>0.0425</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H65">
-        <v>53.52</v>
+        <v>48.39</v>
       </c>
       <c r="I65">
-        <v>166100</v>
+        <v>186300</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2546,19 +2546,19 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="F66">
-        <v>0.0536</v>
+        <v>0.0457</v>
       </c>
       <c r="G66">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="H66">
-        <v>56.18</v>
+        <v>51.06</v>
       </c>
       <c r="I66">
-        <v>1394000</v>
+        <v>2306300</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2575,19 +2575,19 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="F67">
-        <v>0.0621</v>
+        <v>0.0547</v>
       </c>
       <c r="G67">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H67">
-        <v>61.33</v>
+        <v>56.32</v>
       </c>
       <c r="I67">
-        <v>56200</v>
+        <v>84200</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2607,10 +2607,10 @@
         <v>91</v>
       </c>
       <c r="G68">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H68">
-        <v>61.33</v>
+        <v>56.32</v>
       </c>
       <c r="I68" t="s">
         <v>91</v>
@@ -2630,19 +2630,19 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="F69">
-        <v>0.0678</v>
+        <v>0.0591</v>
       </c>
       <c r="G69">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H69">
-        <v>63.81</v>
+        <v>58.88</v>
       </c>
       <c r="I69">
-        <v>18300</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2659,19 +2659,19 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="F70">
-        <v>0.0759</v>
+        <v>0.0641</v>
       </c>
       <c r="G70">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H70">
-        <v>66.20999999999999</v>
+        <v>61.38</v>
       </c>
       <c r="I70">
-        <v>434800</v>
+        <v>740300</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2688,19 +2688,19 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>2.65</v>
+        <v>2.19</v>
       </c>
       <c r="F71">
-        <v>0.0898</v>
+        <v>0.0742</v>
       </c>
       <c r="G71">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H71">
-        <v>70.75</v>
+        <v>66.17</v>
       </c>
       <c r="I71">
-        <v>2800</v>
+        <v>25700</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2717,19 +2717,19 @@
         <v>90</v>
       </c>
       <c r="E72">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="F72">
-        <v>0.09569999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G72">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H72">
-        <v>74.91</v>
+        <v>70.64</v>
       </c>
       <c r="I72">
-        <v>657200</v>
+        <v>1446000</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2746,19 +2746,19 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="F73">
-        <v>0.1069</v>
+        <v>0.0951</v>
       </c>
       <c r="G73">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H73">
-        <v>78.68000000000001</v>
+        <v>74.75</v>
       </c>
       <c r="I73">
-        <v>14200</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2778,10 +2778,10 @@
         <v>91</v>
       </c>
       <c r="G74">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H74">
-        <v>78.68000000000001</v>
+        <v>74.75</v>
       </c>
       <c r="I74" t="s">
         <v>91</v>
@@ -2801,19 +2801,19 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="F75">
-        <v>0.1106</v>
+        <v>0.0992</v>
       </c>
       <c r="G75">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="H75">
-        <v>80.41</v>
+        <v>76.66</v>
       </c>
       <c r="I75">
-        <v>7700</v>
+        <v>35200</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2830,19 +2830,19 @@
         <v>90</v>
       </c>
       <c r="E76">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
       <c r="F76">
-        <v>0.1187</v>
+        <v>0.109</v>
       </c>
       <c r="G76">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H76">
-        <v>82.04000000000001</v>
+        <v>78.47</v>
       </c>
       <c r="I76">
-        <v>17300</v>
+        <v>46400</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2859,19 +2859,19 @@
         <v>90</v>
       </c>
       <c r="E77">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="F77">
-        <v>0.1317</v>
+        <v>0.1175</v>
       </c>
       <c r="G77">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="H77">
-        <v>85.01000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="I77">
-        <v>4100</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2894,13 +2894,13 @@
         <v>0.1307</v>
       </c>
       <c r="G78">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="H78">
-        <v>86.34</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2917,19 +2917,19 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>4.55</v>
+        <v>4.16</v>
       </c>
       <c r="F79">
-        <v>0.1422</v>
+        <v>0.13</v>
       </c>
       <c r="G79">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="H79">
-        <v>87.59</v>
+        <v>84.75</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2949,10 +2949,10 @@
         <v>91</v>
       </c>
       <c r="G80">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="H80">
-        <v>89.81</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="I80" t="s">
         <v>91</v>
@@ -2978,10 +2978,10 @@
         <v>0.1624</v>
       </c>
       <c r="G81">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="H81">
-        <v>91.7</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="I81">
         <v>0</v>
